--- a/SC2020TS/SC2020TS.xlsx
+++ b/SC2020TS/SC2020TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\rFactor 2\ModDev\Vehicles\SC2020TS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B925880F-D81B-4B45-86EC-E10B28619127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5838AF46-6A63-478E-BBEA-E4D1DEEC90AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29850" yWindow="2925" windowWidth="28800" windowHeight="15435" firstSheet="7" activeTab="11" xr2:uid="{8789A8AA-D4CF-4D2B-A3A0-DAA2D43268CE}"/>
+    <workbookView xWindow="3900" yWindow="1920" windowWidth="31215" windowHeight="17355" firstSheet="3" activeTab="4" xr2:uid="{8789A8AA-D4CF-4D2B-A3A0-DAA2D43268CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Track_Params" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4126" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4124" uniqueCount="140">
   <si>
     <t>Track</t>
   </si>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72282B91-580B-4020-AC52-91E58139DF3B}">
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,10 +1227,46 @@
         <v>33</v>
       </c>
       <c r="F14">
-        <v>4.5</v>
+        <v>5.2</v>
+      </c>
+      <c r="G14">
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <v>32</v>
+      </c>
+      <c r="I14">
+        <v>40</v>
+      </c>
+      <c r="J14">
+        <v>55</v>
+      </c>
+      <c r="K14">
+        <v>70</v>
+      </c>
+      <c r="L14">
+        <v>82</v>
+      </c>
+      <c r="M14">
+        <v>88</v>
+      </c>
+      <c r="N14">
+        <v>93</v>
+      </c>
+      <c r="O14">
+        <v>250</v>
+      </c>
+      <c r="P14">
+        <v>250</v>
+      </c>
+      <c r="Q14">
+        <v>-35</v>
       </c>
       <c r="R14">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="S14">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -5690,8 +5726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149BC39B-C156-435D-8EE1-AE509FEB7E01}">
   <dimension ref="A1:AJ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AG17" sqref="AG17"/>
+    <sheetView topLeftCell="T8" workbookViewId="0">
+      <selection sqref="A1:AE45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9972,9 +10008,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BFAD63-9A69-464C-BC0C-54ADD9FC321D}">
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AJ45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10008,12 +10046,12 @@
     <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.7109375" customWidth="1"/>
     <col min="32" max="32" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -10063,1900 +10101,2045 @@
         <v>17</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>98</v>
       </c>
       <c r="E2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N2">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="O2">
-        <v>50</v>
-      </c>
-      <c r="R2">
-        <v>98</v>
-      </c>
-      <c r="S2">
-        <v>50</v>
+        <v>95</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
       </c>
       <c r="U2">
-        <v>24.158999999999999</v>
+        <v>90.1</v>
       </c>
       <c r="V2">
-        <v>0.125</v>
-      </c>
-      <c r="W2">
-        <v>24.158999999999999</v>
+        <v>90.1</v>
       </c>
       <c r="X2">
-        <v>0.125</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+        <v>31.5</v>
+      </c>
+      <c r="Y2">
+        <v>0.125</v>
+      </c>
+      <c r="Z2">
+        <v>31.5</v>
+      </c>
+      <c r="AA2">
+        <v>0.125</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="D3">
         <v>98</v>
       </c>
       <c r="E3">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="N3">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O3">
-        <v>50</v>
-      </c>
-      <c r="R3">
-        <v>98</v>
-      </c>
-      <c r="S3">
-        <v>50</v>
+        <v>95</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
       </c>
       <c r="U3">
-        <v>24.346</v>
+        <v>98</v>
       </c>
       <c r="V3">
-        <v>0.125</v>
-      </c>
-      <c r="W3">
-        <v>24.346</v>
+        <v>90</v>
       </c>
       <c r="X3">
-        <v>0.125</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+        <v>31.5</v>
+      </c>
+      <c r="Y3">
+        <v>0.125</v>
+      </c>
+      <c r="Z3">
+        <v>31.5</v>
+      </c>
+      <c r="AA3">
+        <v>0.125</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="C4">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="D4">
         <v>98</v>
       </c>
       <c r="E4">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="N4">
         <v>50</v>
       </c>
       <c r="O4">
-        <v>50</v>
-      </c>
-      <c r="R4">
-        <v>98</v>
-      </c>
-      <c r="S4">
-        <v>50</v>
+        <v>92</v>
+      </c>
+      <c r="P4">
+        <v>12</v>
       </c>
       <c r="U4">
-        <v>24.646000000000001</v>
+        <v>90</v>
       </c>
       <c r="V4">
-        <v>0.125</v>
-      </c>
-      <c r="W4">
-        <v>24.646000000000001</v>
+        <v>90</v>
       </c>
       <c r="X4">
-        <v>0.125</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+        <v>31.7</v>
+      </c>
+      <c r="Y4">
+        <v>0.125</v>
+      </c>
+      <c r="Z4">
+        <v>31.7</v>
+      </c>
+      <c r="AA4">
+        <v>0.125</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>98</v>
+      </c>
+      <c r="D5">
+        <v>98</v>
+      </c>
+      <c r="E5">
+        <v>98</v>
+      </c>
+      <c r="N5">
+        <v>65</v>
+      </c>
+      <c r="O5">
+        <v>94</v>
+      </c>
+      <c r="P5">
+        <v>12</v>
+      </c>
+      <c r="U5">
+        <v>90</v>
+      </c>
+      <c r="V5">
+        <v>88</v>
+      </c>
+      <c r="X5">
+        <v>31.7</v>
+      </c>
+      <c r="Y5">
+        <v>0.125</v>
+      </c>
+      <c r="Z5">
+        <v>31.7</v>
+      </c>
+      <c r="AA5">
+        <v>0.125</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>95</v>
+      </c>
+      <c r="D6">
+        <v>98</v>
+      </c>
+      <c r="E6">
+        <v>95</v>
+      </c>
+      <c r="N6">
+        <v>65</v>
+      </c>
+      <c r="O6">
+        <v>82</v>
+      </c>
+      <c r="P6">
+        <v>12</v>
+      </c>
+      <c r="U6">
+        <v>90</v>
+      </c>
+      <c r="V6">
+        <v>80</v>
+      </c>
+      <c r="X6">
+        <v>31.7</v>
+      </c>
+      <c r="Y6">
+        <v>0.125</v>
+      </c>
+      <c r="Z6">
+        <v>31.7</v>
+      </c>
+      <c r="AA6">
+        <v>0.125</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>95</v>
+      </c>
+      <c r="D7">
+        <v>98</v>
+      </c>
+      <c r="E7">
+        <v>95</v>
+      </c>
+      <c r="N7">
+        <v>55</v>
+      </c>
+      <c r="O7">
+        <v>81</v>
+      </c>
+      <c r="P7">
+        <v>12</v>
+      </c>
+      <c r="U7">
+        <v>90</v>
+      </c>
+      <c r="V7">
+        <v>80</v>
+      </c>
+      <c r="X7">
+        <v>31.7</v>
+      </c>
+      <c r="Y7">
+        <v>0.125</v>
+      </c>
+      <c r="Z7">
+        <v>31.7</v>
+      </c>
+      <c r="AA7">
+        <v>0.125</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>93</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+      <c r="E8">
+        <v>93</v>
+      </c>
+      <c r="N8">
+        <v>55</v>
+      </c>
+      <c r="O8">
+        <v>80</v>
+      </c>
+      <c r="P8">
+        <v>15</v>
+      </c>
+      <c r="U8">
+        <v>90</v>
+      </c>
+      <c r="V8">
+        <v>70</v>
+      </c>
+      <c r="X8">
+        <v>31.7</v>
+      </c>
+      <c r="Y8">
+        <v>0.125</v>
+      </c>
+      <c r="Z8">
+        <v>31.7</v>
+      </c>
+      <c r="AA8">
+        <v>0.125</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>92</v>
+      </c>
+      <c r="D9">
+        <v>90</v>
+      </c>
+      <c r="E9">
+        <v>92</v>
+      </c>
+      <c r="N9">
+        <v>60</v>
+      </c>
+      <c r="O9">
+        <v>76</v>
+      </c>
+      <c r="P9">
+        <v>15</v>
+      </c>
+      <c r="U9">
+        <v>90</v>
+      </c>
+      <c r="V9">
+        <v>80</v>
+      </c>
+      <c r="X9">
+        <v>32</v>
+      </c>
+      <c r="Y9">
+        <v>0.125</v>
+      </c>
+      <c r="Z9">
+        <v>32</v>
+      </c>
+      <c r="AA9">
+        <v>0.125</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C5">
-        <v>50</v>
-      </c>
-      <c r="D5">
-        <v>98</v>
-      </c>
-      <c r="E5">
-        <v>90</v>
-      </c>
-      <c r="N5">
-        <v>50</v>
-      </c>
-      <c r="O5">
-        <v>50</v>
-      </c>
-      <c r="R5">
-        <v>98</v>
-      </c>
-      <c r="S5">
-        <v>50</v>
-      </c>
-      <c r="U5">
-        <v>23.672000000000001</v>
-      </c>
-      <c r="V5">
-        <v>0.125</v>
-      </c>
-      <c r="W5">
-        <v>23.672000000000001</v>
-      </c>
-      <c r="X5">
-        <v>0.125</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>90</v>
+      </c>
+      <c r="D10">
+        <v>90</v>
+      </c>
+      <c r="E10">
+        <v>90</v>
+      </c>
+      <c r="N10">
+        <v>55</v>
+      </c>
+      <c r="O10">
+        <v>70</v>
+      </c>
+      <c r="P10">
+        <v>15</v>
+      </c>
+      <c r="U10">
+        <v>88</v>
+      </c>
+      <c r="V10">
+        <v>83</v>
+      </c>
+      <c r="X10">
+        <v>32</v>
+      </c>
+      <c r="Y10">
+        <v>0.125</v>
+      </c>
+      <c r="Z10">
+        <v>32</v>
+      </c>
+      <c r="AA10">
+        <v>0.125</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>90</v>
+      </c>
+      <c r="D11">
+        <v>90</v>
+      </c>
+      <c r="E11">
+        <v>90</v>
+      </c>
+      <c r="N11">
+        <v>60</v>
+      </c>
+      <c r="O11">
+        <v>76</v>
+      </c>
+      <c r="P11">
+        <v>15</v>
+      </c>
+      <c r="U11">
+        <v>90</v>
+      </c>
+      <c r="V11">
+        <v>80</v>
+      </c>
+      <c r="X11">
+        <v>32</v>
+      </c>
+      <c r="Y11">
+        <v>0.125</v>
+      </c>
+      <c r="Z11">
+        <v>32</v>
+      </c>
+      <c r="AA11">
+        <v>0.125</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <v>90</v>
+      </c>
+      <c r="E12">
+        <v>90</v>
+      </c>
+      <c r="N12">
+        <v>55</v>
+      </c>
+      <c r="O12">
+        <v>81</v>
+      </c>
+      <c r="P12">
+        <v>15</v>
+      </c>
+      <c r="U12">
+        <v>90</v>
+      </c>
+      <c r="V12">
+        <v>80</v>
+      </c>
+      <c r="X12">
+        <v>32</v>
+      </c>
+      <c r="Y12">
+        <v>0.125</v>
+      </c>
+      <c r="Z12">
+        <v>32</v>
+      </c>
+      <c r="AA12">
+        <v>0.125</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>90</v>
+      </c>
+      <c r="D13">
+        <v>90</v>
+      </c>
+      <c r="E13">
+        <v>90</v>
+      </c>
+      <c r="N13">
+        <v>55</v>
+      </c>
+      <c r="O13">
+        <v>81</v>
+      </c>
+      <c r="P13">
+        <v>16</v>
+      </c>
+      <c r="U13">
+        <v>90</v>
+      </c>
+      <c r="V13">
+        <v>80</v>
+      </c>
+      <c r="X13">
+        <v>32</v>
+      </c>
+      <c r="Y13">
+        <v>0.125</v>
+      </c>
+      <c r="Z13">
+        <v>32</v>
+      </c>
+      <c r="AA13">
+        <v>0.125</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>90</v>
+      </c>
+      <c r="D14">
+        <v>90</v>
+      </c>
+      <c r="E14">
+        <v>90</v>
+      </c>
+      <c r="N14">
+        <v>55</v>
+      </c>
+      <c r="O14">
+        <v>81</v>
+      </c>
+      <c r="P14">
+        <v>16</v>
+      </c>
+      <c r="U14">
+        <v>90</v>
+      </c>
+      <c r="V14">
+        <v>80</v>
+      </c>
+      <c r="X14">
+        <v>32</v>
+      </c>
+      <c r="Y14">
+        <v>0.125</v>
+      </c>
+      <c r="Z14">
+        <v>32</v>
+      </c>
+      <c r="AA14">
+        <v>0.125</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>90</v>
+      </c>
+      <c r="D15">
+        <v>90</v>
+      </c>
+      <c r="E15">
+        <v>90</v>
+      </c>
+      <c r="N15">
+        <v>55</v>
+      </c>
+      <c r="O15">
+        <v>81</v>
+      </c>
+      <c r="P15">
+        <v>21</v>
+      </c>
+      <c r="U15">
+        <v>90</v>
+      </c>
+      <c r="V15">
+        <v>80</v>
+      </c>
+      <c r="X15">
+        <v>32</v>
+      </c>
+      <c r="Y15">
+        <v>0.125</v>
+      </c>
+      <c r="Z15">
+        <v>32</v>
+      </c>
+      <c r="AA15">
+        <v>0.125</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>87</v>
+      </c>
+      <c r="D16">
+        <v>90</v>
+      </c>
+      <c r="E16">
+        <v>87</v>
+      </c>
+      <c r="N16">
+        <v>25</v>
+      </c>
+      <c r="O16">
+        <v>75</v>
+      </c>
+      <c r="P16">
+        <v>21</v>
+      </c>
+      <c r="U16">
+        <v>90</v>
+      </c>
+      <c r="V16">
+        <v>75</v>
+      </c>
+      <c r="X16">
+        <v>32</v>
+      </c>
+      <c r="Y16">
+        <v>0.125</v>
+      </c>
+      <c r="Z16">
+        <v>32</v>
+      </c>
+      <c r="AA16">
+        <v>0.125</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
         <v>86</v>
       </c>
-      <c r="C6">
+      <c r="D17">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <v>86</v>
+      </c>
+      <c r="N17">
+        <v>65</v>
+      </c>
+      <c r="O17">
+        <v>75</v>
+      </c>
+      <c r="U17">
+        <v>90</v>
+      </c>
+      <c r="V17">
+        <v>82</v>
+      </c>
+      <c r="X17">
+        <v>32</v>
+      </c>
+      <c r="Y17">
+        <v>0.125</v>
+      </c>
+      <c r="Z17">
+        <v>32</v>
+      </c>
+      <c r="AA17">
+        <v>0.125</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>85</v>
+      </c>
+      <c r="D18">
+        <v>80</v>
+      </c>
+      <c r="E18">
+        <v>85</v>
+      </c>
+      <c r="N18">
+        <v>25</v>
+      </c>
+      <c r="O18">
+        <v>75</v>
+      </c>
+      <c r="U18">
+        <v>90</v>
+      </c>
+      <c r="V18">
+        <v>75</v>
+      </c>
+      <c r="X18">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="Y18">
+        <v>0.125</v>
+      </c>
+      <c r="Z18">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="AA18">
+        <v>0.125</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>85</v>
+      </c>
+      <c r="D19">
+        <v>80</v>
+      </c>
+      <c r="E19">
+        <v>85</v>
+      </c>
+      <c r="N19">
+        <v>60</v>
+      </c>
+      <c r="O19">
+        <v>75</v>
+      </c>
+      <c r="U19">
+        <v>90</v>
+      </c>
+      <c r="V19">
+        <v>80</v>
+      </c>
+      <c r="X19">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="Y19">
+        <v>0.125</v>
+      </c>
+      <c r="Z19">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="AA19">
+        <v>0.125</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>85</v>
+      </c>
+      <c r="D20">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>85</v>
+      </c>
+      <c r="N20">
+        <v>47</v>
+      </c>
+      <c r="O20">
+        <v>75</v>
+      </c>
+      <c r="U20">
+        <v>90</v>
+      </c>
+      <c r="V20">
+        <v>75</v>
+      </c>
+      <c r="X20">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="Y20">
+        <v>0.125</v>
+      </c>
+      <c r="Z20">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AA20">
+        <v>0.125</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D6">
-        <v>98</v>
-      </c>
-      <c r="E6">
-        <v>90</v>
-      </c>
-      <c r="N6">
-        <v>100</v>
-      </c>
-      <c r="O6">
-        <v>90</v>
-      </c>
-      <c r="R6">
-        <v>98</v>
-      </c>
-      <c r="S6">
-        <v>98</v>
-      </c>
-      <c r="U6">
-        <v>24.309000000000001</v>
-      </c>
-      <c r="V6">
-        <v>0.125</v>
-      </c>
-      <c r="W6">
-        <v>24.309000000000001</v>
-      </c>
-      <c r="X6">
-        <v>0.125</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>82</v>
+      </c>
+      <c r="D21">
+        <v>80</v>
+      </c>
+      <c r="E21">
+        <v>82</v>
+      </c>
+      <c r="N21">
+        <v>45</v>
+      </c>
+      <c r="O21">
+        <v>75</v>
+      </c>
+      <c r="U21">
+        <v>90</v>
+      </c>
+      <c r="V21">
+        <v>75</v>
+      </c>
+      <c r="X21">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="Y21">
+        <v>0.125</v>
+      </c>
+      <c r="Z21">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AA21">
+        <v>0.125</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C7">
-        <v>50</v>
-      </c>
-      <c r="D7">
-        <v>98</v>
-      </c>
-      <c r="E7">
-        <v>90</v>
-      </c>
-      <c r="N7">
-        <v>50</v>
-      </c>
-      <c r="O7">
-        <v>50</v>
-      </c>
-      <c r="R7">
-        <v>98</v>
-      </c>
-      <c r="S7">
-        <v>50</v>
-      </c>
-      <c r="U7">
-        <v>23.709</v>
-      </c>
-      <c r="V7">
-        <v>0.125</v>
-      </c>
-      <c r="W7">
-        <v>23.709</v>
-      </c>
-      <c r="X7">
-        <v>0.125</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8">
-        <v>99</v>
-      </c>
-      <c r="D8">
-        <v>99</v>
-      </c>
-      <c r="E8">
-        <v>90</v>
-      </c>
-      <c r="N8">
-        <v>99</v>
-      </c>
-      <c r="O8">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>82</v>
+      </c>
+      <c r="D22">
+        <v>80</v>
+      </c>
+      <c r="E22">
+        <v>82</v>
+      </c>
+      <c r="N22">
+        <v>45</v>
+      </c>
+      <c r="O22">
+        <v>75</v>
+      </c>
+      <c r="U22">
+        <v>90</v>
+      </c>
+      <c r="V22">
+        <v>70</v>
+      </c>
+      <c r="X22">
+        <v>32.4</v>
+      </c>
+      <c r="Y22">
+        <v>0.125</v>
+      </c>
+      <c r="Z22">
+        <v>32.4</v>
+      </c>
+      <c r="AA22">
+        <v>0.125</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>81</v>
+      </c>
+      <c r="D23">
+        <v>80</v>
+      </c>
+      <c r="E23">
+        <v>81</v>
+      </c>
+      <c r="N23">
+        <v>45</v>
+      </c>
+      <c r="O23">
+        <v>75</v>
+      </c>
+      <c r="U23">
+        <v>90</v>
+      </c>
+      <c r="V23">
+        <v>75</v>
+      </c>
+      <c r="X23">
+        <v>32.4</v>
+      </c>
+      <c r="Y23">
+        <v>0.125</v>
+      </c>
+      <c r="Z23">
+        <v>32.4</v>
+      </c>
+      <c r="AA23">
+        <v>0.125</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>80</v>
+      </c>
+      <c r="D24">
+        <v>80</v>
+      </c>
+      <c r="E24">
+        <v>80</v>
+      </c>
+      <c r="N24">
+        <v>45</v>
+      </c>
+      <c r="O24">
+        <v>75</v>
+      </c>
+      <c r="U24">
+        <v>80</v>
+      </c>
+      <c r="V24">
+        <v>70</v>
+      </c>
+      <c r="X24">
+        <v>32.5</v>
+      </c>
+      <c r="Y24">
+        <v>0.125</v>
+      </c>
+      <c r="Z24">
+        <v>32.5</v>
+      </c>
+      <c r="AA24">
+        <v>0.125</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>80</v>
+      </c>
+      <c r="D25">
+        <v>80</v>
+      </c>
+      <c r="E25">
+        <v>80</v>
+      </c>
+      <c r="N25">
+        <v>25</v>
+      </c>
+      <c r="O25">
+        <v>75</v>
+      </c>
+      <c r="U25">
+        <v>90</v>
+      </c>
+      <c r="V25">
+        <v>50</v>
+      </c>
+      <c r="X25">
+        <v>32.5</v>
+      </c>
+      <c r="Y25">
+        <v>0.125</v>
+      </c>
+      <c r="Z25">
+        <v>32.5</v>
+      </c>
+      <c r="AA25">
+        <v>0.125</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>84</v>
+      </c>
+      <c r="D26">
+        <v>80</v>
+      </c>
+      <c r="E26">
+        <v>77</v>
+      </c>
+      <c r="N26">
+        <v>25</v>
+      </c>
+      <c r="O26">
+        <v>75</v>
+      </c>
+      <c r="U26">
+        <v>80</v>
+      </c>
+      <c r="V26">
+        <v>75</v>
+      </c>
+      <c r="X26">
+        <v>32.5</v>
+      </c>
+      <c r="Y26">
+        <v>0.125</v>
+      </c>
+      <c r="Z26">
+        <v>32.5</v>
+      </c>
+      <c r="AA26">
+        <v>0.125</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>80</v>
+      </c>
+      <c r="D27">
+        <v>80</v>
+      </c>
+      <c r="E27">
+        <v>75</v>
+      </c>
+      <c r="N27">
+        <v>25</v>
+      </c>
+      <c r="O27">
+        <v>75</v>
+      </c>
+      <c r="U27">
+        <v>90</v>
+      </c>
+      <c r="V27">
+        <v>75</v>
+      </c>
+      <c r="X27">
+        <v>32.5</v>
+      </c>
+      <c r="Y27">
+        <v>0.125</v>
+      </c>
+      <c r="Z27">
+        <v>32.5</v>
+      </c>
+      <c r="AA27">
+        <v>0.125</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>78</v>
+      </c>
+      <c r="D28">
+        <v>80</v>
+      </c>
+      <c r="E28">
+        <v>75</v>
+      </c>
+      <c r="N28">
+        <v>25</v>
+      </c>
+      <c r="O28">
+        <v>75</v>
+      </c>
+      <c r="U28">
+        <v>80</v>
+      </c>
+      <c r="V28">
+        <v>70</v>
+      </c>
+      <c r="X28">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="Y28">
+        <v>0.125</v>
+      </c>
+      <c r="Z28">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="AA28">
+        <v>0.125</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>77</v>
+      </c>
+      <c r="D29">
+        <v>70</v>
+      </c>
+      <c r="E29">
+        <v>70</v>
+      </c>
+      <c r="N29">
+        <v>25</v>
+      </c>
+      <c r="O29">
+        <v>75</v>
+      </c>
+      <c r="U29">
+        <v>80</v>
+      </c>
+      <c r="V29">
+        <v>75</v>
+      </c>
+      <c r="X29">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="Y29">
+        <v>0.125</v>
+      </c>
+      <c r="Z29">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="AA29">
+        <v>0.125</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>75</v>
+      </c>
+      <c r="D30">
+        <v>70</v>
+      </c>
+      <c r="E30">
+        <v>70</v>
+      </c>
+      <c r="N30">
+        <v>25</v>
+      </c>
+      <c r="O30">
+        <v>75</v>
+      </c>
+      <c r="U30">
+        <v>80</v>
+      </c>
+      <c r="V30">
+        <v>50</v>
+      </c>
+      <c r="X30">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="Y30">
+        <v>0.125</v>
+      </c>
+      <c r="Z30">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="AA30">
+        <v>0.125</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>70</v>
+      </c>
+      <c r="D31">
+        <v>70</v>
+      </c>
+      <c r="E31">
+        <v>70</v>
+      </c>
+      <c r="N31">
+        <v>25</v>
+      </c>
+      <c r="O31">
+        <v>75</v>
+      </c>
+      <c r="U31">
+        <v>80</v>
+      </c>
+      <c r="V31">
+        <v>75</v>
+      </c>
+      <c r="X31">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="Y31">
+        <v>0.125</v>
+      </c>
+      <c r="Z31">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="AA31">
+        <v>0.125</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>70</v>
+      </c>
+      <c r="D32">
+        <v>70</v>
+      </c>
+      <c r="E32">
+        <v>70</v>
+      </c>
+      <c r="N32">
+        <v>25</v>
+      </c>
+      <c r="O32">
+        <v>75</v>
+      </c>
+      <c r="U32">
+        <v>80</v>
+      </c>
+      <c r="V32">
+        <v>70</v>
+      </c>
+      <c r="X32">
+        <v>33</v>
+      </c>
+      <c r="Y32">
+        <v>0.125</v>
+      </c>
+      <c r="Z32">
+        <v>33</v>
+      </c>
+      <c r="AA32">
+        <v>0.125</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>70</v>
+      </c>
+      <c r="D33">
+        <v>70</v>
+      </c>
+      <c r="E33">
+        <v>70</v>
+      </c>
+      <c r="N33">
+        <v>25</v>
+      </c>
+      <c r="O33">
+        <v>75</v>
+      </c>
+      <c r="U33">
+        <v>80</v>
+      </c>
+      <c r="V33">
+        <v>50</v>
+      </c>
+      <c r="X33">
+        <v>33</v>
+      </c>
+      <c r="Y33">
+        <v>0.125</v>
+      </c>
+      <c r="Z33">
+        <v>33</v>
+      </c>
+      <c r="AA33">
+        <v>0.125</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>70</v>
+      </c>
+      <c r="D34">
+        <v>70</v>
+      </c>
+      <c r="E34">
+        <v>70</v>
+      </c>
+      <c r="N34">
+        <v>25</v>
+      </c>
+      <c r="O34">
+        <v>75</v>
+      </c>
+      <c r="U34">
+        <v>80</v>
+      </c>
+      <c r="V34">
+        <v>75</v>
+      </c>
+      <c r="X34">
+        <v>33</v>
+      </c>
+      <c r="Y34">
+        <v>0.125</v>
+      </c>
+      <c r="Z34">
+        <v>33</v>
+      </c>
+      <c r="AA34">
+        <v>0.125</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>70</v>
+      </c>
+      <c r="D35">
+        <v>70</v>
+      </c>
+      <c r="E35">
+        <v>70</v>
+      </c>
+      <c r="N35">
+        <v>25</v>
+      </c>
+      <c r="O35">
+        <v>75</v>
+      </c>
+      <c r="U35">
+        <v>80</v>
+      </c>
+      <c r="V35">
+        <v>68</v>
+      </c>
+      <c r="X35">
+        <v>33</v>
+      </c>
+      <c r="Y35">
+        <v>0.125</v>
+      </c>
+      <c r="Z35">
+        <v>33</v>
+      </c>
+      <c r="AA35">
+        <v>0.125</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>70</v>
+      </c>
+      <c r="D36">
+        <v>70</v>
+      </c>
+      <c r="E36">
+        <v>70</v>
+      </c>
+      <c r="N36">
+        <v>25</v>
+      </c>
+      <c r="O36">
+        <v>75</v>
+      </c>
+      <c r="U36">
+        <v>80</v>
+      </c>
+      <c r="V36">
+        <v>75</v>
+      </c>
+      <c r="X36">
+        <v>33</v>
+      </c>
+      <c r="Y36">
+        <v>0.125</v>
+      </c>
+      <c r="Z36">
+        <v>33</v>
+      </c>
+      <c r="AA36">
+        <v>0.125</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>70</v>
+      </c>
+      <c r="D37">
+        <v>70</v>
+      </c>
+      <c r="E37">
+        <v>70</v>
+      </c>
+      <c r="N37">
+        <v>25</v>
+      </c>
+      <c r="O37">
+        <v>75</v>
+      </c>
+      <c r="U37">
+        <v>80</v>
+      </c>
+      <c r="V37">
+        <v>75</v>
+      </c>
+      <c r="X37">
+        <v>33</v>
+      </c>
+      <c r="Y37">
+        <v>0.125</v>
+      </c>
+      <c r="Z37">
+        <v>33</v>
+      </c>
+      <c r="AA37">
+        <v>0.125</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>70</v>
+      </c>
+      <c r="D38">
+        <v>70</v>
+      </c>
+      <c r="E38">
+        <v>70</v>
+      </c>
+      <c r="N38">
+        <v>25</v>
+      </c>
+      <c r="O38">
+        <v>75</v>
+      </c>
+      <c r="U38">
+        <v>80</v>
+      </c>
+      <c r="V38">
+        <v>75</v>
+      </c>
+      <c r="X38">
+        <v>33</v>
+      </c>
+      <c r="Y38">
+        <v>0.125</v>
+      </c>
+      <c r="Z38">
+        <v>33</v>
+      </c>
+      <c r="AA38">
+        <v>0.125</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>70</v>
+      </c>
+      <c r="D39">
+        <v>70</v>
+      </c>
+      <c r="E39">
+        <v>70</v>
+      </c>
+      <c r="N39">
+        <v>25</v>
+      </c>
+      <c r="O39">
+        <v>75</v>
+      </c>
+      <c r="U39">
+        <v>80</v>
+      </c>
+      <c r="V39">
+        <v>75</v>
+      </c>
+      <c r="X39">
+        <v>33</v>
+      </c>
+      <c r="Y39">
+        <v>0.125</v>
+      </c>
+      <c r="Z39">
+        <v>33</v>
+      </c>
+      <c r="AA39">
+        <v>0.125</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>70</v>
+      </c>
+      <c r="D40">
+        <v>70</v>
+      </c>
+      <c r="E40">
+        <v>70</v>
+      </c>
+      <c r="N40">
+        <v>25</v>
+      </c>
+      <c r="O40">
+        <v>75</v>
+      </c>
+      <c r="U40">
+        <v>80</v>
+      </c>
+      <c r="V40">
+        <v>70</v>
+      </c>
+      <c r="X40">
+        <v>33</v>
+      </c>
+      <c r="Y40">
+        <v>0.125</v>
+      </c>
+      <c r="Z40">
+        <v>33</v>
+      </c>
+      <c r="AA40">
+        <v>0.125</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>70</v>
+      </c>
+      <c r="D41">
+        <v>70</v>
+      </c>
+      <c r="E41">
+        <v>70</v>
+      </c>
+      <c r="N41">
+        <v>25</v>
+      </c>
+      <c r="O41">
+        <v>75</v>
+      </c>
+      <c r="U41">
+        <v>80</v>
+      </c>
+      <c r="V41">
+        <v>75</v>
+      </c>
+      <c r="X41">
+        <v>33</v>
+      </c>
+      <c r="Y41">
+        <v>0.125</v>
+      </c>
+      <c r="Z41">
+        <v>33</v>
+      </c>
+      <c r="AA41">
+        <v>0.125</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R8">
-        <v>98</v>
-      </c>
-      <c r="S8">
-        <v>97</v>
-      </c>
-      <c r="U8">
-        <v>24.646000000000001</v>
-      </c>
-      <c r="V8">
-        <v>0.125</v>
-      </c>
-      <c r="W8">
-        <v>24.646000000000001</v>
-      </c>
-      <c r="X8">
-        <v>0.125</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9">
-        <v>50</v>
-      </c>
-      <c r="D9">
-        <v>98</v>
-      </c>
-      <c r="E9">
-        <v>90</v>
-      </c>
-      <c r="N9">
-        <v>50</v>
-      </c>
-      <c r="O9">
-        <v>50</v>
-      </c>
-      <c r="R9">
-        <v>98</v>
-      </c>
-      <c r="S9">
-        <v>50</v>
-      </c>
-      <c r="U9">
-        <v>23.972000000000001</v>
-      </c>
-      <c r="V9">
-        <v>0.125</v>
-      </c>
-      <c r="W9">
-        <v>23.972000000000001</v>
-      </c>
-      <c r="X9">
-        <v>0.125</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10">
-        <v>50</v>
-      </c>
-      <c r="D10">
-        <v>98</v>
-      </c>
-      <c r="E10">
-        <v>90</v>
-      </c>
-      <c r="N10">
-        <v>50</v>
-      </c>
-      <c r="O10">
-        <v>50</v>
-      </c>
-      <c r="R10">
-        <v>98</v>
-      </c>
-      <c r="S10">
-        <v>50</v>
-      </c>
-      <c r="U10">
-        <v>23.783999999999999</v>
-      </c>
-      <c r="V10">
-        <v>0.125</v>
-      </c>
-      <c r="W10">
-        <v>23.783999999999999</v>
-      </c>
-      <c r="X10">
-        <v>0.125</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
-      <c r="D11">
-        <v>100</v>
-      </c>
-      <c r="E11">
-        <v>90</v>
-      </c>
-      <c r="N11">
-        <v>100</v>
-      </c>
-      <c r="O11">
-        <v>100</v>
-      </c>
-      <c r="R11">
-        <v>100</v>
-      </c>
-      <c r="S11">
-        <v>100</v>
-      </c>
-      <c r="U11">
-        <v>23.446999999999999</v>
-      </c>
-      <c r="V11">
-        <v>0.125</v>
-      </c>
-      <c r="W11">
-        <v>23.446999999999999</v>
-      </c>
-      <c r="X11">
-        <v>0.125</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12">
-        <v>50</v>
-      </c>
-      <c r="D12">
-        <v>98</v>
-      </c>
-      <c r="E12">
-        <v>90</v>
-      </c>
-      <c r="N12">
-        <v>50</v>
-      </c>
-      <c r="O12">
-        <v>50</v>
-      </c>
-      <c r="R12">
-        <v>98</v>
-      </c>
-      <c r="S12">
-        <v>50</v>
-      </c>
-      <c r="U12">
-        <v>23.521999999999998</v>
-      </c>
-      <c r="V12">
-        <v>0.125</v>
-      </c>
-      <c r="W12">
-        <v>23.521999999999998</v>
-      </c>
-      <c r="X12">
-        <v>0.125</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13">
-        <v>50</v>
-      </c>
-      <c r="D13">
-        <v>98</v>
-      </c>
-      <c r="E13">
-        <v>90</v>
-      </c>
-      <c r="N13">
-        <v>50</v>
-      </c>
-      <c r="O13">
-        <v>50</v>
-      </c>
-      <c r="R13">
-        <v>98</v>
-      </c>
-      <c r="S13">
-        <v>50</v>
-      </c>
-      <c r="U13">
-        <v>23.56</v>
-      </c>
-      <c r="V13">
-        <v>0.125</v>
-      </c>
-      <c r="W13">
-        <v>23.56</v>
-      </c>
-      <c r="X13">
-        <v>0.125</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14">
-        <v>50</v>
-      </c>
-      <c r="D14">
-        <v>98</v>
-      </c>
-      <c r="E14">
-        <v>90</v>
-      </c>
-      <c r="N14">
-        <v>50</v>
-      </c>
-      <c r="O14">
-        <v>50</v>
-      </c>
-      <c r="R14">
-        <v>98</v>
-      </c>
-      <c r="S14">
-        <v>50</v>
-      </c>
-      <c r="U14">
-        <v>24.420999999999999</v>
-      </c>
-      <c r="V14">
-        <v>0.125</v>
-      </c>
-      <c r="W14">
-        <v>24.420999999999999</v>
-      </c>
-      <c r="X14">
-        <v>0.125</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15">
-        <v>50</v>
-      </c>
-      <c r="D15">
-        <v>98</v>
-      </c>
-      <c r="E15">
-        <v>90</v>
-      </c>
-      <c r="N15">
-        <v>50</v>
-      </c>
-      <c r="O15">
-        <v>50</v>
-      </c>
-      <c r="R15">
-        <v>98</v>
-      </c>
-      <c r="S15">
-        <v>50</v>
-      </c>
-      <c r="U15">
-        <v>24.271000000000001</v>
-      </c>
-      <c r="V15">
-        <v>0.125</v>
-      </c>
-      <c r="W15">
-        <v>24.271000000000001</v>
-      </c>
-      <c r="X15">
-        <v>0.125</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16">
-        <v>50</v>
-      </c>
-      <c r="D16">
-        <v>98</v>
-      </c>
-      <c r="E16">
-        <v>90</v>
-      </c>
-      <c r="N16">
-        <v>50</v>
-      </c>
-      <c r="O16">
-        <v>50</v>
-      </c>
-      <c r="R16">
-        <v>98</v>
-      </c>
-      <c r="S16">
-        <v>50</v>
-      </c>
-      <c r="U16">
-        <v>24.122</v>
-      </c>
-      <c r="V16">
-        <v>0.125</v>
-      </c>
-      <c r="W16">
-        <v>24.122</v>
-      </c>
-      <c r="X16">
-        <v>0.125</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17">
-        <v>50</v>
-      </c>
-      <c r="D17">
-        <v>98</v>
-      </c>
-      <c r="E17">
-        <v>90</v>
-      </c>
-      <c r="N17">
-        <v>50</v>
-      </c>
-      <c r="O17">
-        <v>50</v>
-      </c>
-      <c r="R17">
-        <v>98</v>
-      </c>
-      <c r="S17">
-        <v>50</v>
-      </c>
-      <c r="U17">
-        <v>24.047000000000001</v>
-      </c>
-      <c r="V17">
-        <v>0.125</v>
-      </c>
-      <c r="W17">
-        <v>24.047000000000001</v>
-      </c>
-      <c r="X17">
-        <v>0.125</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18">
-        <v>100</v>
-      </c>
-      <c r="D18">
-        <v>99</v>
-      </c>
-      <c r="E18">
-        <v>90</v>
-      </c>
-      <c r="N18">
-        <v>95</v>
-      </c>
-      <c r="O18">
-        <v>98</v>
-      </c>
-      <c r="R18">
-        <v>98</v>
-      </c>
-      <c r="S18">
-        <v>98</v>
-      </c>
-      <c r="U18">
-        <v>24.646000000000001</v>
-      </c>
-      <c r="V18">
-        <v>0.125</v>
-      </c>
-      <c r="W18">
-        <v>24.646000000000001</v>
-      </c>
-      <c r="X18">
-        <v>0.125</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19">
-        <v>98</v>
-      </c>
-      <c r="D19">
-        <v>98</v>
-      </c>
-      <c r="E19">
-        <v>90</v>
-      </c>
-      <c r="N19">
-        <v>99</v>
-      </c>
-      <c r="O19">
-        <v>95</v>
-      </c>
-      <c r="R19">
-        <v>98</v>
-      </c>
-      <c r="S19">
-        <v>97</v>
-      </c>
-      <c r="U19">
-        <v>23.222000000000001</v>
-      </c>
-      <c r="V19">
-        <v>0.125</v>
-      </c>
-      <c r="W19">
-        <v>23.222000000000001</v>
-      </c>
-      <c r="X19">
-        <v>0.125</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20">
-        <v>50</v>
-      </c>
-      <c r="D20">
-        <v>98</v>
-      </c>
-      <c r="E20">
-        <v>90</v>
-      </c>
-      <c r="N20">
-        <v>50</v>
-      </c>
-      <c r="O20">
-        <v>50</v>
-      </c>
-      <c r="R20">
-        <v>98</v>
-      </c>
-      <c r="S20">
-        <v>50</v>
-      </c>
-      <c r="U20">
-        <v>24.009</v>
-      </c>
-      <c r="V20">
-        <v>0.125</v>
-      </c>
-      <c r="W20">
-        <v>24.009</v>
-      </c>
-      <c r="X20">
-        <v>0.125</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21">
-        <v>50</v>
-      </c>
-      <c r="D21">
-        <v>98</v>
-      </c>
-      <c r="E21">
-        <v>90</v>
-      </c>
-      <c r="N21">
-        <v>50</v>
-      </c>
-      <c r="O21">
-        <v>50</v>
-      </c>
-      <c r="R21">
-        <v>98</v>
-      </c>
-      <c r="S21">
-        <v>50</v>
-      </c>
-      <c r="U21">
-        <v>23.41</v>
-      </c>
-      <c r="V21">
-        <v>0.125</v>
-      </c>
-      <c r="W21">
-        <v>23.41</v>
-      </c>
-      <c r="X21">
-        <v>0.125</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22">
-        <v>50</v>
-      </c>
-      <c r="D22">
-        <v>98</v>
-      </c>
-      <c r="E22">
-        <v>90</v>
-      </c>
-      <c r="N22">
-        <v>50</v>
-      </c>
-      <c r="O22">
-        <v>50</v>
-      </c>
-      <c r="R22">
-        <v>98</v>
-      </c>
-      <c r="S22">
-        <v>50</v>
-      </c>
-      <c r="U22">
-        <v>24.384</v>
-      </c>
-      <c r="V22">
-        <v>0.125</v>
-      </c>
-      <c r="W22">
-        <v>24.384</v>
-      </c>
-      <c r="X22">
-        <v>0.125</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23">
-        <v>50</v>
-      </c>
-      <c r="D23">
-        <v>98</v>
-      </c>
-      <c r="E23">
-        <v>90</v>
-      </c>
-      <c r="N23">
-        <v>50</v>
-      </c>
-      <c r="O23">
-        <v>50</v>
-      </c>
-      <c r="R23">
-        <v>98</v>
-      </c>
-      <c r="S23">
-        <v>50</v>
-      </c>
-      <c r="U23">
-        <v>23.41</v>
-      </c>
-      <c r="V23">
-        <v>0.125</v>
-      </c>
-      <c r="W23">
-        <v>23.41</v>
-      </c>
-      <c r="X23">
-        <v>0.125</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24">
-        <v>50</v>
-      </c>
-      <c r="D24">
-        <v>98</v>
-      </c>
-      <c r="E24">
-        <v>90</v>
-      </c>
-      <c r="N24">
-        <v>50</v>
-      </c>
-      <c r="O24">
-        <v>50</v>
-      </c>
-      <c r="R24">
-        <v>98</v>
-      </c>
-      <c r="S24">
-        <v>50</v>
-      </c>
-      <c r="U24">
-        <v>24.384</v>
-      </c>
-      <c r="V24">
-        <v>0.125</v>
-      </c>
-      <c r="W24">
-        <v>24.384</v>
-      </c>
-      <c r="X24">
-        <v>0.125</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>70</v>
+      </c>
+      <c r="D42">
+        <v>70</v>
+      </c>
+      <c r="E42">
+        <v>70</v>
+      </c>
+      <c r="N42">
+        <v>25</v>
+      </c>
+      <c r="O42">
+        <v>75</v>
+      </c>
+      <c r="U42">
+        <v>80</v>
+      </c>
+      <c r="V42">
+        <v>75</v>
+      </c>
+      <c r="X42">
+        <v>33</v>
+      </c>
+      <c r="Y42">
+        <v>0.125</v>
+      </c>
+      <c r="Z42">
+        <v>33</v>
+      </c>
+      <c r="AA42">
+        <v>0.125</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C25">
-        <v>50</v>
-      </c>
-      <c r="D25">
-        <v>98</v>
-      </c>
-      <c r="E25">
-        <v>90</v>
-      </c>
-      <c r="N25">
-        <v>50</v>
-      </c>
-      <c r="O25">
-        <v>50</v>
-      </c>
-      <c r="R25">
-        <v>98</v>
-      </c>
-      <c r="S25">
-        <v>50</v>
-      </c>
-      <c r="U25">
-        <v>24.122</v>
-      </c>
-      <c r="V25">
-        <v>0.125</v>
-      </c>
-      <c r="W25">
-        <v>24.122</v>
-      </c>
-      <c r="X25">
-        <v>0.125</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>70</v>
+      </c>
+      <c r="D43">
+        <v>70</v>
+      </c>
+      <c r="E43">
+        <v>70</v>
+      </c>
+      <c r="N43">
+        <v>25</v>
+      </c>
+      <c r="O43">
+        <v>75</v>
+      </c>
+      <c r="U43">
+        <v>80</v>
+      </c>
+      <c r="V43">
+        <v>75</v>
+      </c>
+      <c r="X43">
+        <v>33</v>
+      </c>
+      <c r="Y43">
+        <v>0.125</v>
+      </c>
+      <c r="Z43">
+        <v>33</v>
+      </c>
+      <c r="AA43">
+        <v>0.125</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C26">
-        <v>50</v>
-      </c>
-      <c r="D26">
-        <v>98</v>
-      </c>
-      <c r="E26">
-        <v>90</v>
-      </c>
-      <c r="N26">
-        <v>50</v>
-      </c>
-      <c r="O26">
-        <v>50</v>
-      </c>
-      <c r="R26">
-        <v>98</v>
-      </c>
-      <c r="S26">
-        <v>50</v>
-      </c>
-      <c r="U26">
-        <v>24.495999999999999</v>
-      </c>
-      <c r="V26">
-        <v>0.125</v>
-      </c>
-      <c r="W26">
-        <v>24.495999999999999</v>
-      </c>
-      <c r="X26">
-        <v>0.125</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27">
-        <v>50</v>
-      </c>
-      <c r="D27">
-        <v>98</v>
-      </c>
-      <c r="E27">
-        <v>90</v>
-      </c>
-      <c r="N27">
-        <v>50</v>
-      </c>
-      <c r="O27">
-        <v>50</v>
-      </c>
-      <c r="R27">
-        <v>98</v>
-      </c>
-      <c r="S27">
-        <v>50</v>
-      </c>
-      <c r="U27">
-        <v>23.484999999999999</v>
-      </c>
-      <c r="V27">
-        <v>0.125</v>
-      </c>
-      <c r="W27">
-        <v>23.484999999999999</v>
-      </c>
-      <c r="X27">
-        <v>0.125</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28">
-        <v>50</v>
-      </c>
-      <c r="D28">
-        <v>98</v>
-      </c>
-      <c r="E28">
-        <v>90</v>
-      </c>
-      <c r="N28">
-        <v>50</v>
-      </c>
-      <c r="O28">
-        <v>50</v>
-      </c>
-      <c r="R28">
-        <v>98</v>
-      </c>
-      <c r="S28">
-        <v>50</v>
-      </c>
-      <c r="U28">
-        <v>23.672000000000001</v>
-      </c>
-      <c r="V28">
-        <v>0.125</v>
-      </c>
-      <c r="W28">
-        <v>23.672000000000001</v>
-      </c>
-      <c r="X28">
-        <v>0.125</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29">
-        <v>99</v>
-      </c>
-      <c r="D29">
-        <v>98</v>
-      </c>
-      <c r="E29">
-        <v>90</v>
-      </c>
-      <c r="N29">
-        <v>95</v>
-      </c>
-      <c r="O29">
-        <v>99</v>
-      </c>
-      <c r="R29">
-        <v>98</v>
-      </c>
-      <c r="S29">
-        <v>97</v>
-      </c>
-      <c r="U29">
-        <v>24.533999999999999</v>
-      </c>
-      <c r="V29">
-        <v>0.125</v>
-      </c>
-      <c r="W29">
-        <v>24.533999999999999</v>
-      </c>
-      <c r="X29">
-        <v>0.125</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30">
-        <v>50</v>
-      </c>
-      <c r="D30">
-        <v>98</v>
-      </c>
-      <c r="E30">
-        <v>90</v>
-      </c>
-      <c r="N30">
-        <v>50</v>
-      </c>
-      <c r="O30">
-        <v>50</v>
-      </c>
-      <c r="R30">
-        <v>98</v>
-      </c>
-      <c r="S30">
-        <v>50</v>
-      </c>
-      <c r="U30">
-        <v>23.41</v>
-      </c>
-      <c r="V30">
-        <v>0.125</v>
-      </c>
-      <c r="W30">
-        <v>23.41</v>
-      </c>
-      <c r="X30">
-        <v>0.125</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31">
-        <v>50</v>
-      </c>
-      <c r="D31">
-        <v>98</v>
-      </c>
-      <c r="E31">
-        <v>90</v>
-      </c>
-      <c r="N31">
-        <v>50</v>
-      </c>
-      <c r="O31">
-        <v>50</v>
-      </c>
-      <c r="R31">
-        <v>98</v>
-      </c>
-      <c r="S31">
-        <v>50</v>
-      </c>
-      <c r="U31">
-        <v>24.234000000000002</v>
-      </c>
-      <c r="V31">
-        <v>0.125</v>
-      </c>
-      <c r="W31">
-        <v>24.234000000000002</v>
-      </c>
-      <c r="X31">
-        <v>0.125</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32">
-        <v>50</v>
-      </c>
-      <c r="D32">
-        <v>98</v>
-      </c>
-      <c r="E32">
-        <v>90</v>
-      </c>
-      <c r="N32">
-        <v>50</v>
-      </c>
-      <c r="O32">
-        <v>50</v>
-      </c>
-      <c r="R32">
-        <v>98</v>
-      </c>
-      <c r="S32">
-        <v>50</v>
-      </c>
-      <c r="U32">
-        <v>23.41</v>
-      </c>
-      <c r="V32">
-        <v>0.125</v>
-      </c>
-      <c r="W32">
-        <v>23.41</v>
-      </c>
-      <c r="X32">
-        <v>0.125</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33">
-        <v>50</v>
-      </c>
-      <c r="D33">
-        <v>98</v>
-      </c>
-      <c r="E33">
-        <v>90</v>
-      </c>
-      <c r="N33">
-        <v>50</v>
-      </c>
-      <c r="O33">
-        <v>50</v>
-      </c>
-      <c r="R33">
-        <v>98</v>
-      </c>
-      <c r="S33">
-        <v>50</v>
-      </c>
-      <c r="U33">
-        <v>23.41</v>
-      </c>
-      <c r="V33">
-        <v>0.125</v>
-      </c>
-      <c r="W33">
-        <v>23.41</v>
-      </c>
-      <c r="X33">
-        <v>0.125</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34">
-        <v>50</v>
-      </c>
-      <c r="D34">
-        <v>98</v>
-      </c>
-      <c r="E34">
-        <v>90</v>
-      </c>
-      <c r="N34">
-        <v>50</v>
-      </c>
-      <c r="O34">
-        <v>50</v>
-      </c>
-      <c r="R34">
-        <v>98</v>
-      </c>
-      <c r="S34">
-        <v>50</v>
-      </c>
-      <c r="U34">
-        <v>23.41</v>
-      </c>
-      <c r="V34">
-        <v>0.125</v>
-      </c>
-      <c r="W34">
-        <v>23.41</v>
-      </c>
-      <c r="X34">
-        <v>0.125</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>75</v>
+      </c>
+      <c r="D44">
+        <v>76</v>
+      </c>
+      <c r="E44">
+        <v>70</v>
+      </c>
+      <c r="N44">
+        <v>25</v>
+      </c>
+      <c r="O44">
+        <v>75</v>
+      </c>
+      <c r="U44">
+        <v>80</v>
+      </c>
+      <c r="V44">
+        <v>50</v>
+      </c>
+      <c r="X44">
+        <v>33</v>
+      </c>
+      <c r="Y44">
+        <v>0.125</v>
+      </c>
+      <c r="Z44">
+        <v>33</v>
+      </c>
+      <c r="AA44">
+        <v>0.125</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C35">
-        <v>50</v>
-      </c>
-      <c r="D35">
-        <v>98</v>
-      </c>
-      <c r="E35">
-        <v>90</v>
-      </c>
-      <c r="N35">
-        <v>50</v>
-      </c>
-      <c r="O35">
-        <v>50</v>
-      </c>
-      <c r="R35">
-        <v>98</v>
-      </c>
-      <c r="S35">
-        <v>50</v>
-      </c>
-      <c r="U35">
-        <v>23.41</v>
-      </c>
-      <c r="V35">
-        <v>0.125</v>
-      </c>
-      <c r="W35">
-        <v>23.41</v>
-      </c>
-      <c r="X35">
-        <v>0.125</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36">
-        <v>50</v>
-      </c>
-      <c r="D36">
-        <v>98</v>
-      </c>
-      <c r="E36">
-        <v>90</v>
-      </c>
-      <c r="N36">
-        <v>50</v>
-      </c>
-      <c r="O36">
-        <v>50</v>
-      </c>
-      <c r="R36">
-        <v>98</v>
-      </c>
-      <c r="S36">
-        <v>50</v>
-      </c>
-      <c r="U36">
-        <v>23.41</v>
-      </c>
-      <c r="V36">
-        <v>0.125</v>
-      </c>
-      <c r="W36">
-        <v>23.41</v>
-      </c>
-      <c r="X36">
-        <v>0.125</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37">
-        <v>50</v>
-      </c>
-      <c r="D37">
-        <v>98</v>
-      </c>
-      <c r="E37">
-        <v>90</v>
-      </c>
-      <c r="N37">
-        <v>50</v>
-      </c>
-      <c r="O37">
-        <v>50</v>
-      </c>
-      <c r="R37">
-        <v>98</v>
-      </c>
-      <c r="S37">
-        <v>50</v>
-      </c>
-      <c r="U37">
-        <v>23.41</v>
-      </c>
-      <c r="V37">
-        <v>0.125</v>
-      </c>
-      <c r="W37">
-        <v>23.41</v>
-      </c>
-      <c r="X37">
-        <v>0.125</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38">
-        <v>50</v>
-      </c>
-      <c r="D38">
-        <v>98</v>
-      </c>
-      <c r="E38">
-        <v>90</v>
-      </c>
-      <c r="N38">
-        <v>50</v>
-      </c>
-      <c r="O38">
-        <v>50</v>
-      </c>
-      <c r="R38">
-        <v>98</v>
-      </c>
-      <c r="S38">
-        <v>50</v>
-      </c>
-      <c r="U38">
-        <v>23.41</v>
-      </c>
-      <c r="V38">
-        <v>0.125</v>
-      </c>
-      <c r="W38">
-        <v>23.41</v>
-      </c>
-      <c r="X38">
-        <v>0.125</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39">
-        <v>50</v>
-      </c>
-      <c r="D39">
-        <v>98</v>
-      </c>
-      <c r="E39">
-        <v>90</v>
-      </c>
-      <c r="N39">
-        <v>50</v>
-      </c>
-      <c r="O39">
-        <v>50</v>
-      </c>
-      <c r="R39">
-        <v>98</v>
-      </c>
-      <c r="S39">
-        <v>50</v>
-      </c>
-      <c r="U39">
-        <v>23.41</v>
-      </c>
-      <c r="V39">
-        <v>0.125</v>
-      </c>
-      <c r="W39">
-        <v>23.41</v>
-      </c>
-      <c r="X39">
-        <v>0.125</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40">
-        <v>50</v>
-      </c>
-      <c r="D40">
-        <v>98</v>
-      </c>
-      <c r="E40">
-        <v>90</v>
-      </c>
-      <c r="N40">
-        <v>50</v>
-      </c>
-      <c r="O40">
-        <v>50</v>
-      </c>
-      <c r="R40">
-        <v>98</v>
-      </c>
-      <c r="S40">
-        <v>50</v>
-      </c>
-      <c r="U40">
-        <v>23.41</v>
-      </c>
-      <c r="V40">
-        <v>0.125</v>
-      </c>
-      <c r="W40">
-        <v>23.41</v>
-      </c>
-      <c r="X40">
-        <v>0.125</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41">
-        <v>50</v>
-      </c>
-      <c r="D41">
-        <v>98</v>
-      </c>
-      <c r="E41">
-        <v>90</v>
-      </c>
-      <c r="N41">
-        <v>50</v>
-      </c>
-      <c r="O41">
-        <v>50</v>
-      </c>
-      <c r="R41">
-        <v>98</v>
-      </c>
-      <c r="S41">
-        <v>50</v>
-      </c>
-      <c r="U41">
-        <v>23.41</v>
-      </c>
-      <c r="V41">
-        <v>0.125</v>
-      </c>
-      <c r="W41">
-        <v>23.41</v>
-      </c>
-      <c r="X41">
-        <v>0.125</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42">
-        <v>50</v>
-      </c>
-      <c r="D42">
-        <v>98</v>
-      </c>
-      <c r="E42">
-        <v>90</v>
-      </c>
-      <c r="N42">
-        <v>50</v>
-      </c>
-      <c r="O42">
-        <v>50</v>
-      </c>
-      <c r="R42">
-        <v>98</v>
-      </c>
-      <c r="S42">
-        <v>50</v>
-      </c>
-      <c r="U42">
-        <v>23.41</v>
-      </c>
-      <c r="V42">
-        <v>0.125</v>
-      </c>
-      <c r="W42">
-        <v>23.41</v>
-      </c>
-      <c r="X42">
-        <v>0.125</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43">
-        <v>50</v>
-      </c>
-      <c r="D43">
-        <v>98</v>
-      </c>
-      <c r="E43">
-        <v>90</v>
-      </c>
-      <c r="N43">
-        <v>50</v>
-      </c>
-      <c r="O43">
-        <v>50</v>
-      </c>
-      <c r="R43">
-        <v>98</v>
-      </c>
-      <c r="S43">
-        <v>50</v>
-      </c>
-      <c r="U43">
-        <v>23.41</v>
-      </c>
-      <c r="V43">
-        <v>0.125</v>
-      </c>
-      <c r="W43">
-        <v>23.41</v>
-      </c>
-      <c r="X43">
-        <v>0.125</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44">
-        <v>50</v>
-      </c>
-      <c r="D44">
-        <v>98</v>
-      </c>
-      <c r="E44">
-        <v>90</v>
-      </c>
-      <c r="N44">
-        <v>50</v>
-      </c>
-      <c r="O44">
-        <v>50</v>
-      </c>
-      <c r="R44">
-        <v>98</v>
-      </c>
-      <c r="S44">
-        <v>50</v>
-      </c>
-      <c r="U44">
-        <v>23.41</v>
-      </c>
-      <c r="V44">
-        <v>0.125</v>
-      </c>
-      <c r="W44">
-        <v>23.41</v>
-      </c>
-      <c r="X44">
-        <v>0.125</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>125</v>
+      <c r="B45">
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D45">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="E45">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N45">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="O45">
-        <v>50</v>
-      </c>
-      <c r="R45">
-        <v>98</v>
-      </c>
-      <c r="S45">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="U45">
-        <v>23.41</v>
+        <v>80</v>
       </c>
       <c r="V45">
-        <v>0.125</v>
-      </c>
-      <c r="W45">
-        <v>23.41</v>
+        <v>75</v>
       </c>
       <c r="X45">
-        <v>0.125</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46">
-        <v>50</v>
-      </c>
-      <c r="D46">
-        <v>98</v>
-      </c>
-      <c r="E46">
-        <v>90</v>
-      </c>
-      <c r="N46">
-        <v>50</v>
-      </c>
-      <c r="O46">
-        <v>50</v>
-      </c>
-      <c r="R46">
-        <v>98</v>
-      </c>
-      <c r="S46">
-        <v>50</v>
-      </c>
-      <c r="U46">
-        <v>23.41</v>
-      </c>
-      <c r="V46">
-        <v>0.125</v>
-      </c>
-      <c r="W46">
-        <v>23.41</v>
-      </c>
-      <c r="X46">
-        <v>0.125</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>129</v>
+        <v>33</v>
+      </c>
+      <c r="Y45">
+        <v>0.125</v>
+      </c>
+      <c r="Z45">
+        <v>33</v>
+      </c>
+      <c r="AA45">
+        <v>0.125</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -57318,9 +57501,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFD966D-7A7E-41CA-B35E-A07C89DC0167}">
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE42" sqref="AE42:AE45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -57409,136 +57594,146 @@
         <v>17</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="AF1" s="2"/>
       <c r="AG1" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>98</v>
       </c>
       <c r="E2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N2">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="O2">
-        <v>50</v>
-      </c>
-      <c r="R2">
-        <v>98</v>
-      </c>
-      <c r="S2">
-        <v>50</v>
+        <v>95</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
       </c>
       <c r="U2">
-        <v>31.332000000000001</v>
+        <v>97</v>
       </c>
       <c r="V2">
-        <v>0.125</v>
-      </c>
-      <c r="W2">
-        <v>31.332000000000001</v>
+        <v>90.1</v>
       </c>
       <c r="X2">
-        <v>0.125</v>
-      </c>
-      <c r="AB2" t="s">
+        <v>31.5</v>
+      </c>
+      <c r="Y2">
+        <v>0.125</v>
+      </c>
+      <c r="Z2">
+        <v>31.5</v>
+      </c>
+      <c r="AA2">
+        <v>0.125</v>
+      </c>
+      <c r="AE2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="D3">
         <v>98</v>
       </c>
       <c r="E3">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="N3">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O3">
-        <v>50</v>
-      </c>
-      <c r="R3">
-        <v>98</v>
-      </c>
-      <c r="S3">
-        <v>50</v>
+        <v>95</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
       </c>
       <c r="U3">
-        <v>31.029</v>
+        <v>98</v>
       </c>
       <c r="V3">
-        <v>0.125</v>
-      </c>
-      <c r="W3">
-        <v>31.029</v>
+        <v>90</v>
       </c>
       <c r="X3">
-        <v>0.125</v>
-      </c>
-      <c r="AB3" t="s">
+        <v>31.5</v>
+      </c>
+      <c r="Y3">
+        <v>0.125</v>
+      </c>
+      <c r="Z3">
+        <v>31.5</v>
+      </c>
+      <c r="AA3">
+        <v>0.125</v>
+      </c>
+      <c r="AE3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -57546,1763 +57741,1887 @@
       <c r="A4" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="C4">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="D4">
         <v>98</v>
       </c>
       <c r="E4">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="N4">
         <v>50</v>
       </c>
       <c r="O4">
-        <v>50</v>
-      </c>
-      <c r="R4">
-        <v>98</v>
-      </c>
-      <c r="S4">
-        <v>50</v>
+        <v>92</v>
+      </c>
+      <c r="P4">
+        <v>12</v>
       </c>
       <c r="U4">
-        <v>31.509</v>
+        <v>90</v>
       </c>
       <c r="V4">
-        <v>0.125</v>
-      </c>
-      <c r="W4">
-        <v>31.509</v>
+        <v>90</v>
       </c>
       <c r="X4">
-        <v>0.125</v>
-      </c>
-      <c r="AB4" t="s">
+        <v>31.7</v>
+      </c>
+      <c r="Y4">
+        <v>0.125</v>
+      </c>
+      <c r="Z4">
+        <v>31.7</v>
+      </c>
+      <c r="AA4">
+        <v>0.125</v>
+      </c>
+      <c r="AE4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="D5">
         <v>98</v>
       </c>
       <c r="E5">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="N5">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O5">
-        <v>50</v>
-      </c>
-      <c r="R5">
-        <v>98</v>
-      </c>
-      <c r="S5">
-        <v>50</v>
+        <v>94</v>
+      </c>
+      <c r="P5">
+        <v>12</v>
       </c>
       <c r="U5">
-        <v>30.853000000000002</v>
+        <v>90</v>
       </c>
       <c r="V5">
-        <v>0.125</v>
-      </c>
-      <c r="W5">
-        <v>30.853000000000002</v>
+        <v>88</v>
       </c>
       <c r="X5">
-        <v>0.125</v>
-      </c>
-      <c r="AB5" t="s">
+        <v>31.7</v>
+      </c>
+      <c r="Y5">
+        <v>0.125</v>
+      </c>
+      <c r="Z5">
+        <v>31.7</v>
+      </c>
+      <c r="AA5">
+        <v>0.125</v>
+      </c>
+      <c r="AE5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>109</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D6">
         <v>98</v>
       </c>
       <c r="E6">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="N6">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O6">
-        <v>90</v>
-      </c>
-      <c r="R6">
-        <v>98</v>
-      </c>
-      <c r="S6">
-        <v>98</v>
+        <v>82</v>
+      </c>
+      <c r="P6">
+        <v>12</v>
       </c>
       <c r="U6">
-        <v>28.989000000000001</v>
+        <v>90</v>
       </c>
       <c r="V6">
-        <v>0.125</v>
-      </c>
-      <c r="W6">
-        <v>28.109000000000002</v>
+        <v>80</v>
       </c>
       <c r="X6">
-        <v>0.125</v>
-      </c>
-      <c r="AB6" t="s">
+        <v>31.7</v>
+      </c>
+      <c r="Y6">
+        <v>0.125</v>
+      </c>
+      <c r="Z6">
+        <v>31.7</v>
+      </c>
+      <c r="AA6">
+        <v>0.125</v>
+      </c>
+      <c r="AE6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="D7">
         <v>98</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="N7">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O7">
-        <v>50</v>
-      </c>
-      <c r="R7">
-        <v>98</v>
-      </c>
-      <c r="S7">
-        <v>50</v>
+        <v>81</v>
+      </c>
+      <c r="P7">
+        <v>12</v>
       </c>
       <c r="U7">
-        <v>30.878</v>
+        <v>90</v>
       </c>
       <c r="V7">
-        <v>0.125</v>
-      </c>
-      <c r="W7">
-        <v>30.878</v>
+        <v>80</v>
       </c>
       <c r="X7">
-        <v>0.125</v>
-      </c>
-      <c r="AB7" t="s">
+        <v>31.7</v>
+      </c>
+      <c r="Y7">
+        <v>0.125</v>
+      </c>
+      <c r="Z7">
+        <v>31.7</v>
+      </c>
+      <c r="AA7">
+        <v>0.125</v>
+      </c>
+      <c r="AE7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D8">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N8">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="O8">
-        <v>97</v>
-      </c>
-      <c r="R8">
-        <v>98</v>
-      </c>
-      <c r="S8">
-        <v>97</v>
+        <v>80</v>
+      </c>
+      <c r="P8">
+        <v>15</v>
       </c>
       <c r="U8">
-        <v>29.533999999999999</v>
+        <v>90</v>
       </c>
       <c r="V8">
-        <v>0.125</v>
-      </c>
-      <c r="W8">
-        <v>29.533999999999999</v>
+        <v>70</v>
       </c>
       <c r="X8">
-        <v>0.125</v>
-      </c>
-      <c r="AB8" t="s">
+        <v>31.7</v>
+      </c>
+      <c r="Y8">
+        <v>0.125</v>
+      </c>
+      <c r="Z8">
+        <v>31.7</v>
+      </c>
+      <c r="AA8">
+        <v>0.125</v>
+      </c>
+      <c r="AE8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D9">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E9">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="O9">
-        <v>50</v>
-      </c>
-      <c r="R9">
-        <v>98</v>
-      </c>
-      <c r="S9">
-        <v>50</v>
+        <v>76</v>
+      </c>
+      <c r="P9">
+        <v>15</v>
       </c>
       <c r="U9">
-        <v>31.13</v>
+        <v>90</v>
       </c>
       <c r="V9">
-        <v>0.125</v>
-      </c>
-      <c r="W9">
-        <v>31.13</v>
+        <v>80</v>
       </c>
       <c r="X9">
-        <v>0.125</v>
-      </c>
-      <c r="AB9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y9">
+        <v>0.125</v>
+      </c>
+      <c r="Z9">
+        <v>32</v>
+      </c>
+      <c r="AA9">
+        <v>0.125</v>
+      </c>
+      <c r="AE9" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="D10">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E10">
         <v>90</v>
       </c>
       <c r="N10">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O10">
-        <v>50</v>
-      </c>
-      <c r="R10">
-        <v>98</v>
-      </c>
-      <c r="S10">
-        <v>50</v>
+        <v>70</v>
+      </c>
+      <c r="P10">
+        <v>15</v>
       </c>
       <c r="U10">
-        <v>30.802</v>
+        <v>88</v>
       </c>
       <c r="V10">
-        <v>0.125</v>
-      </c>
-      <c r="W10">
-        <v>30.802</v>
+        <v>83</v>
       </c>
       <c r="X10">
-        <v>0.125</v>
-      </c>
-      <c r="AB10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y10">
+        <v>0.125</v>
+      </c>
+      <c r="Z10">
+        <v>32</v>
+      </c>
+      <c r="AA10">
+        <v>0.125</v>
+      </c>
+      <c r="AE10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E11">
         <v>90</v>
       </c>
       <c r="N11">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="O11">
-        <v>100</v>
-      </c>
-      <c r="R11">
-        <v>100</v>
-      </c>
-      <c r="S11">
-        <v>100</v>
+        <v>76</v>
+      </c>
+      <c r="P11">
+        <v>15</v>
       </c>
       <c r="U11">
-        <v>30.55</v>
+        <v>90</v>
       </c>
       <c r="V11">
-        <v>0.125</v>
-      </c>
-      <c r="W11">
-        <v>30.55</v>
+        <v>80</v>
       </c>
       <c r="X11">
-        <v>0.125</v>
-      </c>
-      <c r="AB11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y11">
+        <v>0.125</v>
+      </c>
+      <c r="Z11">
+        <v>32</v>
+      </c>
+      <c r="AA11">
+        <v>0.125</v>
+      </c>
+      <c r="AE11" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>92</v>
+        <v>121</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D12">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E12">
         <v>90</v>
       </c>
       <c r="N12">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O12">
-        <v>50</v>
-      </c>
-      <c r="R12">
-        <v>98</v>
-      </c>
-      <c r="S12">
-        <v>50</v>
+        <v>81</v>
+      </c>
+      <c r="P12">
+        <v>15</v>
       </c>
       <c r="U12">
-        <v>30.978999999999999</v>
+        <v>90</v>
       </c>
       <c r="V12">
-        <v>0.125</v>
-      </c>
-      <c r="W12">
-        <v>30.978999999999999</v>
+        <v>80</v>
       </c>
       <c r="X12">
-        <v>0.125</v>
-      </c>
-      <c r="AB12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y12">
+        <v>0.125</v>
+      </c>
+      <c r="Z12">
+        <v>32</v>
+      </c>
+      <c r="AA12">
+        <v>0.125</v>
+      </c>
+      <c r="AE12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D13">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E13">
         <v>90</v>
       </c>
       <c r="N13">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O13">
-        <v>50</v>
-      </c>
-      <c r="R13">
-        <v>98</v>
-      </c>
-      <c r="S13">
-        <v>50</v>
+        <v>81</v>
+      </c>
+      <c r="P13">
+        <v>16</v>
       </c>
       <c r="U13">
-        <v>30.626000000000001</v>
+        <v>90</v>
       </c>
       <c r="V13">
-        <v>0.125</v>
-      </c>
-      <c r="W13">
-        <v>30.626000000000001</v>
+        <v>80</v>
       </c>
       <c r="X13">
-        <v>0.125</v>
-      </c>
-      <c r="AB13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y13">
+        <v>0.125</v>
+      </c>
+      <c r="Z13">
+        <v>32</v>
+      </c>
+      <c r="AA13">
+        <v>0.125</v>
+      </c>
+      <c r="AE13" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>119</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="D14">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E14">
         <v>90</v>
       </c>
       <c r="N14">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O14">
-        <v>50</v>
-      </c>
-      <c r="R14">
-        <v>98</v>
-      </c>
-      <c r="S14">
-        <v>50</v>
+        <v>81</v>
+      </c>
+      <c r="P14">
+        <v>16</v>
       </c>
       <c r="U14">
-        <v>31.306999999999999</v>
+        <v>90</v>
       </c>
       <c r="V14">
-        <v>0.125</v>
-      </c>
-      <c r="W14">
-        <v>31.306999999999999</v>
+        <v>80</v>
       </c>
       <c r="X14">
-        <v>0.125</v>
-      </c>
-      <c r="AB14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y14">
+        <v>0.125</v>
+      </c>
+      <c r="Z14">
+        <v>32</v>
+      </c>
+      <c r="AA14">
+        <v>0.125</v>
+      </c>
+      <c r="AE14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>95</v>
+        <v>124</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="D15">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E15">
         <v>90</v>
       </c>
       <c r="N15">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O15">
-        <v>50</v>
-      </c>
-      <c r="R15">
-        <v>98</v>
-      </c>
-      <c r="S15">
-        <v>50</v>
+        <v>81</v>
+      </c>
+      <c r="P15">
+        <v>21</v>
       </c>
       <c r="U15">
-        <v>31.105</v>
+        <v>90</v>
       </c>
       <c r="V15">
-        <v>0.125</v>
-      </c>
-      <c r="W15">
-        <v>31.105</v>
+        <v>80</v>
       </c>
       <c r="X15">
-        <v>0.125</v>
-      </c>
-      <c r="AB15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y15">
+        <v>0.125</v>
+      </c>
+      <c r="Z15">
+        <v>32</v>
+      </c>
+      <c r="AA15">
+        <v>0.125</v>
+      </c>
+      <c r="AE15" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>91</v>
+      </c>
+      <c r="D16">
+        <v>90</v>
+      </c>
+      <c r="E16">
+        <v>87</v>
+      </c>
+      <c r="N16">
+        <v>25</v>
+      </c>
+      <c r="O16">
+        <v>75</v>
+      </c>
+      <c r="P16">
+        <v>21</v>
+      </c>
+      <c r="U16">
+        <v>90</v>
+      </c>
+      <c r="V16">
+        <v>75</v>
+      </c>
+      <c r="X16">
+        <v>32</v>
+      </c>
+      <c r="Y16">
+        <v>0.125</v>
+      </c>
+      <c r="Z16">
+        <v>32</v>
+      </c>
+      <c r="AA16">
+        <v>0.125</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>89</v>
+      </c>
+      <c r="D17">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <v>86</v>
+      </c>
+      <c r="N17">
+        <v>65</v>
+      </c>
+      <c r="O17">
+        <v>75</v>
+      </c>
+      <c r="U17">
+        <v>90</v>
+      </c>
+      <c r="V17">
+        <v>82</v>
+      </c>
+      <c r="X17">
+        <v>32</v>
+      </c>
+      <c r="Y17">
+        <v>0.125</v>
+      </c>
+      <c r="Z17">
+        <v>32</v>
+      </c>
+      <c r="AA17">
+        <v>0.125</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>89</v>
+      </c>
+      <c r="D18">
+        <v>80</v>
+      </c>
+      <c r="E18">
+        <v>85</v>
+      </c>
+      <c r="N18">
+        <v>25</v>
+      </c>
+      <c r="O18">
+        <v>75</v>
+      </c>
+      <c r="U18">
+        <v>90</v>
+      </c>
+      <c r="V18">
+        <v>75</v>
+      </c>
+      <c r="X18">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="Y18">
+        <v>0.125</v>
+      </c>
+      <c r="Z18">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="AA18">
+        <v>0.125</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>89</v>
+      </c>
+      <c r="D19">
+        <v>80</v>
+      </c>
+      <c r="E19">
+        <v>85</v>
+      </c>
+      <c r="N19">
+        <v>60</v>
+      </c>
+      <c r="O19">
+        <v>75</v>
+      </c>
+      <c r="U19">
+        <v>90</v>
+      </c>
+      <c r="V19">
+        <v>80</v>
+      </c>
+      <c r="X19">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="Y19">
+        <v>0.125</v>
+      </c>
+      <c r="Z19">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="AA19">
+        <v>0.125</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>88</v>
+      </c>
+      <c r="D20">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>85</v>
+      </c>
+      <c r="N20">
+        <v>47</v>
+      </c>
+      <c r="O20">
+        <v>75</v>
+      </c>
+      <c r="U20">
+        <v>90</v>
+      </c>
+      <c r="V20">
+        <v>75</v>
+      </c>
+      <c r="X20">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="Y20">
+        <v>0.125</v>
+      </c>
+      <c r="Z20">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AA20">
+        <v>0.125</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>85</v>
+      </c>
+      <c r="D21">
+        <v>80</v>
+      </c>
+      <c r="E21">
+        <v>82</v>
+      </c>
+      <c r="N21">
+        <v>45</v>
+      </c>
+      <c r="O21">
+        <v>75</v>
+      </c>
+      <c r="U21">
+        <v>90</v>
+      </c>
+      <c r="V21">
+        <v>75</v>
+      </c>
+      <c r="X21">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="Y21">
+        <v>0.125</v>
+      </c>
+      <c r="Z21">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AA21">
+        <v>0.125</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>84</v>
+      </c>
+      <c r="D22">
+        <v>80</v>
+      </c>
+      <c r="E22">
+        <v>82</v>
+      </c>
+      <c r="N22">
+        <v>45</v>
+      </c>
+      <c r="O22">
+        <v>75</v>
+      </c>
+      <c r="U22">
+        <v>90</v>
+      </c>
+      <c r="V22">
+        <v>70</v>
+      </c>
+      <c r="X22">
+        <v>32.4</v>
+      </c>
+      <c r="Y22">
+        <v>0.125</v>
+      </c>
+      <c r="Z22">
+        <v>32.4</v>
+      </c>
+      <c r="AA22">
+        <v>0.125</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>84</v>
+      </c>
+      <c r="D23">
+        <v>80</v>
+      </c>
+      <c r="E23">
+        <v>81</v>
+      </c>
+      <c r="N23">
+        <v>45</v>
+      </c>
+      <c r="O23">
+        <v>75</v>
+      </c>
+      <c r="U23">
+        <v>90</v>
+      </c>
+      <c r="V23">
+        <v>75</v>
+      </c>
+      <c r="X23">
+        <v>32.4</v>
+      </c>
+      <c r="Y23">
+        <v>0.125</v>
+      </c>
+      <c r="Z23">
+        <v>32.4</v>
+      </c>
+      <c r="AA23">
+        <v>0.125</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>83</v>
+      </c>
+      <c r="D24">
+        <v>80</v>
+      </c>
+      <c r="E24">
+        <v>80</v>
+      </c>
+      <c r="N24">
+        <v>45</v>
+      </c>
+      <c r="O24">
+        <v>75</v>
+      </c>
+      <c r="U24">
+        <v>80</v>
+      </c>
+      <c r="V24">
+        <v>70</v>
+      </c>
+      <c r="X24">
+        <v>32.5</v>
+      </c>
+      <c r="Y24">
+        <v>0.125</v>
+      </c>
+      <c r="Z24">
+        <v>32.5</v>
+      </c>
+      <c r="AA24">
+        <v>0.125</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>83</v>
+      </c>
+      <c r="D25">
+        <v>80</v>
+      </c>
+      <c r="E25">
+        <v>80</v>
+      </c>
+      <c r="N25">
+        <v>25</v>
+      </c>
+      <c r="O25">
+        <v>75</v>
+      </c>
+      <c r="U25">
+        <v>90</v>
+      </c>
+      <c r="V25">
+        <v>70</v>
+      </c>
+      <c r="X25">
+        <v>32.5</v>
+      </c>
+      <c r="Y25">
+        <v>0.125</v>
+      </c>
+      <c r="Z25">
+        <v>32.5</v>
+      </c>
+      <c r="AA25">
+        <v>0.125</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>84</v>
+      </c>
+      <c r="D26">
+        <v>80</v>
+      </c>
+      <c r="E26">
+        <v>77</v>
+      </c>
+      <c r="N26">
+        <v>25</v>
+      </c>
+      <c r="O26">
+        <v>75</v>
+      </c>
+      <c r="U26">
+        <v>80</v>
+      </c>
+      <c r="V26">
+        <v>75</v>
+      </c>
+      <c r="X26">
+        <v>32.5</v>
+      </c>
+      <c r="Y26">
+        <v>0.125</v>
+      </c>
+      <c r="Z26">
+        <v>32.5</v>
+      </c>
+      <c r="AA26">
+        <v>0.125</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>82</v>
+      </c>
+      <c r="D27">
+        <v>80</v>
+      </c>
+      <c r="E27">
+        <v>75</v>
+      </c>
+      <c r="N27">
+        <v>25</v>
+      </c>
+      <c r="O27">
+        <v>75</v>
+      </c>
+      <c r="U27">
+        <v>90</v>
+      </c>
+      <c r="V27">
+        <v>75</v>
+      </c>
+      <c r="X27">
+        <v>32.5</v>
+      </c>
+      <c r="Y27">
+        <v>0.125</v>
+      </c>
+      <c r="Z27">
+        <v>32.5</v>
+      </c>
+      <c r="AA27">
+        <v>0.125</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>81</v>
+      </c>
+      <c r="D28">
+        <v>80</v>
+      </c>
+      <c r="E28">
+        <v>75</v>
+      </c>
+      <c r="N28">
+        <v>25</v>
+      </c>
+      <c r="O28">
+        <v>75</v>
+      </c>
+      <c r="U28">
+        <v>80</v>
+      </c>
+      <c r="V28">
+        <v>70</v>
+      </c>
+      <c r="X28">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="Y28">
+        <v>0.125</v>
+      </c>
+      <c r="Z28">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="AA28">
+        <v>0.125</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>80</v>
+      </c>
+      <c r="D29">
+        <v>70</v>
+      </c>
+      <c r="E29">
+        <v>70</v>
+      </c>
+      <c r="N29">
+        <v>25</v>
+      </c>
+      <c r="O29">
+        <v>75</v>
+      </c>
+      <c r="U29">
+        <v>80</v>
+      </c>
+      <c r="V29">
+        <v>75</v>
+      </c>
+      <c r="X29">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="Y29">
+        <v>0.125</v>
+      </c>
+      <c r="Z29">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="AA29">
+        <v>0.125</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>78</v>
+      </c>
+      <c r="D30">
+        <v>70</v>
+      </c>
+      <c r="E30">
+        <v>70</v>
+      </c>
+      <c r="N30">
+        <v>25</v>
+      </c>
+      <c r="O30">
+        <v>75</v>
+      </c>
+      <c r="U30">
+        <v>80</v>
+      </c>
+      <c r="V30">
+        <v>67</v>
+      </c>
+      <c r="X30">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="Y30">
+        <v>0.125</v>
+      </c>
+      <c r="Z30">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="AA30">
+        <v>0.125</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C16">
-        <v>50</v>
-      </c>
-      <c r="D16">
-        <v>98</v>
-      </c>
-      <c r="E16">
-        <v>90</v>
-      </c>
-      <c r="N16">
-        <v>50</v>
-      </c>
-      <c r="O16">
-        <v>50</v>
-      </c>
-      <c r="R16">
-        <v>98</v>
-      </c>
-      <c r="S16">
-        <v>50</v>
-      </c>
-      <c r="U16">
-        <v>31.181000000000001</v>
-      </c>
-      <c r="V16">
-        <v>0.125</v>
-      </c>
-      <c r="W16">
-        <v>31.181000000000001</v>
-      </c>
-      <c r="X16">
-        <v>0.125</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>77</v>
+      </c>
+      <c r="D31">
+        <v>70</v>
+      </c>
+      <c r="E31">
+        <v>70</v>
+      </c>
+      <c r="N31">
+        <v>25</v>
+      </c>
+      <c r="O31">
+        <v>75</v>
+      </c>
+      <c r="U31">
+        <v>80</v>
+      </c>
+      <c r="V31">
+        <v>75</v>
+      </c>
+      <c r="X31">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="Y31">
+        <v>0.125</v>
+      </c>
+      <c r="Z31">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="AA31">
+        <v>0.125</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>77</v>
+      </c>
+      <c r="D32">
+        <v>70</v>
+      </c>
+      <c r="E32">
+        <v>70</v>
+      </c>
+      <c r="N32">
+        <v>25</v>
+      </c>
+      <c r="O32">
+        <v>75</v>
+      </c>
+      <c r="U32">
+        <v>80</v>
+      </c>
+      <c r="V32">
+        <v>70</v>
+      </c>
+      <c r="X32">
+        <v>33</v>
+      </c>
+      <c r="Y32">
+        <v>0.125</v>
+      </c>
+      <c r="Z32">
+        <v>33</v>
+      </c>
+      <c r="AA32">
+        <v>0.125</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>77</v>
+      </c>
+      <c r="D33">
+        <v>70</v>
+      </c>
+      <c r="E33">
+        <v>70</v>
+      </c>
+      <c r="N33">
+        <v>25</v>
+      </c>
+      <c r="O33">
+        <v>75</v>
+      </c>
+      <c r="U33">
+        <v>80</v>
+      </c>
+      <c r="V33">
+        <v>65</v>
+      </c>
+      <c r="X33">
+        <v>33</v>
+      </c>
+      <c r="Y33">
+        <v>0.125</v>
+      </c>
+      <c r="Z33">
+        <v>33</v>
+      </c>
+      <c r="AA33">
+        <v>0.125</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>75</v>
+      </c>
+      <c r="D34">
+        <v>70</v>
+      </c>
+      <c r="E34">
+        <v>70</v>
+      </c>
+      <c r="N34">
+        <v>25</v>
+      </c>
+      <c r="O34">
+        <v>75</v>
+      </c>
+      <c r="U34">
+        <v>80</v>
+      </c>
+      <c r="V34">
+        <v>75</v>
+      </c>
+      <c r="X34">
+        <v>33</v>
+      </c>
+      <c r="Y34">
+        <v>0.125</v>
+      </c>
+      <c r="Z34">
+        <v>33</v>
+      </c>
+      <c r="AA34">
+        <v>0.125</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>70</v>
+      </c>
+      <c r="D35">
+        <v>70</v>
+      </c>
+      <c r="E35">
+        <v>70</v>
+      </c>
+      <c r="N35">
+        <v>25</v>
+      </c>
+      <c r="O35">
+        <v>75</v>
+      </c>
+      <c r="U35">
+        <v>80</v>
+      </c>
+      <c r="V35">
+        <v>68</v>
+      </c>
+      <c r="X35">
+        <v>33</v>
+      </c>
+      <c r="Y35">
+        <v>0.125</v>
+      </c>
+      <c r="Z35">
+        <v>33</v>
+      </c>
+      <c r="AA35">
+        <v>0.125</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>70</v>
+      </c>
+      <c r="D36">
+        <v>70</v>
+      </c>
+      <c r="E36">
+        <v>70</v>
+      </c>
+      <c r="N36">
+        <v>25</v>
+      </c>
+      <c r="O36">
+        <v>75</v>
+      </c>
+      <c r="U36">
+        <v>80</v>
+      </c>
+      <c r="V36">
+        <v>75</v>
+      </c>
+      <c r="X36">
+        <v>33</v>
+      </c>
+      <c r="Y36">
+        <v>0.125</v>
+      </c>
+      <c r="Z36">
+        <v>33</v>
+      </c>
+      <c r="AA36">
+        <v>0.125</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>70</v>
+      </c>
+      <c r="D37">
+        <v>70</v>
+      </c>
+      <c r="E37">
+        <v>70</v>
+      </c>
+      <c r="N37">
+        <v>25</v>
+      </c>
+      <c r="O37">
+        <v>75</v>
+      </c>
+      <c r="U37">
+        <v>80</v>
+      </c>
+      <c r="V37">
+        <v>75</v>
+      </c>
+      <c r="X37">
+        <v>33</v>
+      </c>
+      <c r="Y37">
+        <v>0.125</v>
+      </c>
+      <c r="Z37">
+        <v>33</v>
+      </c>
+      <c r="AA37">
+        <v>0.125</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>70</v>
+      </c>
+      <c r="D38">
+        <v>70</v>
+      </c>
+      <c r="E38">
+        <v>70</v>
+      </c>
+      <c r="N38">
+        <v>25</v>
+      </c>
+      <c r="O38">
+        <v>75</v>
+      </c>
+      <c r="U38">
+        <v>80</v>
+      </c>
+      <c r="V38">
+        <v>75</v>
+      </c>
+      <c r="X38">
+        <v>33</v>
+      </c>
+      <c r="Y38">
+        <v>0.125</v>
+      </c>
+      <c r="Z38">
+        <v>33</v>
+      </c>
+      <c r="AA38">
+        <v>0.125</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>70</v>
+      </c>
+      <c r="D39">
+        <v>70</v>
+      </c>
+      <c r="E39">
+        <v>70</v>
+      </c>
+      <c r="N39">
+        <v>25</v>
+      </c>
+      <c r="O39">
+        <v>75</v>
+      </c>
+      <c r="U39">
+        <v>80</v>
+      </c>
+      <c r="V39">
+        <v>75</v>
+      </c>
+      <c r="X39">
+        <v>33</v>
+      </c>
+      <c r="Y39">
+        <v>0.125</v>
+      </c>
+      <c r="Z39">
+        <v>33</v>
+      </c>
+      <c r="AA39">
+        <v>0.125</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>70</v>
+      </c>
+      <c r="D40">
+        <v>70</v>
+      </c>
+      <c r="E40">
+        <v>70</v>
+      </c>
+      <c r="N40">
+        <v>25</v>
+      </c>
+      <c r="O40">
+        <v>75</v>
+      </c>
+      <c r="U40">
+        <v>80</v>
+      </c>
+      <c r="V40">
+        <v>70</v>
+      </c>
+      <c r="X40">
+        <v>33</v>
+      </c>
+      <c r="Y40">
+        <v>0.125</v>
+      </c>
+      <c r="Z40">
+        <v>33</v>
+      </c>
+      <c r="AA40">
+        <v>0.125</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>70</v>
+      </c>
+      <c r="D41">
+        <v>70</v>
+      </c>
+      <c r="E41">
+        <v>70</v>
+      </c>
+      <c r="N41">
+        <v>25</v>
+      </c>
+      <c r="O41">
+        <v>75</v>
+      </c>
+      <c r="U41">
+        <v>80</v>
+      </c>
+      <c r="V41">
+        <v>75</v>
+      </c>
+      <c r="X41">
+        <v>33</v>
+      </c>
+      <c r="Y41">
+        <v>0.125</v>
+      </c>
+      <c r="Z41">
+        <v>33</v>
+      </c>
+      <c r="AA41">
+        <v>0.125</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C17">
-        <v>50</v>
-      </c>
-      <c r="D17">
-        <v>98</v>
-      </c>
-      <c r="E17">
-        <v>90</v>
-      </c>
-      <c r="N17">
-        <v>50</v>
-      </c>
-      <c r="O17">
-        <v>50</v>
-      </c>
-      <c r="R17">
-        <v>98</v>
-      </c>
-      <c r="S17">
-        <v>50</v>
-      </c>
-      <c r="U17">
-        <v>31.206</v>
-      </c>
-      <c r="V17">
-        <v>0.125</v>
-      </c>
-      <c r="W17">
-        <v>31.206</v>
-      </c>
-      <c r="X17">
-        <v>0.125</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18">
-        <v>100</v>
-      </c>
-      <c r="D18">
-        <v>99</v>
-      </c>
-      <c r="E18">
-        <v>90</v>
-      </c>
-      <c r="N18">
-        <v>95</v>
-      </c>
-      <c r="O18">
-        <v>98</v>
-      </c>
-      <c r="R18">
-        <v>98</v>
-      </c>
-      <c r="S18">
-        <v>98</v>
-      </c>
-      <c r="U18">
-        <v>31.533999999999999</v>
-      </c>
-      <c r="V18">
-        <v>0.125</v>
-      </c>
-      <c r="W18">
-        <v>31.533999999999999</v>
-      </c>
-      <c r="X18">
-        <v>0.125</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19">
-        <v>98</v>
-      </c>
-      <c r="D19">
-        <v>98</v>
-      </c>
-      <c r="E19">
-        <v>90</v>
-      </c>
-      <c r="N19">
-        <v>99</v>
-      </c>
-      <c r="O19">
-        <v>95</v>
-      </c>
-      <c r="R19">
-        <v>98</v>
-      </c>
-      <c r="S19">
-        <v>97</v>
-      </c>
-      <c r="U19">
-        <v>30.6</v>
-      </c>
-      <c r="V19">
-        <v>0.125</v>
-      </c>
-      <c r="W19">
-        <v>30.6</v>
-      </c>
-      <c r="X19">
-        <v>0.125</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20">
-        <v>50</v>
-      </c>
-      <c r="D20">
-        <v>98</v>
-      </c>
-      <c r="E20">
-        <v>90</v>
-      </c>
-      <c r="N20">
-        <v>50</v>
-      </c>
-      <c r="O20">
-        <v>50</v>
-      </c>
-      <c r="R20">
-        <v>98</v>
-      </c>
-      <c r="S20">
-        <v>50</v>
-      </c>
-      <c r="U20">
-        <v>31.08</v>
-      </c>
-      <c r="V20">
-        <v>0.125</v>
-      </c>
-      <c r="W20">
-        <v>31.08</v>
-      </c>
-      <c r="X20">
-        <v>0.125</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21">
-        <v>50</v>
-      </c>
-      <c r="D21">
-        <v>98</v>
-      </c>
-      <c r="E21">
-        <v>90</v>
-      </c>
-      <c r="N21">
-        <v>50</v>
-      </c>
-      <c r="O21">
-        <v>50</v>
-      </c>
-      <c r="R21">
-        <v>98</v>
-      </c>
-      <c r="S21">
-        <v>50</v>
-      </c>
-      <c r="U21">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="V21">
-        <v>0.125</v>
-      </c>
-      <c r="W21">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="X21">
-        <v>0.125</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22">
-        <v>50</v>
-      </c>
-      <c r="D22">
-        <v>98</v>
-      </c>
-      <c r="E22">
-        <v>90</v>
-      </c>
-      <c r="N22">
-        <v>50</v>
-      </c>
-      <c r="O22">
-        <v>50</v>
-      </c>
-      <c r="R22">
-        <v>98</v>
-      </c>
-      <c r="S22">
-        <v>50</v>
-      </c>
-      <c r="U22">
-        <v>31.356999999999999</v>
-      </c>
-      <c r="V22">
-        <v>0.125</v>
-      </c>
-      <c r="W22">
-        <v>31.356999999999999</v>
-      </c>
-      <c r="X22">
-        <v>0.125</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23">
-        <v>50</v>
-      </c>
-      <c r="D23">
-        <v>98</v>
-      </c>
-      <c r="E23">
-        <v>90</v>
-      </c>
-      <c r="N23">
-        <v>50</v>
-      </c>
-      <c r="O23">
-        <v>50</v>
-      </c>
-      <c r="R23">
-        <v>98</v>
-      </c>
-      <c r="S23">
-        <v>50</v>
-      </c>
-      <c r="U23">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="V23">
-        <v>0.125</v>
-      </c>
-      <c r="W23">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="X23">
-        <v>0.125</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24">
-        <v>50</v>
-      </c>
-      <c r="D24">
-        <v>98</v>
-      </c>
-      <c r="E24">
-        <v>90</v>
-      </c>
-      <c r="N24">
-        <v>50</v>
-      </c>
-      <c r="O24">
-        <v>50</v>
-      </c>
-      <c r="R24">
-        <v>98</v>
-      </c>
-      <c r="S24">
-        <v>50</v>
-      </c>
-      <c r="U24">
-        <v>31.356999999999999</v>
-      </c>
-      <c r="V24">
-        <v>0.125</v>
-      </c>
-      <c r="W24">
-        <v>31.356999999999999</v>
-      </c>
-      <c r="X24">
-        <v>0.125</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>70</v>
+      </c>
+      <c r="D42">
+        <v>70</v>
+      </c>
+      <c r="E42">
+        <v>70</v>
+      </c>
+      <c r="N42">
+        <v>25</v>
+      </c>
+      <c r="O42">
+        <v>75</v>
+      </c>
+      <c r="U42">
+        <v>80</v>
+      </c>
+      <c r="V42">
+        <v>75</v>
+      </c>
+      <c r="X42">
+        <v>33</v>
+      </c>
+      <c r="Y42">
+        <v>0.125</v>
+      </c>
+      <c r="Z42">
+        <v>33</v>
+      </c>
+      <c r="AA42">
+        <v>0.125</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C25">
-        <v>50</v>
-      </c>
-      <c r="D25">
-        <v>98</v>
-      </c>
-      <c r="E25">
-        <v>90</v>
-      </c>
-      <c r="N25">
-        <v>50</v>
-      </c>
-      <c r="O25">
-        <v>50</v>
-      </c>
-      <c r="R25">
-        <v>98</v>
-      </c>
-      <c r="S25">
-        <v>50</v>
-      </c>
-      <c r="U25">
-        <v>31.181000000000001</v>
-      </c>
-      <c r="V25">
-        <v>0.125</v>
-      </c>
-      <c r="W25">
-        <v>31.181000000000001</v>
-      </c>
-      <c r="X25">
-        <v>0.125</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>70</v>
+      </c>
+      <c r="D43">
+        <v>70</v>
+      </c>
+      <c r="E43">
+        <v>70</v>
+      </c>
+      <c r="N43">
+        <v>25</v>
+      </c>
+      <c r="O43">
+        <v>75</v>
+      </c>
+      <c r="U43">
+        <v>80</v>
+      </c>
+      <c r="V43">
+        <v>75</v>
+      </c>
+      <c r="X43">
+        <v>33</v>
+      </c>
+      <c r="Y43">
+        <v>0.125</v>
+      </c>
+      <c r="Z43">
+        <v>33</v>
+      </c>
+      <c r="AA43">
+        <v>0.125</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C26">
-        <v>50</v>
-      </c>
-      <c r="D26">
-        <v>98</v>
-      </c>
-      <c r="E26">
-        <v>90</v>
-      </c>
-      <c r="N26">
-        <v>50</v>
-      </c>
-      <c r="O26">
-        <v>50</v>
-      </c>
-      <c r="R26">
-        <v>98</v>
-      </c>
-      <c r="S26">
-        <v>50</v>
-      </c>
-      <c r="U26">
-        <v>31.457999999999998</v>
-      </c>
-      <c r="V26">
-        <v>0.125</v>
-      </c>
-      <c r="W26">
-        <v>31.457999999999998</v>
-      </c>
-      <c r="X26">
-        <v>0.125</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27">
-        <v>50</v>
-      </c>
-      <c r="D27">
-        <v>98</v>
-      </c>
-      <c r="E27">
-        <v>90</v>
-      </c>
-      <c r="N27">
-        <v>50</v>
-      </c>
-      <c r="O27">
-        <v>50</v>
-      </c>
-      <c r="R27">
-        <v>98</v>
-      </c>
-      <c r="S27">
-        <v>50</v>
-      </c>
-      <c r="U27">
-        <v>30.777000000000001</v>
-      </c>
-      <c r="V27">
-        <v>0.125</v>
-      </c>
-      <c r="W27">
-        <v>30.777000000000001</v>
-      </c>
-      <c r="X27">
-        <v>0.125</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28">
-        <v>50</v>
-      </c>
-      <c r="D28">
-        <v>98</v>
-      </c>
-      <c r="E28">
-        <v>90</v>
-      </c>
-      <c r="N28">
-        <v>50</v>
-      </c>
-      <c r="O28">
-        <v>50</v>
-      </c>
-      <c r="R28">
-        <v>98</v>
-      </c>
-      <c r="S28">
-        <v>50</v>
-      </c>
-      <c r="U28">
-        <v>30.853000000000002</v>
-      </c>
-      <c r="V28">
-        <v>0.125</v>
-      </c>
-      <c r="W28">
-        <v>30.853000000000002</v>
-      </c>
-      <c r="X28">
-        <v>0.125</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29">
-        <v>99</v>
-      </c>
-      <c r="D29">
-        <v>98</v>
-      </c>
-      <c r="E29">
-        <v>90</v>
-      </c>
-      <c r="N29">
-        <v>95</v>
-      </c>
-      <c r="O29">
-        <v>99</v>
-      </c>
-      <c r="R29">
-        <v>98</v>
-      </c>
-      <c r="S29">
-        <v>97</v>
-      </c>
-      <c r="U29">
-        <v>31.282</v>
-      </c>
-      <c r="V29">
-        <v>0.125</v>
-      </c>
-      <c r="W29">
-        <v>31.282</v>
-      </c>
-      <c r="X29">
-        <v>0.125</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30">
-        <v>50</v>
-      </c>
-      <c r="D30">
-        <v>98</v>
-      </c>
-      <c r="E30">
-        <v>90</v>
-      </c>
-      <c r="N30">
-        <v>50</v>
-      </c>
-      <c r="O30">
-        <v>50</v>
-      </c>
-      <c r="R30">
-        <v>98</v>
-      </c>
-      <c r="S30">
-        <v>50</v>
-      </c>
-      <c r="U30">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="V30">
-        <v>0.125</v>
-      </c>
-      <c r="W30">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="X30">
-        <v>0.125</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31">
-        <v>50</v>
-      </c>
-      <c r="D31">
-        <v>98</v>
-      </c>
-      <c r="E31">
-        <v>90</v>
-      </c>
-      <c r="N31">
-        <v>50</v>
-      </c>
-      <c r="O31">
-        <v>50</v>
-      </c>
-      <c r="R31">
-        <v>98</v>
-      </c>
-      <c r="S31">
-        <v>50</v>
-      </c>
-      <c r="U31">
-        <v>31.231000000000002</v>
-      </c>
-      <c r="V31">
-        <v>0.125</v>
-      </c>
-      <c r="W31">
-        <v>31.231000000000002</v>
-      </c>
-      <c r="X31">
-        <v>0.125</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32">
-        <v>50</v>
-      </c>
-      <c r="D32">
-        <v>98</v>
-      </c>
-      <c r="E32">
-        <v>90</v>
-      </c>
-      <c r="N32">
-        <v>50</v>
-      </c>
-      <c r="O32">
-        <v>50</v>
-      </c>
-      <c r="R32">
-        <v>98</v>
-      </c>
-      <c r="S32">
-        <v>50</v>
-      </c>
-      <c r="U32">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="V32">
-        <v>0.125</v>
-      </c>
-      <c r="W32">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="X32">
-        <v>0.125</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33">
-        <v>50</v>
-      </c>
-      <c r="D33">
-        <v>98</v>
-      </c>
-      <c r="E33">
-        <v>90</v>
-      </c>
-      <c r="N33">
-        <v>50</v>
-      </c>
-      <c r="O33">
-        <v>50</v>
-      </c>
-      <c r="R33">
-        <v>98</v>
-      </c>
-      <c r="S33">
-        <v>50</v>
-      </c>
-      <c r="U33">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="V33">
-        <v>0.125</v>
-      </c>
-      <c r="W33">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="X33">
-        <v>0.125</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34">
-        <v>50</v>
-      </c>
-      <c r="D34">
-        <v>98</v>
-      </c>
-      <c r="E34">
-        <v>90</v>
-      </c>
-      <c r="N34">
-        <v>50</v>
-      </c>
-      <c r="O34">
-        <v>50</v>
-      </c>
-      <c r="R34">
-        <v>98</v>
-      </c>
-      <c r="S34">
-        <v>50</v>
-      </c>
-      <c r="U34">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="V34">
-        <v>0.125</v>
-      </c>
-      <c r="W34">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="X34">
-        <v>0.125</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>75</v>
+      </c>
+      <c r="D44">
+        <v>76</v>
+      </c>
+      <c r="E44">
+        <v>70</v>
+      </c>
+      <c r="N44">
+        <v>25</v>
+      </c>
+      <c r="O44">
+        <v>75</v>
+      </c>
+      <c r="U44">
+        <v>80</v>
+      </c>
+      <c r="V44">
+        <v>65</v>
+      </c>
+      <c r="X44">
+        <v>33</v>
+      </c>
+      <c r="Y44">
+        <v>0.125</v>
+      </c>
+      <c r="Z44">
+        <v>33</v>
+      </c>
+      <c r="AA44">
+        <v>0.125</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C35">
-        <v>50</v>
-      </c>
-      <c r="D35">
-        <v>98</v>
-      </c>
-      <c r="E35">
-        <v>90</v>
-      </c>
-      <c r="N35">
-        <v>50</v>
-      </c>
-      <c r="O35">
-        <v>50</v>
-      </c>
-      <c r="R35">
-        <v>98</v>
-      </c>
-      <c r="S35">
-        <v>50</v>
-      </c>
-      <c r="U35">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="V35">
-        <v>0.125</v>
-      </c>
-      <c r="W35">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="X35">
-        <v>0.125</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36">
-        <v>50</v>
-      </c>
-      <c r="D36">
-        <v>98</v>
-      </c>
-      <c r="E36">
-        <v>90</v>
-      </c>
-      <c r="N36">
-        <v>50</v>
-      </c>
-      <c r="O36">
-        <v>50</v>
-      </c>
-      <c r="R36">
-        <v>98</v>
-      </c>
-      <c r="S36">
-        <v>50</v>
-      </c>
-      <c r="U36">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="V36">
-        <v>0.125</v>
-      </c>
-      <c r="W36">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="X36">
-        <v>0.125</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37">
-        <v>50</v>
-      </c>
-      <c r="D37">
-        <v>98</v>
-      </c>
-      <c r="E37">
-        <v>90</v>
-      </c>
-      <c r="N37">
-        <v>50</v>
-      </c>
-      <c r="O37">
-        <v>50</v>
-      </c>
-      <c r="R37">
-        <v>98</v>
-      </c>
-      <c r="S37">
-        <v>50</v>
-      </c>
-      <c r="U37">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="V37">
-        <v>0.125</v>
-      </c>
-      <c r="W37">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="X37">
-        <v>0.125</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38">
-        <v>50</v>
-      </c>
-      <c r="D38">
-        <v>98</v>
-      </c>
-      <c r="E38">
-        <v>90</v>
-      </c>
-      <c r="N38">
-        <v>50</v>
-      </c>
-      <c r="O38">
-        <v>50</v>
-      </c>
-      <c r="R38">
-        <v>98</v>
-      </c>
-      <c r="S38">
-        <v>50</v>
-      </c>
-      <c r="U38">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="V38">
-        <v>0.125</v>
-      </c>
-      <c r="W38">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="X38">
-        <v>0.125</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39">
-        <v>50</v>
-      </c>
-      <c r="D39">
-        <v>98</v>
-      </c>
-      <c r="E39">
-        <v>90</v>
-      </c>
-      <c r="N39">
-        <v>50</v>
-      </c>
-      <c r="O39">
-        <v>50</v>
-      </c>
-      <c r="R39">
-        <v>98</v>
-      </c>
-      <c r="S39">
-        <v>50</v>
-      </c>
-      <c r="U39">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="V39">
-        <v>0.125</v>
-      </c>
-      <c r="W39">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="X39">
-        <v>0.125</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40">
-        <v>50</v>
-      </c>
-      <c r="D40">
-        <v>98</v>
-      </c>
-      <c r="E40">
-        <v>90</v>
-      </c>
-      <c r="N40">
-        <v>50</v>
-      </c>
-      <c r="O40">
-        <v>50</v>
-      </c>
-      <c r="R40">
-        <v>98</v>
-      </c>
-      <c r="S40">
-        <v>50</v>
-      </c>
-      <c r="U40">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="V40">
-        <v>0.125</v>
-      </c>
-      <c r="W40">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="X40">
-        <v>0.125</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41">
-        <v>50</v>
-      </c>
-      <c r="D41">
-        <v>98</v>
-      </c>
-      <c r="E41">
-        <v>90</v>
-      </c>
-      <c r="N41">
-        <v>50</v>
-      </c>
-      <c r="O41">
-        <v>50</v>
-      </c>
-      <c r="R41">
-        <v>98</v>
-      </c>
-      <c r="S41">
-        <v>50</v>
-      </c>
-      <c r="U41">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="V41">
-        <v>0.125</v>
-      </c>
-      <c r="W41">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="X41">
-        <v>0.125</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42">
-        <v>50</v>
-      </c>
-      <c r="D42">
-        <v>98</v>
-      </c>
-      <c r="E42">
-        <v>90</v>
-      </c>
-      <c r="N42">
-        <v>50</v>
-      </c>
-      <c r="O42">
-        <v>50</v>
-      </c>
-      <c r="R42">
-        <v>98</v>
-      </c>
-      <c r="S42">
-        <v>50</v>
-      </c>
-      <c r="U42">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="V42">
-        <v>0.125</v>
-      </c>
-      <c r="W42">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="X42">
-        <v>0.125</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43">
-        <v>50</v>
-      </c>
-      <c r="D43">
-        <v>98</v>
-      </c>
-      <c r="E43">
-        <v>90</v>
-      </c>
-      <c r="N43">
-        <v>50</v>
-      </c>
-      <c r="O43">
-        <v>50</v>
-      </c>
-      <c r="R43">
-        <v>98</v>
-      </c>
-      <c r="S43">
-        <v>50</v>
-      </c>
-      <c r="U43">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="V43">
-        <v>0.125</v>
-      </c>
-      <c r="W43">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="X43">
-        <v>0.125</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44">
-        <v>50</v>
-      </c>
-      <c r="D44">
-        <v>98</v>
-      </c>
-      <c r="E44">
-        <v>90</v>
-      </c>
-      <c r="N44">
-        <v>50</v>
-      </c>
-      <c r="O44">
-        <v>50</v>
-      </c>
-      <c r="R44">
-        <v>98</v>
-      </c>
-      <c r="S44">
-        <v>50</v>
-      </c>
-      <c r="U44">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="V44">
-        <v>0.125</v>
-      </c>
-      <c r="W44">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="X44">
-        <v>0.125</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>125</v>
+      <c r="B45">
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D45">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="E45">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N45">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="O45">
-        <v>50</v>
-      </c>
-      <c r="R45">
-        <v>98</v>
-      </c>
-      <c r="S45">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="U45">
-        <v>30.902999999999999</v>
+        <v>80</v>
       </c>
       <c r="V45">
-        <v>0.125</v>
-      </c>
-      <c r="W45">
-        <v>30.902999999999999</v>
+        <v>75</v>
       </c>
       <c r="X45">
-        <v>0.125</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46">
-        <v>50</v>
-      </c>
-      <c r="D46">
-        <v>98</v>
-      </c>
-      <c r="E46">
-        <v>90</v>
-      </c>
-      <c r="N46">
-        <v>50</v>
-      </c>
-      <c r="O46">
-        <v>50</v>
-      </c>
-      <c r="R46">
-        <v>98</v>
-      </c>
-      <c r="S46">
-        <v>50</v>
-      </c>
-      <c r="U46">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="V46">
-        <v>0.125</v>
-      </c>
-      <c r="W46">
-        <v>30.902999999999999</v>
-      </c>
-      <c r="X46">
-        <v>0.125</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>129</v>
+        <v>33</v>
+      </c>
+      <c r="Y45">
+        <v>0.125</v>
+      </c>
+      <c r="Z45">
+        <v>33</v>
+      </c>
+      <c r="AA45">
+        <v>0.125</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/SC2020TS/SC2020TS.xlsx
+++ b/SC2020TS/SC2020TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\steamapps\common\rFactor 2\ModDev\Vehicles\SC2020TS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76A52AE-6EF5-4694-AE0C-8073174783BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623F5EE8-B4FC-41D0-9E47-2181612371E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9108" yWindow="5280" windowWidth="27576" windowHeight="16188" xr2:uid="{8789A8AA-D4CF-4D2B-A3A0-DAA2D43268CE}"/>
+    <workbookView xWindow="14775" yWindow="1155" windowWidth="23625" windowHeight="19725" firstSheet="32" activeTab="37" xr2:uid="{8789A8AA-D4CF-4D2B-A3A0-DAA2D43268CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Track_Params" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4191" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4190" uniqueCount="143">
   <si>
     <t>Track</t>
   </si>
@@ -501,6 +501,9 @@
   <si>
     <t>FASTEST,LOWLINE</t>
   </si>
+  <si>
+    <t>Tom Hansen</t>
+  </si>
 </sst>
 </file>
 
@@ -869,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72282B91-580B-4020-AC52-91E58139DF3B}">
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,46 +960,46 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="G2">
-        <v>19.100000000000001</v>
+        <v>25</v>
       </c>
       <c r="H2">
-        <v>33.799999999999997</v>
+        <v>32</v>
       </c>
       <c r="I2">
-        <v>45.6</v>
+        <v>40</v>
       </c>
       <c r="J2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K2">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="L2">
-        <v>72.5</v>
+        <v>82</v>
       </c>
       <c r="M2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O2">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="P2">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="Q2">
         <v>-36</v>
       </c>
       <c r="R2">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="S2">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="T2" t="s">
         <v>127</v>
@@ -1240,10 +1243,10 @@
         <v>-35</v>
       </c>
       <c r="R7">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="S7">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="T7" t="s">
         <v>133</v>
@@ -2624,31 +2627,31 @@
         <v>54</v>
       </c>
       <c r="F36">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="G36">
         <v>25</v>
       </c>
       <c r="H36">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I36">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J36">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K36">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L36">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="M36">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="N36">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="O36">
         <v>250</v>
@@ -2660,7 +2663,13 @@
         <v>100</v>
       </c>
       <c r="R36">
-        <v>0.1</v>
+        <v>35</v>
+      </c>
+      <c r="S36">
+        <v>25</v>
+      </c>
+      <c r="T36" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -6710,8 +6719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149BC39B-C156-435D-8EE1-AE509FEB7E01}">
   <dimension ref="A1:AJ45"/>
   <sheetViews>
-    <sheetView topLeftCell="T8" workbookViewId="0">
-      <selection sqref="A1:AE45"/>
+    <sheetView topLeftCell="K10" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8202,13 +8211,16 @@
         <v>25</v>
       </c>
       <c r="O31">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U31">
         <v>80</v>
       </c>
       <c r="V31">
         <v>75</v>
+      </c>
+      <c r="W31">
+        <v>25</v>
       </c>
       <c r="X31">
         <v>32.799999999999997</v>
@@ -8246,13 +8258,16 @@
         <v>25</v>
       </c>
       <c r="O32">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U32">
         <v>80</v>
       </c>
       <c r="V32">
         <v>70</v>
+      </c>
+      <c r="W32">
+        <v>25</v>
       </c>
       <c r="X32">
         <v>33</v>
@@ -8290,13 +8305,16 @@
         <v>25</v>
       </c>
       <c r="O33">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U33">
         <v>80</v>
       </c>
       <c r="V33">
         <v>50</v>
+      </c>
+      <c r="W33">
+        <v>25</v>
       </c>
       <c r="X33">
         <v>33</v>
@@ -8334,13 +8352,16 @@
         <v>25</v>
       </c>
       <c r="O34">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U34">
         <v>80</v>
       </c>
       <c r="V34">
         <v>75</v>
+      </c>
+      <c r="W34">
+        <v>25</v>
       </c>
       <c r="X34">
         <v>33</v>
@@ -8378,13 +8399,16 @@
         <v>25</v>
       </c>
       <c r="O35">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U35">
         <v>80</v>
       </c>
       <c r="V35">
         <v>68</v>
+      </c>
+      <c r="W35">
+        <v>25</v>
       </c>
       <c r="X35">
         <v>33</v>
@@ -8422,13 +8446,16 @@
         <v>25</v>
       </c>
       <c r="O36">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U36">
         <v>80</v>
       </c>
       <c r="V36">
         <v>75</v>
+      </c>
+      <c r="W36">
+        <v>25</v>
       </c>
       <c r="X36">
         <v>33</v>
@@ -8466,13 +8493,16 @@
         <v>25</v>
       </c>
       <c r="O37">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U37">
         <v>80</v>
       </c>
       <c r="V37">
         <v>75</v>
+      </c>
+      <c r="W37">
+        <v>25</v>
       </c>
       <c r="X37">
         <v>33</v>
@@ -8510,13 +8540,16 @@
         <v>25</v>
       </c>
       <c r="O38">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U38">
         <v>80</v>
       </c>
       <c r="V38">
         <v>75</v>
+      </c>
+      <c r="W38">
+        <v>25</v>
       </c>
       <c r="X38">
         <v>33</v>
@@ -8554,13 +8587,16 @@
         <v>25</v>
       </c>
       <c r="O39">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U39">
         <v>80</v>
       </c>
       <c r="V39">
         <v>75</v>
+      </c>
+      <c r="W39">
+        <v>25</v>
       </c>
       <c r="X39">
         <v>33</v>
@@ -8598,13 +8634,16 @@
         <v>25</v>
       </c>
       <c r="O40">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U40">
         <v>80</v>
       </c>
       <c r="V40">
         <v>70</v>
+      </c>
+      <c r="W40">
+        <v>25</v>
       </c>
       <c r="X40">
         <v>33</v>
@@ -8642,13 +8681,16 @@
         <v>25</v>
       </c>
       <c r="O41">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U41">
         <v>80</v>
       </c>
       <c r="V41">
         <v>75</v>
+      </c>
+      <c r="W41">
+        <v>25</v>
       </c>
       <c r="X41">
         <v>33</v>
@@ -8686,13 +8728,16 @@
         <v>25</v>
       </c>
       <c r="O42">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U42">
         <v>80</v>
       </c>
       <c r="V42">
         <v>75</v>
+      </c>
+      <c r="W42">
+        <v>25</v>
       </c>
       <c r="X42">
         <v>33</v>
@@ -8730,13 +8775,16 @@
         <v>25</v>
       </c>
       <c r="O43">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U43">
         <v>80</v>
       </c>
       <c r="V43">
         <v>75</v>
+      </c>
+      <c r="W43">
+        <v>25</v>
       </c>
       <c r="X43">
         <v>33</v>
@@ -8774,13 +8822,16 @@
         <v>25</v>
       </c>
       <c r="O44">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U44">
         <v>80</v>
       </c>
       <c r="V44">
         <v>50</v>
+      </c>
+      <c r="W44">
+        <v>25</v>
       </c>
       <c r="X44">
         <v>33</v>
@@ -8818,13 +8869,16 @@
         <v>25</v>
       </c>
       <c r="O45">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U45">
         <v>80</v>
       </c>
       <c r="V45">
         <v>75</v>
+      </c>
+      <c r="W45">
+        <v>25</v>
       </c>
       <c r="X45">
         <v>33</v>
@@ -24029,8 +24083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5033B6-F13A-480D-B911-F6298256DFC5}">
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView topLeftCell="V13" workbookViewId="0">
-      <selection activeCell="AE23" sqref="AE23"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection sqref="A1:AE45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38806,8 +38860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA32AD1-0026-4CED-BE99-E7902713EE21}">
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AG27" sqref="AG27"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AF33" sqref="AF33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51518,7 +51572,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D73DDC-7455-489F-A4D4-2CF296566FAD}">
   <dimension ref="A1:AG46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -51549,8 +51605,8 @@
     <col min="25" max="25" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.109375" customWidth="1"/>
+    <col min="29" max="29" width="24.77734375" customWidth="1"/>
     <col min="30" max="30" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="6" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="5.5546875" bestFit="1" customWidth="1"/>
@@ -51607,49 +51663,49 @@
         <v>17</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>80</v>
@@ -51660,7 +51716,10 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -51669,74 +51728,77 @@
         <v>98</v>
       </c>
       <c r="E2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>50</v>
-      </c>
-      <c r="R2">
-        <v>98</v>
-      </c>
-      <c r="S2">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="U2">
-        <v>50.665999999999997</v>
+        <v>97</v>
       </c>
       <c r="V2">
-        <v>0.125</v>
-      </c>
-      <c r="W2">
-        <v>50.665999999999997</v>
+        <v>90.1</v>
       </c>
       <c r="X2">
-        <v>0.05</v>
-      </c>
-      <c r="AB2" t="s">
+        <v>31.5</v>
+      </c>
+      <c r="Y2">
+        <v>0.125</v>
+      </c>
+      <c r="Z2">
+        <v>31.5</v>
+      </c>
+      <c r="AA2">
+        <v>0.125</v>
+      </c>
+      <c r="AE2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3">
         <v>98</v>
       </c>
       <c r="E3">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="N3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>50</v>
-      </c>
-      <c r="R3">
-        <v>98</v>
-      </c>
-      <c r="S3">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="U3">
-        <v>50.128999999999998</v>
+        <v>98</v>
       </c>
       <c r="V3">
-        <v>0.125</v>
-      </c>
-      <c r="W3">
-        <v>50.128999999999998</v>
+        <v>90</v>
       </c>
       <c r="X3">
-        <v>0.05</v>
-      </c>
-      <c r="AB3" t="s">
+        <v>31.5</v>
+      </c>
+      <c r="Y3">
+        <v>0.125</v>
+      </c>
+      <c r="Z3">
+        <v>31.5</v>
+      </c>
+      <c r="AA3">
+        <v>0.125</v>
+      </c>
+      <c r="AE3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -51744,1727 +51806,1856 @@
       <c r="A4" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="C4">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4">
         <v>98</v>
       </c>
       <c r="E4">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="N4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>50</v>
-      </c>
-      <c r="R4">
-        <v>98</v>
-      </c>
-      <c r="S4">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="U4">
-        <v>51.002000000000002</v>
+        <v>90</v>
       </c>
       <c r="V4">
-        <v>0.125</v>
-      </c>
-      <c r="W4">
-        <v>51.002000000000002</v>
+        <v>90</v>
       </c>
       <c r="X4">
-        <v>0.05</v>
-      </c>
-      <c r="AB4" t="s">
+        <v>31.7</v>
+      </c>
+      <c r="Y4">
+        <v>0.125</v>
+      </c>
+      <c r="Z4">
+        <v>31.7</v>
+      </c>
+      <c r="AA4">
+        <v>0.125</v>
+      </c>
+      <c r="AE4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5">
         <v>98</v>
       </c>
       <c r="E5">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="N5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>50</v>
-      </c>
-      <c r="R5">
-        <v>98</v>
-      </c>
-      <c r="S5">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="U5">
-        <v>50.027999999999999</v>
+        <v>90</v>
       </c>
       <c r="V5">
-        <v>0.125</v>
-      </c>
-      <c r="W5">
-        <v>50.027999999999999</v>
+        <v>88</v>
       </c>
       <c r="X5">
-        <v>0.05</v>
-      </c>
-      <c r="AB5" t="s">
+        <v>31.7</v>
+      </c>
+      <c r="Y5">
+        <v>0.125</v>
+      </c>
+      <c r="Z5">
+        <v>31.7</v>
+      </c>
+      <c r="AA5">
+        <v>0.125</v>
+      </c>
+      <c r="AE5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>109</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D6">
         <v>98</v>
       </c>
       <c r="E6">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="N6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>90</v>
-      </c>
-      <c r="R6">
-        <v>98</v>
-      </c>
-      <c r="S6">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="U6">
-        <v>50.7</v>
+        <v>90</v>
       </c>
       <c r="V6">
-        <v>0.125</v>
-      </c>
-      <c r="W6">
-        <v>50.7</v>
+        <v>80</v>
       </c>
       <c r="X6">
-        <v>0.05</v>
-      </c>
-      <c r="AB6" t="s">
+        <v>31.7</v>
+      </c>
+      <c r="Y6">
+        <v>0.125</v>
+      </c>
+      <c r="Z6">
+        <v>31.7</v>
+      </c>
+      <c r="AA6">
+        <v>0.125</v>
+      </c>
+      <c r="AE6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D7">
         <v>98</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="N7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>50</v>
-      </c>
-      <c r="R7">
-        <v>98</v>
-      </c>
-      <c r="S7">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="U7">
-        <v>49.994</v>
+        <v>90</v>
       </c>
       <c r="V7">
-        <v>0.125</v>
-      </c>
-      <c r="W7">
-        <v>49.994</v>
+        <v>80</v>
       </c>
       <c r="X7">
-        <v>0.05</v>
-      </c>
-      <c r="AB7" t="s">
+        <v>31.7</v>
+      </c>
+      <c r="Y7">
+        <v>0.125</v>
+      </c>
+      <c r="Z7">
+        <v>31.7</v>
+      </c>
+      <c r="AA7">
+        <v>0.125</v>
+      </c>
+      <c r="AE7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D8">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N8">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>97</v>
-      </c>
-      <c r="R8">
-        <v>98</v>
-      </c>
-      <c r="S8">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="U8">
-        <v>51.002000000000002</v>
+        <v>90</v>
       </c>
       <c r="V8">
-        <v>0.125</v>
-      </c>
-      <c r="W8">
-        <v>51.002000000000002</v>
+        <v>70</v>
       </c>
       <c r="X8">
-        <v>0.05</v>
-      </c>
-      <c r="AB8" t="s">
+        <v>31.7</v>
+      </c>
+      <c r="Y8">
+        <v>0.125</v>
+      </c>
+      <c r="Z8">
+        <v>31.7</v>
+      </c>
+      <c r="AA8">
+        <v>0.125</v>
+      </c>
+      <c r="AE8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D9">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E9">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>50</v>
-      </c>
-      <c r="R9">
-        <v>98</v>
-      </c>
-      <c r="S9">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="U9">
-        <v>50.465000000000003</v>
+        <v>90</v>
       </c>
       <c r="V9">
-        <v>0.125</v>
-      </c>
-      <c r="W9">
-        <v>50.465000000000003</v>
+        <v>80</v>
       </c>
       <c r="X9">
-        <v>0.05</v>
-      </c>
-      <c r="AB9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y9">
+        <v>0.125</v>
+      </c>
+      <c r="Z9">
+        <v>32</v>
+      </c>
+      <c r="AA9">
+        <v>0.125</v>
+      </c>
+      <c r="AE9" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D10">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E10">
         <v>90</v>
       </c>
       <c r="N10">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>50</v>
-      </c>
-      <c r="R10">
-        <v>98</v>
-      </c>
-      <c r="S10">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="U10">
-        <v>50.497999999999998</v>
+        <v>88</v>
       </c>
       <c r="V10">
-        <v>0.125</v>
-      </c>
-      <c r="W10">
-        <v>50.497999999999998</v>
+        <v>83</v>
       </c>
       <c r="X10">
-        <v>0.05</v>
-      </c>
-      <c r="AB10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y10">
+        <v>0.125</v>
+      </c>
+      <c r="Z10">
+        <v>32</v>
+      </c>
+      <c r="AA10">
+        <v>0.125</v>
+      </c>
+      <c r="AE10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E11">
         <v>90</v>
       </c>
       <c r="N11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>100</v>
-      </c>
-      <c r="R11">
-        <v>100</v>
-      </c>
-      <c r="S11">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="U11">
-        <v>49.927</v>
+        <v>90</v>
       </c>
       <c r="V11">
-        <v>0.125</v>
-      </c>
-      <c r="W11">
-        <v>49.927</v>
+        <v>80</v>
       </c>
       <c r="X11">
-        <v>0.05</v>
-      </c>
-      <c r="AB11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y11">
+        <v>0.125</v>
+      </c>
+      <c r="Z11">
+        <v>32</v>
+      </c>
+      <c r="AA11">
+        <v>0.125</v>
+      </c>
+      <c r="AE11" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>92</v>
+        <v>121</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D12">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E12">
         <v>90</v>
       </c>
       <c r="N12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>50</v>
-      </c>
-      <c r="R12">
-        <v>98</v>
-      </c>
-      <c r="S12">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="U12">
-        <v>50.363999999999997</v>
+        <v>90</v>
       </c>
       <c r="V12">
-        <v>0.125</v>
-      </c>
-      <c r="W12">
-        <v>50.363999999999997</v>
+        <v>80</v>
       </c>
       <c r="X12">
-        <v>0.05</v>
-      </c>
-      <c r="AB12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y12">
+        <v>0.125</v>
+      </c>
+      <c r="Z12">
+        <v>32</v>
+      </c>
+      <c r="AA12">
+        <v>0.125</v>
+      </c>
+      <c r="AE12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D13">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E13">
         <v>90</v>
       </c>
       <c r="N13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>50</v>
-      </c>
-      <c r="R13">
-        <v>98</v>
-      </c>
-      <c r="S13">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="U13">
-        <v>49.86</v>
+        <v>90</v>
       </c>
       <c r="V13">
-        <v>0.125</v>
-      </c>
-      <c r="W13">
-        <v>49.86</v>
+        <v>80</v>
       </c>
       <c r="X13">
-        <v>0.05</v>
-      </c>
-      <c r="AB13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y13">
+        <v>0.125</v>
+      </c>
+      <c r="Z13">
+        <v>32</v>
+      </c>
+      <c r="AA13">
+        <v>0.125</v>
+      </c>
+      <c r="AE13" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>119</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D14">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E14">
         <v>90</v>
       </c>
       <c r="N14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>50</v>
-      </c>
-      <c r="R14">
-        <v>98</v>
-      </c>
-      <c r="S14">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="U14">
-        <v>50.767000000000003</v>
+        <v>90</v>
       </c>
       <c r="V14">
-        <v>0.125</v>
-      </c>
-      <c r="W14">
-        <v>50.767000000000003</v>
+        <v>80</v>
       </c>
       <c r="X14">
-        <v>0.05</v>
-      </c>
-      <c r="AB14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y14">
+        <v>0.125</v>
+      </c>
+      <c r="Z14">
+        <v>32</v>
+      </c>
+      <c r="AA14">
+        <v>0.125</v>
+      </c>
+      <c r="AE14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>95</v>
+        <v>124</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D15">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E15">
         <v>90</v>
       </c>
       <c r="N15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>50</v>
-      </c>
-      <c r="R15">
-        <v>98</v>
-      </c>
-      <c r="S15">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="U15">
-        <v>50.564999999999998</v>
+        <v>90</v>
       </c>
       <c r="V15">
-        <v>0.125</v>
-      </c>
-      <c r="W15">
-        <v>50.564999999999998</v>
+        <v>80</v>
       </c>
       <c r="X15">
-        <v>0.05</v>
-      </c>
-      <c r="AB15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y15">
+        <v>0.125</v>
+      </c>
+      <c r="Z15">
+        <v>32</v>
+      </c>
+      <c r="AA15">
+        <v>0.125</v>
+      </c>
+      <c r="AE15" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>91</v>
+      </c>
+      <c r="D16">
+        <v>90</v>
+      </c>
+      <c r="E16">
+        <v>87</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>75</v>
+      </c>
+      <c r="U16">
+        <v>90</v>
+      </c>
+      <c r="V16">
+        <v>75</v>
+      </c>
+      <c r="X16">
+        <v>32</v>
+      </c>
+      <c r="Y16">
+        <v>0.125</v>
+      </c>
+      <c r="Z16">
+        <v>32</v>
+      </c>
+      <c r="AA16">
+        <v>0.125</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>90</v>
+      </c>
+      <c r="D17">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <v>86</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>75</v>
+      </c>
+      <c r="U17">
+        <v>90</v>
+      </c>
+      <c r="V17">
+        <v>82</v>
+      </c>
+      <c r="X17">
+        <v>32</v>
+      </c>
+      <c r="Y17">
+        <v>0.125</v>
+      </c>
+      <c r="Z17">
+        <v>32</v>
+      </c>
+      <c r="AA17">
+        <v>0.125</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>90</v>
+      </c>
+      <c r="D18">
+        <v>80</v>
+      </c>
+      <c r="E18">
+        <v>85</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>75</v>
+      </c>
+      <c r="U18">
+        <v>90</v>
+      </c>
+      <c r="V18">
+        <v>75</v>
+      </c>
+      <c r="X18">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="Y18">
+        <v>0.125</v>
+      </c>
+      <c r="Z18">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="AA18">
+        <v>0.125</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>90</v>
+      </c>
+      <c r="D19">
+        <v>80</v>
+      </c>
+      <c r="E19">
+        <v>85</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>75</v>
+      </c>
+      <c r="U19">
+        <v>90</v>
+      </c>
+      <c r="V19">
+        <v>80</v>
+      </c>
+      <c r="X19">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="Y19">
+        <v>0.125</v>
+      </c>
+      <c r="Z19">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="AA19">
+        <v>0.125</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>90</v>
+      </c>
+      <c r="D20">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>85</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>75</v>
+      </c>
+      <c r="U20">
+        <v>90</v>
+      </c>
+      <c r="V20">
+        <v>75</v>
+      </c>
+      <c r="X20">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="Y20">
+        <v>0.125</v>
+      </c>
+      <c r="Z20">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AA20">
+        <v>0.125</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>90</v>
+      </c>
+      <c r="D21">
+        <v>80</v>
+      </c>
+      <c r="E21">
+        <v>82</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>75</v>
+      </c>
+      <c r="U21">
+        <v>90</v>
+      </c>
+      <c r="V21">
+        <v>75</v>
+      </c>
+      <c r="X21">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="Y21">
+        <v>0.125</v>
+      </c>
+      <c r="Z21">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AA21">
+        <v>0.125</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>90</v>
+      </c>
+      <c r="D22">
+        <v>80</v>
+      </c>
+      <c r="E22">
+        <v>82</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>75</v>
+      </c>
+      <c r="U22">
+        <v>90</v>
+      </c>
+      <c r="V22">
+        <v>70</v>
+      </c>
+      <c r="X22">
+        <v>32.4</v>
+      </c>
+      <c r="Y22">
+        <v>0.125</v>
+      </c>
+      <c r="Z22">
+        <v>32.4</v>
+      </c>
+      <c r="AA22">
+        <v>0.125</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>90</v>
+      </c>
+      <c r="D23">
+        <v>80</v>
+      </c>
+      <c r="E23">
+        <v>81</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>75</v>
+      </c>
+      <c r="U23">
+        <v>90</v>
+      </c>
+      <c r="V23">
+        <v>75</v>
+      </c>
+      <c r="X23">
+        <v>32.4</v>
+      </c>
+      <c r="Y23">
+        <v>0.125</v>
+      </c>
+      <c r="Z23">
+        <v>32.4</v>
+      </c>
+      <c r="AA23">
+        <v>0.125</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>90</v>
+      </c>
+      <c r="D24">
+        <v>80</v>
+      </c>
+      <c r="E24">
+        <v>80</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>75</v>
+      </c>
+      <c r="U24">
+        <v>80</v>
+      </c>
+      <c r="V24">
+        <v>70</v>
+      </c>
+      <c r="X24">
+        <v>32.5</v>
+      </c>
+      <c r="Y24">
+        <v>0.125</v>
+      </c>
+      <c r="Z24">
+        <v>32.5</v>
+      </c>
+      <c r="AA24">
+        <v>0.125</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>88</v>
+      </c>
+      <c r="D25">
+        <v>80</v>
+      </c>
+      <c r="E25">
+        <v>80</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>75</v>
+      </c>
+      <c r="U25">
+        <v>90</v>
+      </c>
+      <c r="V25">
+        <v>70</v>
+      </c>
+      <c r="X25">
+        <v>32.5</v>
+      </c>
+      <c r="Y25">
+        <v>0.125</v>
+      </c>
+      <c r="Z25">
+        <v>32.5</v>
+      </c>
+      <c r="AA25">
+        <v>0.125</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>88</v>
+      </c>
+      <c r="D26">
+        <v>80</v>
+      </c>
+      <c r="E26">
+        <v>77</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>75</v>
+      </c>
+      <c r="U26">
+        <v>80</v>
+      </c>
+      <c r="V26">
+        <v>75</v>
+      </c>
+      <c r="X26">
+        <v>32.5</v>
+      </c>
+      <c r="Y26">
+        <v>0.125</v>
+      </c>
+      <c r="Z26">
+        <v>32.5</v>
+      </c>
+      <c r="AA26">
+        <v>0.125</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>85</v>
+      </c>
+      <c r="D27">
+        <v>80</v>
+      </c>
+      <c r="E27">
+        <v>75</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>75</v>
+      </c>
+      <c r="U27">
+        <v>90</v>
+      </c>
+      <c r="V27">
+        <v>75</v>
+      </c>
+      <c r="X27">
+        <v>32.5</v>
+      </c>
+      <c r="Y27">
+        <v>0.125</v>
+      </c>
+      <c r="Z27">
+        <v>32.5</v>
+      </c>
+      <c r="AA27">
+        <v>0.125</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>85</v>
+      </c>
+      <c r="D28">
+        <v>80</v>
+      </c>
+      <c r="E28">
+        <v>75</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>75</v>
+      </c>
+      <c r="U28">
+        <v>80</v>
+      </c>
+      <c r="V28">
+        <v>70</v>
+      </c>
+      <c r="X28">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="Y28">
+        <v>0.125</v>
+      </c>
+      <c r="Z28">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="AA28">
+        <v>0.125</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>85</v>
+      </c>
+      <c r="D29">
+        <v>70</v>
+      </c>
+      <c r="E29">
+        <v>70</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>75</v>
+      </c>
+      <c r="U29">
+        <v>80</v>
+      </c>
+      <c r="V29">
+        <v>75</v>
+      </c>
+      <c r="X29">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="Y29">
+        <v>0.125</v>
+      </c>
+      <c r="Z29">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="AA29">
+        <v>0.125</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>85</v>
+      </c>
+      <c r="D30">
+        <v>70</v>
+      </c>
+      <c r="E30">
+        <v>70</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>75</v>
+      </c>
+      <c r="U30">
+        <v>80</v>
+      </c>
+      <c r="V30">
+        <v>67</v>
+      </c>
+      <c r="X30">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="Y30">
+        <v>0.125</v>
+      </c>
+      <c r="Z30">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="AA30">
+        <v>0.125</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C16">
-        <v>100</v>
-      </c>
-      <c r="D16">
-        <v>98</v>
-      </c>
-      <c r="E16">
-        <v>90</v>
-      </c>
-      <c r="N16">
-        <v>50</v>
-      </c>
-      <c r="O16">
-        <v>50</v>
-      </c>
-      <c r="R16">
-        <v>98</v>
-      </c>
-      <c r="S16">
-        <v>50</v>
-      </c>
-      <c r="U16">
-        <v>50.531999999999996</v>
-      </c>
-      <c r="V16">
-        <v>0.125</v>
-      </c>
-      <c r="W16">
-        <v>50.531999999999996</v>
-      </c>
-      <c r="X16">
-        <v>0.05</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>83</v>
+      </c>
+      <c r="D31">
+        <v>70</v>
+      </c>
+      <c r="E31">
+        <v>70</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>75</v>
+      </c>
+      <c r="U31">
+        <v>80</v>
+      </c>
+      <c r="V31">
+        <v>75</v>
+      </c>
+      <c r="X31">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="Y31">
+        <v>0.125</v>
+      </c>
+      <c r="Z31">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="AA31">
+        <v>0.125</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>83</v>
+      </c>
+      <c r="D32">
+        <v>70</v>
+      </c>
+      <c r="E32">
+        <v>70</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>75</v>
+      </c>
+      <c r="U32">
+        <v>80</v>
+      </c>
+      <c r="V32">
+        <v>70</v>
+      </c>
+      <c r="X32">
+        <v>33</v>
+      </c>
+      <c r="Y32">
+        <v>0.125</v>
+      </c>
+      <c r="Z32">
+        <v>33</v>
+      </c>
+      <c r="AA32">
+        <v>0.125</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>83</v>
+      </c>
+      <c r="D33">
+        <v>70</v>
+      </c>
+      <c r="E33">
+        <v>70</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>75</v>
+      </c>
+      <c r="U33">
+        <v>80</v>
+      </c>
+      <c r="V33">
+        <v>65</v>
+      </c>
+      <c r="X33">
+        <v>33</v>
+      </c>
+      <c r="Y33">
+        <v>0.125</v>
+      </c>
+      <c r="Z33">
+        <v>33</v>
+      </c>
+      <c r="AA33">
+        <v>0.125</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>80</v>
+      </c>
+      <c r="D34">
+        <v>70</v>
+      </c>
+      <c r="E34">
+        <v>70</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>75</v>
+      </c>
+      <c r="U34">
+        <v>80</v>
+      </c>
+      <c r="V34">
+        <v>75</v>
+      </c>
+      <c r="X34">
+        <v>33</v>
+      </c>
+      <c r="Y34">
+        <v>0.125</v>
+      </c>
+      <c r="Z34">
+        <v>33</v>
+      </c>
+      <c r="AA34">
+        <v>0.125</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>79</v>
+      </c>
+      <c r="D35">
+        <v>70</v>
+      </c>
+      <c r="E35">
+        <v>70</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>75</v>
+      </c>
+      <c r="U35">
+        <v>80</v>
+      </c>
+      <c r="V35">
+        <v>68</v>
+      </c>
+      <c r="X35">
+        <v>33</v>
+      </c>
+      <c r="Y35">
+        <v>0.125</v>
+      </c>
+      <c r="Z35">
+        <v>33</v>
+      </c>
+      <c r="AA35">
+        <v>0.125</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>83</v>
+      </c>
+      <c r="D36">
+        <v>70</v>
+      </c>
+      <c r="E36">
+        <v>70</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>75</v>
+      </c>
+      <c r="U36">
+        <v>80</v>
+      </c>
+      <c r="V36">
+        <v>75</v>
+      </c>
+      <c r="X36">
+        <v>33</v>
+      </c>
+      <c r="Y36">
+        <v>0.125</v>
+      </c>
+      <c r="Z36">
+        <v>33</v>
+      </c>
+      <c r="AA36">
+        <v>0.125</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>83</v>
+      </c>
+      <c r="D37">
+        <v>70</v>
+      </c>
+      <c r="E37">
+        <v>70</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>75</v>
+      </c>
+      <c r="U37">
+        <v>80</v>
+      </c>
+      <c r="V37">
+        <v>75</v>
+      </c>
+      <c r="X37">
+        <v>33</v>
+      </c>
+      <c r="Y37">
+        <v>0.125</v>
+      </c>
+      <c r="Z37">
+        <v>33</v>
+      </c>
+      <c r="AA37">
+        <v>0.125</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>83</v>
+      </c>
+      <c r="D38">
+        <v>70</v>
+      </c>
+      <c r="E38">
+        <v>70</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>75</v>
+      </c>
+      <c r="U38">
+        <v>80</v>
+      </c>
+      <c r="V38">
+        <v>75</v>
+      </c>
+      <c r="X38">
+        <v>33</v>
+      </c>
+      <c r="Y38">
+        <v>0.125</v>
+      </c>
+      <c r="Z38">
+        <v>33</v>
+      </c>
+      <c r="AA38">
+        <v>0.125</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>81</v>
+      </c>
+      <c r="D39">
+        <v>70</v>
+      </c>
+      <c r="E39">
+        <v>70</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>75</v>
+      </c>
+      <c r="U39">
+        <v>80</v>
+      </c>
+      <c r="V39">
+        <v>75</v>
+      </c>
+      <c r="X39">
+        <v>33</v>
+      </c>
+      <c r="Y39">
+        <v>0.125</v>
+      </c>
+      <c r="Z39">
+        <v>33</v>
+      </c>
+      <c r="AA39">
+        <v>0.125</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>82</v>
+      </c>
+      <c r="D40">
+        <v>70</v>
+      </c>
+      <c r="E40">
+        <v>70</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>75</v>
+      </c>
+      <c r="U40">
+        <v>80</v>
+      </c>
+      <c r="V40">
+        <v>70</v>
+      </c>
+      <c r="X40">
+        <v>33</v>
+      </c>
+      <c r="Y40">
+        <v>0.125</v>
+      </c>
+      <c r="Z40">
+        <v>33</v>
+      </c>
+      <c r="AA40">
+        <v>0.125</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>78</v>
+      </c>
+      <c r="D41">
+        <v>70</v>
+      </c>
+      <c r="E41">
+        <v>70</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>75</v>
+      </c>
+      <c r="U41">
+        <v>80</v>
+      </c>
+      <c r="V41">
+        <v>75</v>
+      </c>
+      <c r="X41">
+        <v>33</v>
+      </c>
+      <c r="Y41">
+        <v>0.125</v>
+      </c>
+      <c r="Z41">
+        <v>33</v>
+      </c>
+      <c r="AA41">
+        <v>0.125</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
-      <c r="D17">
-        <v>98</v>
-      </c>
-      <c r="E17">
-        <v>90</v>
-      </c>
-      <c r="N17">
-        <v>50</v>
-      </c>
-      <c r="O17">
-        <v>50</v>
-      </c>
-      <c r="R17">
-        <v>98</v>
-      </c>
-      <c r="S17">
-        <v>50</v>
-      </c>
-      <c r="U17">
-        <v>50.296999999999997</v>
-      </c>
-      <c r="V17">
-        <v>0.125</v>
-      </c>
-      <c r="W17">
-        <v>50.296999999999997</v>
-      </c>
-      <c r="X17">
-        <v>0.05</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18">
-        <v>100</v>
-      </c>
-      <c r="D18">
-        <v>99</v>
-      </c>
-      <c r="E18">
-        <v>90</v>
-      </c>
-      <c r="N18">
-        <v>95</v>
-      </c>
-      <c r="O18">
-        <v>98</v>
-      </c>
-      <c r="R18">
-        <v>98</v>
-      </c>
-      <c r="S18">
-        <v>98</v>
-      </c>
-      <c r="U18">
-        <v>51.002000000000002</v>
-      </c>
-      <c r="V18">
-        <v>0.125</v>
-      </c>
-      <c r="W18">
-        <v>51.002000000000002</v>
-      </c>
-      <c r="X18">
-        <v>0.05</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19">
-        <v>100</v>
-      </c>
-      <c r="D19">
-        <v>98</v>
-      </c>
-      <c r="E19">
-        <v>90</v>
-      </c>
-      <c r="N19">
-        <v>99</v>
-      </c>
-      <c r="O19">
-        <v>95</v>
-      </c>
-      <c r="R19">
-        <v>98</v>
-      </c>
-      <c r="S19">
-        <v>97</v>
-      </c>
-      <c r="U19">
-        <v>49.692</v>
-      </c>
-      <c r="V19">
-        <v>0.125</v>
-      </c>
-      <c r="W19">
-        <v>49.692</v>
-      </c>
-      <c r="X19">
-        <v>0.05</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
-      <c r="D20">
-        <v>98</v>
-      </c>
-      <c r="E20">
-        <v>90</v>
-      </c>
-      <c r="N20">
-        <v>50</v>
-      </c>
-      <c r="O20">
-        <v>50</v>
-      </c>
-      <c r="R20">
-        <v>98</v>
-      </c>
-      <c r="S20">
-        <v>50</v>
-      </c>
-      <c r="U20">
-        <v>50.396999999999998</v>
-      </c>
-      <c r="V20">
-        <v>0.125</v>
-      </c>
-      <c r="W20">
-        <v>50.396999999999998</v>
-      </c>
-      <c r="X20">
-        <v>0.05</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21">
-        <v>100</v>
-      </c>
-      <c r="D21">
-        <v>98</v>
-      </c>
-      <c r="E21">
-        <v>90</v>
-      </c>
-      <c r="N21">
-        <v>50</v>
-      </c>
-      <c r="O21">
-        <v>50</v>
-      </c>
-      <c r="R21">
-        <v>98</v>
-      </c>
-      <c r="S21">
-        <v>50</v>
-      </c>
-      <c r="U21">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="V21">
-        <v>0.125</v>
-      </c>
-      <c r="W21">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="X21">
-        <v>0.05</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22">
-        <v>100</v>
-      </c>
-      <c r="D22">
-        <v>98</v>
-      </c>
-      <c r="E22">
-        <v>90</v>
-      </c>
-      <c r="N22">
-        <v>50</v>
-      </c>
-      <c r="O22">
-        <v>50</v>
-      </c>
-      <c r="R22">
-        <v>98</v>
-      </c>
-      <c r="S22">
-        <v>50</v>
-      </c>
-      <c r="U22">
-        <v>50.901000000000003</v>
-      </c>
-      <c r="V22">
-        <v>0.125</v>
-      </c>
-      <c r="W22">
-        <v>50.901000000000003</v>
-      </c>
-      <c r="X22">
-        <v>0.05</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
-      <c r="D23">
-        <v>98</v>
-      </c>
-      <c r="E23">
-        <v>90</v>
-      </c>
-      <c r="N23">
-        <v>50</v>
-      </c>
-      <c r="O23">
-        <v>50</v>
-      </c>
-      <c r="R23">
-        <v>98</v>
-      </c>
-      <c r="S23">
-        <v>50</v>
-      </c>
-      <c r="U23">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="V23">
-        <v>0.125</v>
-      </c>
-      <c r="W23">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="X23">
-        <v>0.05</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
-      <c r="D24">
-        <v>98</v>
-      </c>
-      <c r="E24">
-        <v>90</v>
-      </c>
-      <c r="N24">
-        <v>50</v>
-      </c>
-      <c r="O24">
-        <v>50</v>
-      </c>
-      <c r="R24">
-        <v>98</v>
-      </c>
-      <c r="S24">
-        <v>50</v>
-      </c>
-      <c r="U24">
-        <v>50.901000000000003</v>
-      </c>
-      <c r="V24">
-        <v>0.125</v>
-      </c>
-      <c r="W24">
-        <v>50.901000000000003</v>
-      </c>
-      <c r="X24">
-        <v>0.05</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>81</v>
+      </c>
+      <c r="D42">
+        <v>70</v>
+      </c>
+      <c r="E42">
+        <v>70</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>75</v>
+      </c>
+      <c r="U42">
+        <v>80</v>
+      </c>
+      <c r="V42">
+        <v>75</v>
+      </c>
+      <c r="X42">
+        <v>33</v>
+      </c>
+      <c r="Y42">
+        <v>0.125</v>
+      </c>
+      <c r="Z42">
+        <v>33</v>
+      </c>
+      <c r="AA42">
+        <v>0.125</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C25">
-        <v>100</v>
-      </c>
-      <c r="D25">
-        <v>98</v>
-      </c>
-      <c r="E25">
-        <v>90</v>
-      </c>
-      <c r="N25">
-        <v>50</v>
-      </c>
-      <c r="O25">
-        <v>50</v>
-      </c>
-      <c r="R25">
-        <v>98</v>
-      </c>
-      <c r="S25">
-        <v>50</v>
-      </c>
-      <c r="U25">
-        <v>50.531999999999996</v>
-      </c>
-      <c r="V25">
-        <v>0.125</v>
-      </c>
-      <c r="W25">
-        <v>50.531999999999996</v>
-      </c>
-      <c r="X25">
-        <v>0.05</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>81</v>
+      </c>
+      <c r="D43">
+        <v>70</v>
+      </c>
+      <c r="E43">
+        <v>70</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>75</v>
+      </c>
+      <c r="U43">
+        <v>80</v>
+      </c>
+      <c r="V43">
+        <v>75</v>
+      </c>
+      <c r="X43">
+        <v>33</v>
+      </c>
+      <c r="Y43">
+        <v>0.125</v>
+      </c>
+      <c r="Z43">
+        <v>33</v>
+      </c>
+      <c r="AA43">
+        <v>0.125</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C26">
-        <v>100</v>
-      </c>
-      <c r="D26">
-        <v>98</v>
-      </c>
-      <c r="E26">
-        <v>90</v>
-      </c>
-      <c r="N26">
-        <v>50</v>
-      </c>
-      <c r="O26">
-        <v>50</v>
-      </c>
-      <c r="R26">
-        <v>98</v>
-      </c>
-      <c r="S26">
-        <v>50</v>
-      </c>
-      <c r="U26">
-        <v>50.834000000000003</v>
-      </c>
-      <c r="V26">
-        <v>0.125</v>
-      </c>
-      <c r="W26">
-        <v>50.834000000000003</v>
-      </c>
-      <c r="X26">
-        <v>0.05</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27">
-        <v>100</v>
-      </c>
-      <c r="D27">
-        <v>98</v>
-      </c>
-      <c r="E27">
-        <v>90</v>
-      </c>
-      <c r="N27">
-        <v>50</v>
-      </c>
-      <c r="O27">
-        <v>50</v>
-      </c>
-      <c r="R27">
-        <v>98</v>
-      </c>
-      <c r="S27">
-        <v>50</v>
-      </c>
-      <c r="U27">
-        <v>49.725999999999999</v>
-      </c>
-      <c r="V27">
-        <v>0.125</v>
-      </c>
-      <c r="W27">
-        <v>49.725999999999999</v>
-      </c>
-      <c r="X27">
-        <v>0.05</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28">
-        <v>100</v>
-      </c>
-      <c r="D28">
-        <v>98</v>
-      </c>
-      <c r="E28">
-        <v>90</v>
-      </c>
-      <c r="N28">
-        <v>50</v>
-      </c>
-      <c r="O28">
-        <v>50</v>
-      </c>
-      <c r="R28">
-        <v>98</v>
-      </c>
-      <c r="S28">
-        <v>50</v>
-      </c>
-      <c r="U28">
-        <v>50.027999999999999</v>
-      </c>
-      <c r="V28">
-        <v>0.125</v>
-      </c>
-      <c r="W28">
-        <v>50.027999999999999</v>
-      </c>
-      <c r="X28">
-        <v>0.05</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29">
-        <v>100</v>
-      </c>
-      <c r="D29">
-        <v>98</v>
-      </c>
-      <c r="E29">
-        <v>90</v>
-      </c>
-      <c r="N29">
-        <v>95</v>
-      </c>
-      <c r="O29">
-        <v>99</v>
-      </c>
-      <c r="R29">
-        <v>98</v>
-      </c>
-      <c r="S29">
-        <v>97</v>
-      </c>
-      <c r="U29">
-        <v>50.868000000000002</v>
-      </c>
-      <c r="V29">
-        <v>0.125</v>
-      </c>
-      <c r="W29">
-        <v>50.868000000000002</v>
-      </c>
-      <c r="X29">
-        <v>0.05</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30">
-        <v>100</v>
-      </c>
-      <c r="D30">
-        <v>98</v>
-      </c>
-      <c r="E30">
-        <v>90</v>
-      </c>
-      <c r="N30">
-        <v>50</v>
-      </c>
-      <c r="O30">
-        <v>50</v>
-      </c>
-      <c r="R30">
-        <v>98</v>
-      </c>
-      <c r="S30">
-        <v>50</v>
-      </c>
-      <c r="U30">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="V30">
-        <v>0.125</v>
-      </c>
-      <c r="W30">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="X30">
-        <v>0.05</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31">
-        <v>100</v>
-      </c>
-      <c r="D31">
-        <v>98</v>
-      </c>
-      <c r="E31">
-        <v>90</v>
-      </c>
-      <c r="N31">
-        <v>50</v>
-      </c>
-      <c r="O31">
-        <v>50</v>
-      </c>
-      <c r="R31">
-        <v>98</v>
-      </c>
-      <c r="S31">
-        <v>50</v>
-      </c>
-      <c r="U31">
-        <v>50.8</v>
-      </c>
-      <c r="V31">
-        <v>0.125</v>
-      </c>
-      <c r="W31">
-        <v>50.8</v>
-      </c>
-      <c r="X31">
-        <v>0.05</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32">
-        <v>100</v>
-      </c>
-      <c r="D32">
-        <v>98</v>
-      </c>
-      <c r="E32">
-        <v>90</v>
-      </c>
-      <c r="N32">
-        <v>50</v>
-      </c>
-      <c r="O32">
-        <v>50</v>
-      </c>
-      <c r="R32">
-        <v>98</v>
-      </c>
-      <c r="S32">
-        <v>50</v>
-      </c>
-      <c r="U32">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="V32">
-        <v>0.125</v>
-      </c>
-      <c r="W32">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="X32">
-        <v>0.05</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33">
-        <v>100</v>
-      </c>
-      <c r="D33">
-        <v>98</v>
-      </c>
-      <c r="E33">
-        <v>90</v>
-      </c>
-      <c r="N33">
-        <v>50</v>
-      </c>
-      <c r="O33">
-        <v>50</v>
-      </c>
-      <c r="R33">
-        <v>98</v>
-      </c>
-      <c r="S33">
-        <v>50</v>
-      </c>
-      <c r="U33">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="V33">
-        <v>0.125</v>
-      </c>
-      <c r="W33">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="X33">
-        <v>0.05</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34">
-        <v>100</v>
-      </c>
-      <c r="D34">
-        <v>98</v>
-      </c>
-      <c r="E34">
-        <v>90</v>
-      </c>
-      <c r="N34">
-        <v>50</v>
-      </c>
-      <c r="O34">
-        <v>50</v>
-      </c>
-      <c r="R34">
-        <v>98</v>
-      </c>
-      <c r="S34">
-        <v>50</v>
-      </c>
-      <c r="U34">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="V34">
-        <v>0.125</v>
-      </c>
-      <c r="W34">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="X34">
-        <v>0.05</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>80</v>
+      </c>
+      <c r="D44">
+        <v>76</v>
+      </c>
+      <c r="E44">
+        <v>70</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>75</v>
+      </c>
+      <c r="U44">
+        <v>80</v>
+      </c>
+      <c r="V44">
+        <v>65</v>
+      </c>
+      <c r="X44">
+        <v>33</v>
+      </c>
+      <c r="Y44">
+        <v>0.125</v>
+      </c>
+      <c r="Z44">
+        <v>33</v>
+      </c>
+      <c r="AA44">
+        <v>0.125</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C35">
-        <v>100</v>
-      </c>
-      <c r="D35">
-        <v>98</v>
-      </c>
-      <c r="E35">
-        <v>90</v>
-      </c>
-      <c r="N35">
-        <v>50</v>
-      </c>
-      <c r="O35">
-        <v>50</v>
-      </c>
-      <c r="R35">
-        <v>98</v>
-      </c>
-      <c r="S35">
-        <v>50</v>
-      </c>
-      <c r="U35">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="V35">
-        <v>0.125</v>
-      </c>
-      <c r="W35">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="X35">
-        <v>0.05</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36">
-        <v>100</v>
-      </c>
-      <c r="D36">
-        <v>98</v>
-      </c>
-      <c r="E36">
-        <v>90</v>
-      </c>
-      <c r="N36">
-        <v>50</v>
-      </c>
-      <c r="O36">
-        <v>50</v>
-      </c>
-      <c r="R36">
-        <v>98</v>
-      </c>
-      <c r="S36">
-        <v>50</v>
-      </c>
-      <c r="U36">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="V36">
-        <v>0.125</v>
-      </c>
-      <c r="W36">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="X36">
-        <v>0.05</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37">
-        <v>100</v>
-      </c>
-      <c r="D37">
-        <v>98</v>
-      </c>
-      <c r="E37">
-        <v>90</v>
-      </c>
-      <c r="N37">
-        <v>50</v>
-      </c>
-      <c r="O37">
-        <v>50</v>
-      </c>
-      <c r="R37">
-        <v>98</v>
-      </c>
-      <c r="S37">
-        <v>50</v>
-      </c>
-      <c r="U37">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="V37">
-        <v>0.125</v>
-      </c>
-      <c r="W37">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="X37">
-        <v>0.05</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38">
-        <v>100</v>
-      </c>
-      <c r="D38">
-        <v>98</v>
-      </c>
-      <c r="E38">
-        <v>90</v>
-      </c>
-      <c r="N38">
-        <v>50</v>
-      </c>
-      <c r="O38">
-        <v>50</v>
-      </c>
-      <c r="R38">
-        <v>98</v>
-      </c>
-      <c r="S38">
-        <v>50</v>
-      </c>
-      <c r="U38">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="V38">
-        <v>0.125</v>
-      </c>
-      <c r="W38">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="X38">
-        <v>0.05</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39">
-        <v>100</v>
-      </c>
-      <c r="D39">
-        <v>98</v>
-      </c>
-      <c r="E39">
-        <v>90</v>
-      </c>
-      <c r="N39">
-        <v>50</v>
-      </c>
-      <c r="O39">
-        <v>50</v>
-      </c>
-      <c r="R39">
-        <v>98</v>
-      </c>
-      <c r="S39">
-        <v>50</v>
-      </c>
-      <c r="U39">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="V39">
-        <v>0.125</v>
-      </c>
-      <c r="W39">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="X39">
-        <v>0.05</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40">
-        <v>100</v>
-      </c>
-      <c r="D40">
-        <v>98</v>
-      </c>
-      <c r="E40">
-        <v>90</v>
-      </c>
-      <c r="N40">
-        <v>50</v>
-      </c>
-      <c r="O40">
-        <v>50</v>
-      </c>
-      <c r="R40">
-        <v>98</v>
-      </c>
-      <c r="S40">
-        <v>50</v>
-      </c>
-      <c r="U40">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="V40">
-        <v>0.125</v>
-      </c>
-      <c r="W40">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="X40">
-        <v>0.05</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41">
-        <v>100</v>
-      </c>
-      <c r="D41">
-        <v>98</v>
-      </c>
-      <c r="E41">
-        <v>90</v>
-      </c>
-      <c r="N41">
-        <v>50</v>
-      </c>
-      <c r="O41">
-        <v>50</v>
-      </c>
-      <c r="R41">
-        <v>98</v>
-      </c>
-      <c r="S41">
-        <v>50</v>
-      </c>
-      <c r="U41">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="V41">
-        <v>0.125</v>
-      </c>
-      <c r="W41">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="X41">
-        <v>0.05</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42">
-        <v>100</v>
-      </c>
-      <c r="D42">
-        <v>98</v>
-      </c>
-      <c r="E42">
-        <v>90</v>
-      </c>
-      <c r="N42">
-        <v>50</v>
-      </c>
-      <c r="O42">
-        <v>50</v>
-      </c>
-      <c r="R42">
-        <v>98</v>
-      </c>
-      <c r="S42">
-        <v>50</v>
-      </c>
-      <c r="U42">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="V42">
-        <v>0.125</v>
-      </c>
-      <c r="W42">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="X42">
-        <v>0.05</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43">
-        <v>100</v>
-      </c>
-      <c r="D43">
-        <v>98</v>
-      </c>
-      <c r="E43">
-        <v>90</v>
-      </c>
-      <c r="N43">
-        <v>50</v>
-      </c>
-      <c r="O43">
-        <v>50</v>
-      </c>
-      <c r="R43">
-        <v>98</v>
-      </c>
-      <c r="S43">
-        <v>50</v>
-      </c>
-      <c r="U43">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="V43">
-        <v>0.125</v>
-      </c>
-      <c r="W43">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="X43">
-        <v>0.05</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44">
-        <v>100</v>
-      </c>
-      <c r="D44">
-        <v>98</v>
-      </c>
-      <c r="E44">
-        <v>90</v>
-      </c>
-      <c r="N44">
-        <v>50</v>
-      </c>
-      <c r="O44">
-        <v>50</v>
-      </c>
-      <c r="R44">
-        <v>98</v>
-      </c>
-      <c r="S44">
-        <v>50</v>
-      </c>
-      <c r="U44">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="V44">
-        <v>0.125</v>
-      </c>
-      <c r="W44">
-        <v>49.893999999999998</v>
-      </c>
-      <c r="X44">
-        <v>0.05</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>125</v>
+      <c r="B45">
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D45">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="E45">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N45">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O45">
-        <v>50</v>
-      </c>
-      <c r="R45">
-        <v>98</v>
-      </c>
-      <c r="S45">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="U45">
-        <v>49.893999999999998</v>
+        <v>80</v>
       </c>
       <c r="V45">
-        <v>0.125</v>
-      </c>
-      <c r="W45">
-        <v>49.893999999999998</v>
+        <v>75</v>
       </c>
       <c r="X45">
-        <v>0.05</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="Y45">
+        <v>0.125</v>
+      </c>
+      <c r="Z45">
+        <v>33</v>
+      </c>
+      <c r="AA45">
+        <v>0.125</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
       </c>
       <c r="C46">
         <v>100</v>
@@ -53473,34 +53664,34 @@
         <v>98</v>
       </c>
       <c r="E46">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N46">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O46">
-        <v>50</v>
-      </c>
-      <c r="R46">
-        <v>98</v>
-      </c>
-      <c r="S46">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="U46">
-        <v>49.893999999999998</v>
+        <v>97</v>
       </c>
       <c r="V46">
-        <v>0.125</v>
-      </c>
-      <c r="W46">
-        <v>49.893999999999998</v>
+        <v>90.1</v>
       </c>
       <c r="X46">
-        <v>0.05</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>129</v>
+        <v>31.5</v>
+      </c>
+      <c r="Y46">
+        <v>0.125</v>
+      </c>
+      <c r="Z46">
+        <v>31.5</v>
+      </c>
+      <c r="AA46">
+        <v>0.125</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -57498,9 +57689,11 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF18335F-9BB8-40F7-8DBD-A8A75718C2BE}">
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -57589,49 +57782,49 @@
         <v>17</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>80</v>
@@ -57642,83 +57835,95 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>98</v>
       </c>
       <c r="E2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N2">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="O2">
-        <v>50</v>
-      </c>
-      <c r="R2">
-        <v>98</v>
-      </c>
-      <c r="S2">
-        <v>50</v>
+        <v>95</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
       </c>
       <c r="U2">
-        <v>30.029</v>
+        <v>97</v>
       </c>
       <c r="V2">
-        <v>0.125</v>
-      </c>
-      <c r="W2">
-        <v>30.029</v>
+        <v>90.1</v>
       </c>
       <c r="X2">
-        <v>0.125</v>
-      </c>
-      <c r="AB2" t="s">
+        <v>31.5</v>
+      </c>
+      <c r="Y2">
+        <v>0.125</v>
+      </c>
+      <c r="Z2">
+        <v>31.5</v>
+      </c>
+      <c r="AA2">
+        <v>0.125</v>
+      </c>
+      <c r="AE2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="D3">
         <v>98</v>
       </c>
       <c r="E3">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="N3">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O3">
-        <v>50</v>
-      </c>
-      <c r="R3">
-        <v>98</v>
-      </c>
-      <c r="S3">
-        <v>50</v>
+        <v>95</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
       </c>
       <c r="U3">
-        <v>30.097000000000001</v>
+        <v>98</v>
       </c>
       <c r="V3">
-        <v>0.125</v>
-      </c>
-      <c r="W3">
-        <v>30.097000000000001</v>
+        <v>90</v>
       </c>
       <c r="X3">
-        <v>0.125</v>
-      </c>
-      <c r="AB3" t="s">
+        <v>31.5</v>
+      </c>
+      <c r="Y3">
+        <v>0.125</v>
+      </c>
+      <c r="Z3">
+        <v>31.5</v>
+      </c>
+      <c r="AA3">
+        <v>0.125</v>
+      </c>
+      <c r="AE3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -57726,1763 +57931,1887 @@
       <c r="A4" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="C4">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="D4">
         <v>98</v>
       </c>
       <c r="E4">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="N4">
         <v>50</v>
       </c>
       <c r="O4">
-        <v>50</v>
-      </c>
-      <c r="R4">
-        <v>98</v>
-      </c>
-      <c r="S4">
-        <v>50</v>
+        <v>92</v>
+      </c>
+      <c r="P4">
+        <v>12</v>
       </c>
       <c r="U4">
-        <v>31.120999999999999</v>
+        <v>90</v>
       </c>
       <c r="V4">
-        <v>0.125</v>
-      </c>
-      <c r="W4">
-        <v>31.120999999999999</v>
+        <v>90</v>
       </c>
       <c r="X4">
-        <v>0.125</v>
-      </c>
-      <c r="AB4" t="s">
+        <v>31.7</v>
+      </c>
+      <c r="Y4">
+        <v>0.125</v>
+      </c>
+      <c r="Z4">
+        <v>31.7</v>
+      </c>
+      <c r="AA4">
+        <v>0.125</v>
+      </c>
+      <c r="AE4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="D5">
         <v>98</v>
       </c>
       <c r="E5">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="N5">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O5">
-        <v>50</v>
-      </c>
-      <c r="R5">
-        <v>98</v>
-      </c>
-      <c r="S5">
-        <v>50</v>
+        <v>94</v>
+      </c>
+      <c r="P5">
+        <v>12</v>
       </c>
       <c r="U5">
-        <v>29.141999999999999</v>
+        <v>90</v>
       </c>
       <c r="V5">
-        <v>0.125</v>
-      </c>
-      <c r="W5">
-        <v>29.141999999999999</v>
+        <v>88</v>
       </c>
       <c r="X5">
-        <v>0.125</v>
-      </c>
-      <c r="AB5" t="s">
+        <v>31.7</v>
+      </c>
+      <c r="Y5">
+        <v>0.125</v>
+      </c>
+      <c r="Z5">
+        <v>31.7</v>
+      </c>
+      <c r="AA5">
+        <v>0.125</v>
+      </c>
+      <c r="AE5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>109</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D6">
         <v>98</v>
       </c>
       <c r="E6">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="N6">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O6">
-        <v>90</v>
-      </c>
-      <c r="R6">
-        <v>98</v>
-      </c>
-      <c r="S6">
-        <v>98</v>
+        <v>82</v>
+      </c>
+      <c r="P6">
+        <v>12</v>
       </c>
       <c r="U6">
-        <v>30.916</v>
+        <v>90</v>
       </c>
       <c r="V6">
-        <v>0.125</v>
-      </c>
-      <c r="W6">
-        <v>30.916</v>
+        <v>80</v>
       </c>
       <c r="X6">
-        <v>0.125</v>
-      </c>
-      <c r="AB6" t="s">
+        <v>31.7</v>
+      </c>
+      <c r="Y6">
+        <v>0.125</v>
+      </c>
+      <c r="Z6">
+        <v>31.7</v>
+      </c>
+      <c r="AA6">
+        <v>0.125</v>
+      </c>
+      <c r="AE6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="D7">
         <v>98</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="N7">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O7">
-        <v>50</v>
-      </c>
-      <c r="R7">
-        <v>98</v>
-      </c>
-      <c r="S7">
-        <v>50</v>
+        <v>81</v>
+      </c>
+      <c r="P7">
+        <v>12</v>
       </c>
       <c r="U7">
-        <v>28.8</v>
+        <v>90</v>
       </c>
       <c r="V7">
-        <v>0.125</v>
-      </c>
-      <c r="W7">
-        <v>28.8</v>
+        <v>80</v>
       </c>
       <c r="X7">
-        <v>0.125</v>
-      </c>
-      <c r="AB7" t="s">
+        <v>31.7</v>
+      </c>
+      <c r="Y7">
+        <v>0.125</v>
+      </c>
+      <c r="Z7">
+        <v>31.7</v>
+      </c>
+      <c r="AA7">
+        <v>0.125</v>
+      </c>
+      <c r="AE7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D8">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N8">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="O8">
-        <v>97</v>
-      </c>
-      <c r="R8">
-        <v>98</v>
-      </c>
-      <c r="S8">
-        <v>97</v>
+        <v>80</v>
+      </c>
+      <c r="P8">
+        <v>15</v>
       </c>
       <c r="U8">
-        <v>31.120999999999999</v>
+        <v>90</v>
       </c>
       <c r="V8">
-        <v>0.125</v>
-      </c>
-      <c r="W8">
-        <v>31.120999999999999</v>
+        <v>70</v>
       </c>
       <c r="X8">
-        <v>0.125</v>
-      </c>
-      <c r="AB8" t="s">
+        <v>31.7</v>
+      </c>
+      <c r="Y8">
+        <v>0.125</v>
+      </c>
+      <c r="Z8">
+        <v>31.7</v>
+      </c>
+      <c r="AA8">
+        <v>0.125</v>
+      </c>
+      <c r="AE8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D9">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E9">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="O9">
-        <v>50</v>
-      </c>
-      <c r="R9">
-        <v>98</v>
-      </c>
-      <c r="S9">
-        <v>50</v>
+        <v>76</v>
+      </c>
+      <c r="P9">
+        <v>15</v>
       </c>
       <c r="U9">
-        <v>30.37</v>
+        <v>90</v>
       </c>
       <c r="V9">
-        <v>0.125</v>
-      </c>
-      <c r="W9">
-        <v>30.37</v>
+        <v>80</v>
       </c>
       <c r="X9">
-        <v>0.125</v>
-      </c>
-      <c r="AB9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y9">
+        <v>0.125</v>
+      </c>
+      <c r="Z9">
+        <v>32</v>
+      </c>
+      <c r="AA9">
+        <v>0.125</v>
+      </c>
+      <c r="AE9" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="D10">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E10">
         <v>90</v>
       </c>
       <c r="N10">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O10">
-        <v>50</v>
-      </c>
-      <c r="R10">
-        <v>98</v>
-      </c>
-      <c r="S10">
-        <v>50</v>
+        <v>70</v>
+      </c>
+      <c r="P10">
+        <v>15</v>
       </c>
       <c r="U10">
-        <v>29.619</v>
+        <v>88</v>
       </c>
       <c r="V10">
-        <v>0.125</v>
-      </c>
-      <c r="W10">
-        <v>29.619</v>
+        <v>83</v>
       </c>
       <c r="X10">
-        <v>0.125</v>
-      </c>
-      <c r="AB10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y10">
+        <v>0.125</v>
+      </c>
+      <c r="Z10">
+        <v>32</v>
+      </c>
+      <c r="AA10">
+        <v>0.125</v>
+      </c>
+      <c r="AE10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E11">
         <v>90</v>
       </c>
       <c r="N11">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="O11">
-        <v>100</v>
-      </c>
-      <c r="R11">
-        <v>100</v>
-      </c>
-      <c r="S11">
-        <v>100</v>
+        <v>76</v>
+      </c>
+      <c r="P11">
+        <v>15</v>
       </c>
       <c r="U11">
-        <v>29.824000000000002</v>
+        <v>90</v>
       </c>
       <c r="V11">
-        <v>0.125</v>
-      </c>
-      <c r="W11">
-        <v>29.824000000000002</v>
+        <v>80</v>
       </c>
       <c r="X11">
-        <v>0.125</v>
-      </c>
-      <c r="AB11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y11">
+        <v>0.125</v>
+      </c>
+      <c r="Z11">
+        <v>32</v>
+      </c>
+      <c r="AA11">
+        <v>0.125</v>
+      </c>
+      <c r="AE11" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>92</v>
+        <v>121</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D12">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E12">
         <v>90</v>
       </c>
       <c r="N12">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O12">
-        <v>50</v>
-      </c>
-      <c r="R12">
-        <v>98</v>
-      </c>
-      <c r="S12">
-        <v>50</v>
+        <v>81</v>
+      </c>
+      <c r="P12">
+        <v>15</v>
       </c>
       <c r="U12">
-        <v>30.710999999999999</v>
+        <v>90</v>
       </c>
       <c r="V12">
-        <v>0.125</v>
-      </c>
-      <c r="W12">
-        <v>30.710999999999999</v>
+        <v>80</v>
       </c>
       <c r="X12">
-        <v>0.125</v>
-      </c>
-      <c r="AB12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y12">
+        <v>0.125</v>
+      </c>
+      <c r="Z12">
+        <v>32</v>
+      </c>
+      <c r="AA12">
+        <v>0.125</v>
+      </c>
+      <c r="AE12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D13">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E13">
         <v>90</v>
       </c>
       <c r="N13">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O13">
-        <v>50</v>
-      </c>
-      <c r="R13">
-        <v>98</v>
-      </c>
-      <c r="S13">
-        <v>50</v>
+        <v>81</v>
+      </c>
+      <c r="P13">
+        <v>16</v>
       </c>
       <c r="U13">
-        <v>28.596</v>
+        <v>90</v>
       </c>
       <c r="V13">
-        <v>0.125</v>
-      </c>
-      <c r="W13">
-        <v>28.596</v>
+        <v>80</v>
       </c>
       <c r="X13">
-        <v>0.125</v>
-      </c>
-      <c r="AB13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y13">
+        <v>0.125</v>
+      </c>
+      <c r="Z13">
+        <v>32</v>
+      </c>
+      <c r="AA13">
+        <v>0.125</v>
+      </c>
+      <c r="AE13" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>119</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="D14">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E14">
         <v>90</v>
       </c>
       <c r="N14">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O14">
-        <v>50</v>
-      </c>
-      <c r="R14">
-        <v>98</v>
-      </c>
-      <c r="S14">
-        <v>50</v>
+        <v>81</v>
+      </c>
+      <c r="P14">
+        <v>16</v>
       </c>
       <c r="U14">
-        <v>30.847999999999999</v>
+        <v>90</v>
       </c>
       <c r="V14">
-        <v>0.125</v>
-      </c>
-      <c r="W14">
-        <v>30.847999999999999</v>
+        <v>80</v>
       </c>
       <c r="X14">
-        <v>0.125</v>
-      </c>
-      <c r="AB14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y14">
+        <v>0.125</v>
+      </c>
+      <c r="Z14">
+        <v>32</v>
+      </c>
+      <c r="AA14">
+        <v>0.125</v>
+      </c>
+      <c r="AE14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>95</v>
+        <v>124</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="D15">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E15">
         <v>90</v>
       </c>
       <c r="N15">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O15">
-        <v>50</v>
-      </c>
-      <c r="R15">
-        <v>98</v>
-      </c>
-      <c r="S15">
-        <v>50</v>
+        <v>81</v>
+      </c>
+      <c r="P15">
+        <v>21</v>
       </c>
       <c r="U15">
-        <v>29.346</v>
+        <v>90</v>
       </c>
       <c r="V15">
-        <v>0.125</v>
-      </c>
-      <c r="W15">
-        <v>29.346</v>
+        <v>80</v>
       </c>
       <c r="X15">
-        <v>0.125</v>
-      </c>
-      <c r="AB15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y15">
+        <v>0.125</v>
+      </c>
+      <c r="Z15">
+        <v>32</v>
+      </c>
+      <c r="AA15">
+        <v>0.125</v>
+      </c>
+      <c r="AE15" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>91</v>
+      </c>
+      <c r="D16">
+        <v>90</v>
+      </c>
+      <c r="E16">
+        <v>87</v>
+      </c>
+      <c r="N16">
+        <v>25</v>
+      </c>
+      <c r="O16">
+        <v>75</v>
+      </c>
+      <c r="P16">
+        <v>21</v>
+      </c>
+      <c r="U16">
+        <v>90</v>
+      </c>
+      <c r="V16">
+        <v>75</v>
+      </c>
+      <c r="X16">
+        <v>32</v>
+      </c>
+      <c r="Y16">
+        <v>0.125</v>
+      </c>
+      <c r="Z16">
+        <v>32</v>
+      </c>
+      <c r="AA16">
+        <v>0.125</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>89</v>
+      </c>
+      <c r="D17">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <v>86</v>
+      </c>
+      <c r="N17">
+        <v>65</v>
+      </c>
+      <c r="O17">
+        <v>75</v>
+      </c>
+      <c r="U17">
+        <v>90</v>
+      </c>
+      <c r="V17">
+        <v>82</v>
+      </c>
+      <c r="X17">
+        <v>32</v>
+      </c>
+      <c r="Y17">
+        <v>0.125</v>
+      </c>
+      <c r="Z17">
+        <v>32</v>
+      </c>
+      <c r="AA17">
+        <v>0.125</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>89</v>
+      </c>
+      <c r="D18">
+        <v>80</v>
+      </c>
+      <c r="E18">
+        <v>85</v>
+      </c>
+      <c r="N18">
+        <v>25</v>
+      </c>
+      <c r="O18">
+        <v>75</v>
+      </c>
+      <c r="U18">
+        <v>90</v>
+      </c>
+      <c r="V18">
+        <v>75</v>
+      </c>
+      <c r="X18">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="Y18">
+        <v>0.125</v>
+      </c>
+      <c r="Z18">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="AA18">
+        <v>0.125</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>89</v>
+      </c>
+      <c r="D19">
+        <v>80</v>
+      </c>
+      <c r="E19">
+        <v>85</v>
+      </c>
+      <c r="N19">
+        <v>60</v>
+      </c>
+      <c r="O19">
+        <v>75</v>
+      </c>
+      <c r="U19">
+        <v>90</v>
+      </c>
+      <c r="V19">
+        <v>80</v>
+      </c>
+      <c r="X19">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="Y19">
+        <v>0.125</v>
+      </c>
+      <c r="Z19">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="AA19">
+        <v>0.125</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>88</v>
+      </c>
+      <c r="D20">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>85</v>
+      </c>
+      <c r="N20">
+        <v>47</v>
+      </c>
+      <c r="O20">
+        <v>75</v>
+      </c>
+      <c r="U20">
+        <v>90</v>
+      </c>
+      <c r="V20">
+        <v>75</v>
+      </c>
+      <c r="X20">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="Y20">
+        <v>0.125</v>
+      </c>
+      <c r="Z20">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AA20">
+        <v>0.125</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>85</v>
+      </c>
+      <c r="D21">
+        <v>80</v>
+      </c>
+      <c r="E21">
+        <v>82</v>
+      </c>
+      <c r="N21">
+        <v>45</v>
+      </c>
+      <c r="O21">
+        <v>75</v>
+      </c>
+      <c r="U21">
+        <v>90</v>
+      </c>
+      <c r="V21">
+        <v>75</v>
+      </c>
+      <c r="X21">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="Y21">
+        <v>0.125</v>
+      </c>
+      <c r="Z21">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AA21">
+        <v>0.125</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>84</v>
+      </c>
+      <c r="D22">
+        <v>80</v>
+      </c>
+      <c r="E22">
+        <v>82</v>
+      </c>
+      <c r="N22">
+        <v>45</v>
+      </c>
+      <c r="O22">
+        <v>75</v>
+      </c>
+      <c r="U22">
+        <v>90</v>
+      </c>
+      <c r="V22">
+        <v>70</v>
+      </c>
+      <c r="X22">
+        <v>32.4</v>
+      </c>
+      <c r="Y22">
+        <v>0.125</v>
+      </c>
+      <c r="Z22">
+        <v>32.4</v>
+      </c>
+      <c r="AA22">
+        <v>0.125</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>84</v>
+      </c>
+      <c r="D23">
+        <v>80</v>
+      </c>
+      <c r="E23">
+        <v>81</v>
+      </c>
+      <c r="N23">
+        <v>45</v>
+      </c>
+      <c r="O23">
+        <v>75</v>
+      </c>
+      <c r="U23">
+        <v>90</v>
+      </c>
+      <c r="V23">
+        <v>75</v>
+      </c>
+      <c r="X23">
+        <v>32.4</v>
+      </c>
+      <c r="Y23">
+        <v>0.125</v>
+      </c>
+      <c r="Z23">
+        <v>32.4</v>
+      </c>
+      <c r="AA23">
+        <v>0.125</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>83</v>
+      </c>
+      <c r="D24">
+        <v>80</v>
+      </c>
+      <c r="E24">
+        <v>80</v>
+      </c>
+      <c r="N24">
+        <v>45</v>
+      </c>
+      <c r="O24">
+        <v>75</v>
+      </c>
+      <c r="U24">
+        <v>80</v>
+      </c>
+      <c r="V24">
+        <v>70</v>
+      </c>
+      <c r="X24">
+        <v>32.5</v>
+      </c>
+      <c r="Y24">
+        <v>0.125</v>
+      </c>
+      <c r="Z24">
+        <v>32.5</v>
+      </c>
+      <c r="AA24">
+        <v>0.125</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>83</v>
+      </c>
+      <c r="D25">
+        <v>80</v>
+      </c>
+      <c r="E25">
+        <v>80</v>
+      </c>
+      <c r="N25">
+        <v>25</v>
+      </c>
+      <c r="O25">
+        <v>75</v>
+      </c>
+      <c r="U25">
+        <v>90</v>
+      </c>
+      <c r="V25">
+        <v>70</v>
+      </c>
+      <c r="X25">
+        <v>32.5</v>
+      </c>
+      <c r="Y25">
+        <v>0.125</v>
+      </c>
+      <c r="Z25">
+        <v>32.5</v>
+      </c>
+      <c r="AA25">
+        <v>0.125</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>84</v>
+      </c>
+      <c r="D26">
+        <v>80</v>
+      </c>
+      <c r="E26">
+        <v>77</v>
+      </c>
+      <c r="N26">
+        <v>25</v>
+      </c>
+      <c r="O26">
+        <v>75</v>
+      </c>
+      <c r="U26">
+        <v>80</v>
+      </c>
+      <c r="V26">
+        <v>75</v>
+      </c>
+      <c r="X26">
+        <v>32.5</v>
+      </c>
+      <c r="Y26">
+        <v>0.125</v>
+      </c>
+      <c r="Z26">
+        <v>32.5</v>
+      </c>
+      <c r="AA26">
+        <v>0.125</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>82</v>
+      </c>
+      <c r="D27">
+        <v>80</v>
+      </c>
+      <c r="E27">
+        <v>75</v>
+      </c>
+      <c r="N27">
+        <v>25</v>
+      </c>
+      <c r="O27">
+        <v>75</v>
+      </c>
+      <c r="U27">
+        <v>90</v>
+      </c>
+      <c r="V27">
+        <v>75</v>
+      </c>
+      <c r="X27">
+        <v>32.5</v>
+      </c>
+      <c r="Y27">
+        <v>0.125</v>
+      </c>
+      <c r="Z27">
+        <v>32.5</v>
+      </c>
+      <c r="AA27">
+        <v>0.125</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>81</v>
+      </c>
+      <c r="D28">
+        <v>80</v>
+      </c>
+      <c r="E28">
+        <v>75</v>
+      </c>
+      <c r="N28">
+        <v>25</v>
+      </c>
+      <c r="O28">
+        <v>75</v>
+      </c>
+      <c r="U28">
+        <v>80</v>
+      </c>
+      <c r="V28">
+        <v>70</v>
+      </c>
+      <c r="X28">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="Y28">
+        <v>0.125</v>
+      </c>
+      <c r="Z28">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="AA28">
+        <v>0.125</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>80</v>
+      </c>
+      <c r="D29">
+        <v>70</v>
+      </c>
+      <c r="E29">
+        <v>70</v>
+      </c>
+      <c r="N29">
+        <v>25</v>
+      </c>
+      <c r="O29">
+        <v>75</v>
+      </c>
+      <c r="U29">
+        <v>80</v>
+      </c>
+      <c r="V29">
+        <v>75</v>
+      </c>
+      <c r="X29">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="Y29">
+        <v>0.125</v>
+      </c>
+      <c r="Z29">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="AA29">
+        <v>0.125</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>78</v>
+      </c>
+      <c r="D30">
+        <v>70</v>
+      </c>
+      <c r="E30">
+        <v>70</v>
+      </c>
+      <c r="N30">
+        <v>25</v>
+      </c>
+      <c r="O30">
+        <v>75</v>
+      </c>
+      <c r="U30">
+        <v>80</v>
+      </c>
+      <c r="V30">
+        <v>67</v>
+      </c>
+      <c r="X30">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="Y30">
+        <v>0.125</v>
+      </c>
+      <c r="Z30">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="AA30">
+        <v>0.125</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C16">
-        <v>50</v>
-      </c>
-      <c r="D16">
-        <v>98</v>
-      </c>
-      <c r="E16">
-        <v>90</v>
-      </c>
-      <c r="N16">
-        <v>50</v>
-      </c>
-      <c r="O16">
-        <v>50</v>
-      </c>
-      <c r="R16">
-        <v>98</v>
-      </c>
-      <c r="S16">
-        <v>50</v>
-      </c>
-      <c r="U16">
-        <v>30.164999999999999</v>
-      </c>
-      <c r="V16">
-        <v>0.125</v>
-      </c>
-      <c r="W16">
-        <v>30.164999999999999</v>
-      </c>
-      <c r="X16">
-        <v>0.125</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>77</v>
+      </c>
+      <c r="D31">
+        <v>70</v>
+      </c>
+      <c r="E31">
+        <v>70</v>
+      </c>
+      <c r="N31">
+        <v>25</v>
+      </c>
+      <c r="O31">
+        <v>75</v>
+      </c>
+      <c r="U31">
+        <v>80</v>
+      </c>
+      <c r="V31">
+        <v>75</v>
+      </c>
+      <c r="X31">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="Y31">
+        <v>0.125</v>
+      </c>
+      <c r="Z31">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="AA31">
+        <v>0.125</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>77</v>
+      </c>
+      <c r="D32">
+        <v>70</v>
+      </c>
+      <c r="E32">
+        <v>70</v>
+      </c>
+      <c r="N32">
+        <v>25</v>
+      </c>
+      <c r="O32">
+        <v>75</v>
+      </c>
+      <c r="U32">
+        <v>80</v>
+      </c>
+      <c r="V32">
+        <v>70</v>
+      </c>
+      <c r="X32">
+        <v>33</v>
+      </c>
+      <c r="Y32">
+        <v>0.125</v>
+      </c>
+      <c r="Z32">
+        <v>33</v>
+      </c>
+      <c r="AA32">
+        <v>0.125</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>77</v>
+      </c>
+      <c r="D33">
+        <v>70</v>
+      </c>
+      <c r="E33">
+        <v>70</v>
+      </c>
+      <c r="N33">
+        <v>25</v>
+      </c>
+      <c r="O33">
+        <v>75</v>
+      </c>
+      <c r="U33">
+        <v>80</v>
+      </c>
+      <c r="V33">
+        <v>65</v>
+      </c>
+      <c r="X33">
+        <v>33</v>
+      </c>
+      <c r="Y33">
+        <v>0.125</v>
+      </c>
+      <c r="Z33">
+        <v>33</v>
+      </c>
+      <c r="AA33">
+        <v>0.125</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>75</v>
+      </c>
+      <c r="D34">
+        <v>70</v>
+      </c>
+      <c r="E34">
+        <v>70</v>
+      </c>
+      <c r="N34">
+        <v>25</v>
+      </c>
+      <c r="O34">
+        <v>75</v>
+      </c>
+      <c r="U34">
+        <v>80</v>
+      </c>
+      <c r="V34">
+        <v>75</v>
+      </c>
+      <c r="X34">
+        <v>33</v>
+      </c>
+      <c r="Y34">
+        <v>0.125</v>
+      </c>
+      <c r="Z34">
+        <v>33</v>
+      </c>
+      <c r="AA34">
+        <v>0.125</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>70</v>
+      </c>
+      <c r="D35">
+        <v>70</v>
+      </c>
+      <c r="E35">
+        <v>70</v>
+      </c>
+      <c r="N35">
+        <v>25</v>
+      </c>
+      <c r="O35">
+        <v>75</v>
+      </c>
+      <c r="U35">
+        <v>80</v>
+      </c>
+      <c r="V35">
+        <v>68</v>
+      </c>
+      <c r="X35">
+        <v>33</v>
+      </c>
+      <c r="Y35">
+        <v>0.125</v>
+      </c>
+      <c r="Z35">
+        <v>33</v>
+      </c>
+      <c r="AA35">
+        <v>0.125</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>70</v>
+      </c>
+      <c r="D36">
+        <v>70</v>
+      </c>
+      <c r="E36">
+        <v>70</v>
+      </c>
+      <c r="N36">
+        <v>25</v>
+      </c>
+      <c r="O36">
+        <v>75</v>
+      </c>
+      <c r="U36">
+        <v>80</v>
+      </c>
+      <c r="V36">
+        <v>75</v>
+      </c>
+      <c r="X36">
+        <v>33</v>
+      </c>
+      <c r="Y36">
+        <v>0.125</v>
+      </c>
+      <c r="Z36">
+        <v>33</v>
+      </c>
+      <c r="AA36">
+        <v>0.125</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>70</v>
+      </c>
+      <c r="D37">
+        <v>70</v>
+      </c>
+      <c r="E37">
+        <v>70</v>
+      </c>
+      <c r="N37">
+        <v>25</v>
+      </c>
+      <c r="O37">
+        <v>75</v>
+      </c>
+      <c r="U37">
+        <v>80</v>
+      </c>
+      <c r="V37">
+        <v>75</v>
+      </c>
+      <c r="X37">
+        <v>33</v>
+      </c>
+      <c r="Y37">
+        <v>0.125</v>
+      </c>
+      <c r="Z37">
+        <v>33</v>
+      </c>
+      <c r="AA37">
+        <v>0.125</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>70</v>
+      </c>
+      <c r="D38">
+        <v>70</v>
+      </c>
+      <c r="E38">
+        <v>70</v>
+      </c>
+      <c r="N38">
+        <v>25</v>
+      </c>
+      <c r="O38">
+        <v>75</v>
+      </c>
+      <c r="U38">
+        <v>80</v>
+      </c>
+      <c r="V38">
+        <v>75</v>
+      </c>
+      <c r="X38">
+        <v>33</v>
+      </c>
+      <c r="Y38">
+        <v>0.125</v>
+      </c>
+      <c r="Z38">
+        <v>33</v>
+      </c>
+      <c r="AA38">
+        <v>0.125</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>70</v>
+      </c>
+      <c r="D39">
+        <v>70</v>
+      </c>
+      <c r="E39">
+        <v>70</v>
+      </c>
+      <c r="N39">
+        <v>25</v>
+      </c>
+      <c r="O39">
+        <v>75</v>
+      </c>
+      <c r="U39">
+        <v>80</v>
+      </c>
+      <c r="V39">
+        <v>75</v>
+      </c>
+      <c r="X39">
+        <v>33</v>
+      </c>
+      <c r="Y39">
+        <v>0.125</v>
+      </c>
+      <c r="Z39">
+        <v>33</v>
+      </c>
+      <c r="AA39">
+        <v>0.125</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>70</v>
+      </c>
+      <c r="D40">
+        <v>70</v>
+      </c>
+      <c r="E40">
+        <v>70</v>
+      </c>
+      <c r="N40">
+        <v>25</v>
+      </c>
+      <c r="O40">
+        <v>75</v>
+      </c>
+      <c r="U40">
+        <v>80</v>
+      </c>
+      <c r="V40">
+        <v>70</v>
+      </c>
+      <c r="X40">
+        <v>33</v>
+      </c>
+      <c r="Y40">
+        <v>0.125</v>
+      </c>
+      <c r="Z40">
+        <v>33</v>
+      </c>
+      <c r="AA40">
+        <v>0.125</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>70</v>
+      </c>
+      <c r="D41">
+        <v>70</v>
+      </c>
+      <c r="E41">
+        <v>70</v>
+      </c>
+      <c r="N41">
+        <v>25</v>
+      </c>
+      <c r="O41">
+        <v>75</v>
+      </c>
+      <c r="U41">
+        <v>80</v>
+      </c>
+      <c r="V41">
+        <v>75</v>
+      </c>
+      <c r="X41">
+        <v>33</v>
+      </c>
+      <c r="Y41">
+        <v>0.125</v>
+      </c>
+      <c r="Z41">
+        <v>33</v>
+      </c>
+      <c r="AA41">
+        <v>0.125</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C17">
-        <v>50</v>
-      </c>
-      <c r="D17">
-        <v>98</v>
-      </c>
-      <c r="E17">
-        <v>90</v>
-      </c>
-      <c r="N17">
-        <v>50</v>
-      </c>
-      <c r="O17">
-        <v>50</v>
-      </c>
-      <c r="R17">
-        <v>98</v>
-      </c>
-      <c r="S17">
-        <v>50</v>
-      </c>
-      <c r="U17">
-        <v>30.302</v>
-      </c>
-      <c r="V17">
-        <v>0.125</v>
-      </c>
-      <c r="W17">
-        <v>30.302</v>
-      </c>
-      <c r="X17">
-        <v>0.125</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18">
-        <v>100</v>
-      </c>
-      <c r="D18">
-        <v>99</v>
-      </c>
-      <c r="E18">
-        <v>90</v>
-      </c>
-      <c r="N18">
-        <v>95</v>
-      </c>
-      <c r="O18">
-        <v>98</v>
-      </c>
-      <c r="R18">
-        <v>98</v>
-      </c>
-      <c r="S18">
-        <v>98</v>
-      </c>
-      <c r="U18">
-        <v>31.120999999999999</v>
-      </c>
-      <c r="V18">
-        <v>0.125</v>
-      </c>
-      <c r="W18">
-        <v>31.120999999999999</v>
-      </c>
-      <c r="X18">
-        <v>0.125</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19">
-        <v>98</v>
-      </c>
-      <c r="D19">
-        <v>98</v>
-      </c>
-      <c r="E19">
-        <v>90</v>
-      </c>
-      <c r="N19">
-        <v>99</v>
-      </c>
-      <c r="O19">
-        <v>95</v>
-      </c>
-      <c r="R19">
-        <v>98</v>
-      </c>
-      <c r="S19">
-        <v>97</v>
-      </c>
-      <c r="U19">
-        <v>29.004999999999999</v>
-      </c>
-      <c r="V19">
-        <v>0.125</v>
-      </c>
-      <c r="W19">
-        <v>29.004999999999999</v>
-      </c>
-      <c r="X19">
-        <v>0.125</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20">
-        <v>50</v>
-      </c>
-      <c r="D20">
-        <v>98</v>
-      </c>
-      <c r="E20">
-        <v>90</v>
-      </c>
-      <c r="N20">
-        <v>50</v>
-      </c>
-      <c r="O20">
-        <v>50</v>
-      </c>
-      <c r="R20">
-        <v>98</v>
-      </c>
-      <c r="S20">
-        <v>50</v>
-      </c>
-      <c r="U20">
-        <v>29.960999999999999</v>
-      </c>
-      <c r="V20">
-        <v>0.125</v>
-      </c>
-      <c r="W20">
-        <v>29.960999999999999</v>
-      </c>
-      <c r="X20">
-        <v>0.125</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21">
-        <v>50</v>
-      </c>
-      <c r="D21">
-        <v>98</v>
-      </c>
-      <c r="E21">
-        <v>90</v>
-      </c>
-      <c r="N21">
-        <v>50</v>
-      </c>
-      <c r="O21">
-        <v>50</v>
-      </c>
-      <c r="R21">
-        <v>98</v>
-      </c>
-      <c r="S21">
-        <v>50</v>
-      </c>
-      <c r="U21">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="V21">
-        <v>0.125</v>
-      </c>
-      <c r="W21">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="X21">
-        <v>0.125</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22">
-        <v>50</v>
-      </c>
-      <c r="D22">
-        <v>98</v>
-      </c>
-      <c r="E22">
-        <v>90</v>
-      </c>
-      <c r="N22">
-        <v>50</v>
-      </c>
-      <c r="O22">
-        <v>50</v>
-      </c>
-      <c r="R22">
-        <v>98</v>
-      </c>
-      <c r="S22">
-        <v>50</v>
-      </c>
-      <c r="U22">
-        <v>30.984000000000002</v>
-      </c>
-      <c r="V22">
-        <v>0.125</v>
-      </c>
-      <c r="W22">
-        <v>30.984000000000002</v>
-      </c>
-      <c r="X22">
-        <v>0.125</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23">
-        <v>50</v>
-      </c>
-      <c r="D23">
-        <v>98</v>
-      </c>
-      <c r="E23">
-        <v>90</v>
-      </c>
-      <c r="N23">
-        <v>50</v>
-      </c>
-      <c r="O23">
-        <v>50</v>
-      </c>
-      <c r="R23">
-        <v>98</v>
-      </c>
-      <c r="S23">
-        <v>50</v>
-      </c>
-      <c r="U23">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="V23">
-        <v>0.125</v>
-      </c>
-      <c r="W23">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="X23">
-        <v>0.125</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24">
-        <v>50</v>
-      </c>
-      <c r="D24">
-        <v>98</v>
-      </c>
-      <c r="E24">
-        <v>90</v>
-      </c>
-      <c r="N24">
-        <v>50</v>
-      </c>
-      <c r="O24">
-        <v>50</v>
-      </c>
-      <c r="R24">
-        <v>98</v>
-      </c>
-      <c r="S24">
-        <v>50</v>
-      </c>
-      <c r="U24">
-        <v>30.984000000000002</v>
-      </c>
-      <c r="V24">
-        <v>0.125</v>
-      </c>
-      <c r="W24">
-        <v>30.984000000000002</v>
-      </c>
-      <c r="X24">
-        <v>0.125</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>70</v>
+      </c>
+      <c r="D42">
+        <v>70</v>
+      </c>
+      <c r="E42">
+        <v>70</v>
+      </c>
+      <c r="N42">
+        <v>25</v>
+      </c>
+      <c r="O42">
+        <v>75</v>
+      </c>
+      <c r="U42">
+        <v>80</v>
+      </c>
+      <c r="V42">
+        <v>75</v>
+      </c>
+      <c r="X42">
+        <v>33</v>
+      </c>
+      <c r="Y42">
+        <v>0.125</v>
+      </c>
+      <c r="Z42">
+        <v>33</v>
+      </c>
+      <c r="AA42">
+        <v>0.125</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C25">
-        <v>50</v>
-      </c>
-      <c r="D25">
-        <v>98</v>
-      </c>
-      <c r="E25">
-        <v>90</v>
-      </c>
-      <c r="N25">
-        <v>50</v>
-      </c>
-      <c r="O25">
-        <v>50</v>
-      </c>
-      <c r="R25">
-        <v>98</v>
-      </c>
-      <c r="S25">
-        <v>50</v>
-      </c>
-      <c r="U25">
-        <v>30.164999999999999</v>
-      </c>
-      <c r="V25">
-        <v>0.125</v>
-      </c>
-      <c r="W25">
-        <v>30.164999999999999</v>
-      </c>
-      <c r="X25">
-        <v>0.125</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>70</v>
+      </c>
+      <c r="D43">
+        <v>70</v>
+      </c>
+      <c r="E43">
+        <v>70</v>
+      </c>
+      <c r="N43">
+        <v>25</v>
+      </c>
+      <c r="O43">
+        <v>75</v>
+      </c>
+      <c r="U43">
+        <v>80</v>
+      </c>
+      <c r="V43">
+        <v>75</v>
+      </c>
+      <c r="X43">
+        <v>33</v>
+      </c>
+      <c r="Y43">
+        <v>0.125</v>
+      </c>
+      <c r="Z43">
+        <v>33</v>
+      </c>
+      <c r="AA43">
+        <v>0.125</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C26">
-        <v>50</v>
-      </c>
-      <c r="D26">
-        <v>98</v>
-      </c>
-      <c r="E26">
-        <v>90</v>
-      </c>
-      <c r="N26">
-        <v>50</v>
-      </c>
-      <c r="O26">
-        <v>50</v>
-      </c>
-      <c r="R26">
-        <v>98</v>
-      </c>
-      <c r="S26">
-        <v>50</v>
-      </c>
-      <c r="U26">
-        <v>30.574999999999999</v>
-      </c>
-      <c r="V26">
-        <v>0.125</v>
-      </c>
-      <c r="W26">
-        <v>30.574999999999999</v>
-      </c>
-      <c r="X26">
-        <v>0.125</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27">
-        <v>50</v>
-      </c>
-      <c r="D27">
-        <v>98</v>
-      </c>
-      <c r="E27">
-        <v>90</v>
-      </c>
-      <c r="N27">
-        <v>50</v>
-      </c>
-      <c r="O27">
-        <v>50</v>
-      </c>
-      <c r="R27">
-        <v>98</v>
-      </c>
-      <c r="S27">
-        <v>50</v>
-      </c>
-      <c r="U27">
-        <v>29.073</v>
-      </c>
-      <c r="V27">
-        <v>0.125</v>
-      </c>
-      <c r="W27">
-        <v>29.073</v>
-      </c>
-      <c r="X27">
-        <v>0.125</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28">
-        <v>50</v>
-      </c>
-      <c r="D28">
-        <v>98</v>
-      </c>
-      <c r="E28">
-        <v>90</v>
-      </c>
-      <c r="N28">
-        <v>50</v>
-      </c>
-      <c r="O28">
-        <v>50</v>
-      </c>
-      <c r="R28">
-        <v>98</v>
-      </c>
-      <c r="S28">
-        <v>50</v>
-      </c>
-      <c r="U28">
-        <v>29.141999999999999</v>
-      </c>
-      <c r="V28">
-        <v>0.125</v>
-      </c>
-      <c r="W28">
-        <v>29.141999999999999</v>
-      </c>
-      <c r="X28">
-        <v>0.125</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29">
-        <v>99</v>
-      </c>
-      <c r="D29">
-        <v>98</v>
-      </c>
-      <c r="E29">
-        <v>90</v>
-      </c>
-      <c r="N29">
-        <v>95</v>
-      </c>
-      <c r="O29">
-        <v>99</v>
-      </c>
-      <c r="R29">
-        <v>98</v>
-      </c>
-      <c r="S29">
-        <v>97</v>
-      </c>
-      <c r="U29">
-        <v>30.78</v>
-      </c>
-      <c r="V29">
-        <v>0.125</v>
-      </c>
-      <c r="W29">
-        <v>30.78</v>
-      </c>
-      <c r="X29">
-        <v>0.125</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30">
-        <v>50</v>
-      </c>
-      <c r="D30">
-        <v>98</v>
-      </c>
-      <c r="E30">
-        <v>90</v>
-      </c>
-      <c r="N30">
-        <v>50</v>
-      </c>
-      <c r="O30">
-        <v>50</v>
-      </c>
-      <c r="R30">
-        <v>98</v>
-      </c>
-      <c r="S30">
-        <v>50</v>
-      </c>
-      <c r="U30">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="V30">
-        <v>0.125</v>
-      </c>
-      <c r="W30">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="X30">
-        <v>0.125</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31">
-        <v>50</v>
-      </c>
-      <c r="D31">
-        <v>98</v>
-      </c>
-      <c r="E31">
-        <v>90</v>
-      </c>
-      <c r="N31">
-        <v>50</v>
-      </c>
-      <c r="O31">
-        <v>50</v>
-      </c>
-      <c r="R31">
-        <v>98</v>
-      </c>
-      <c r="S31">
-        <v>50</v>
-      </c>
-      <c r="U31">
-        <v>30.437999999999999</v>
-      </c>
-      <c r="V31">
-        <v>0.125</v>
-      </c>
-      <c r="W31">
-        <v>30.437999999999999</v>
-      </c>
-      <c r="X31">
-        <v>0.125</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32">
-        <v>50</v>
-      </c>
-      <c r="D32">
-        <v>98</v>
-      </c>
-      <c r="E32">
-        <v>90</v>
-      </c>
-      <c r="N32">
-        <v>50</v>
-      </c>
-      <c r="O32">
-        <v>50</v>
-      </c>
-      <c r="R32">
-        <v>98</v>
-      </c>
-      <c r="S32">
-        <v>50</v>
-      </c>
-      <c r="U32">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="V32">
-        <v>0.125</v>
-      </c>
-      <c r="W32">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="X32">
-        <v>0.125</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33">
-        <v>50</v>
-      </c>
-      <c r="D33">
-        <v>98</v>
-      </c>
-      <c r="E33">
-        <v>90</v>
-      </c>
-      <c r="N33">
-        <v>50</v>
-      </c>
-      <c r="O33">
-        <v>50</v>
-      </c>
-      <c r="R33">
-        <v>98</v>
-      </c>
-      <c r="S33">
-        <v>50</v>
-      </c>
-      <c r="U33">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="V33">
-        <v>0.125</v>
-      </c>
-      <c r="W33">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="X33">
-        <v>0.125</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34">
-        <v>50</v>
-      </c>
-      <c r="D34">
-        <v>98</v>
-      </c>
-      <c r="E34">
-        <v>90</v>
-      </c>
-      <c r="N34">
-        <v>50</v>
-      </c>
-      <c r="O34">
-        <v>50</v>
-      </c>
-      <c r="R34">
-        <v>98</v>
-      </c>
-      <c r="S34">
-        <v>50</v>
-      </c>
-      <c r="U34">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="V34">
-        <v>0.125</v>
-      </c>
-      <c r="W34">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="X34">
-        <v>0.125</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>75</v>
+      </c>
+      <c r="D44">
+        <v>76</v>
+      </c>
+      <c r="E44">
+        <v>70</v>
+      </c>
+      <c r="N44">
+        <v>25</v>
+      </c>
+      <c r="O44">
+        <v>75</v>
+      </c>
+      <c r="U44">
+        <v>80</v>
+      </c>
+      <c r="V44">
+        <v>65</v>
+      </c>
+      <c r="X44">
+        <v>33</v>
+      </c>
+      <c r="Y44">
+        <v>0.125</v>
+      </c>
+      <c r="Z44">
+        <v>33</v>
+      </c>
+      <c r="AA44">
+        <v>0.125</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C35">
-        <v>50</v>
-      </c>
-      <c r="D35">
-        <v>98</v>
-      </c>
-      <c r="E35">
-        <v>90</v>
-      </c>
-      <c r="N35">
-        <v>50</v>
-      </c>
-      <c r="O35">
-        <v>50</v>
-      </c>
-      <c r="R35">
-        <v>98</v>
-      </c>
-      <c r="S35">
-        <v>50</v>
-      </c>
-      <c r="U35">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="V35">
-        <v>0.125</v>
-      </c>
-      <c r="W35">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="X35">
-        <v>0.125</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36">
-        <v>50</v>
-      </c>
-      <c r="D36">
-        <v>98</v>
-      </c>
-      <c r="E36">
-        <v>90</v>
-      </c>
-      <c r="N36">
-        <v>50</v>
-      </c>
-      <c r="O36">
-        <v>50</v>
-      </c>
-      <c r="R36">
-        <v>98</v>
-      </c>
-      <c r="S36">
-        <v>50</v>
-      </c>
-      <c r="U36">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="V36">
-        <v>0.125</v>
-      </c>
-      <c r="W36">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="X36">
-        <v>0.125</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37">
-        <v>50</v>
-      </c>
-      <c r="D37">
-        <v>98</v>
-      </c>
-      <c r="E37">
-        <v>90</v>
-      </c>
-      <c r="N37">
-        <v>50</v>
-      </c>
-      <c r="O37">
-        <v>50</v>
-      </c>
-      <c r="R37">
-        <v>98</v>
-      </c>
-      <c r="S37">
-        <v>50</v>
-      </c>
-      <c r="U37">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="V37">
-        <v>0.125</v>
-      </c>
-      <c r="W37">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="X37">
-        <v>0.125</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38">
-        <v>50</v>
-      </c>
-      <c r="D38">
-        <v>98</v>
-      </c>
-      <c r="E38">
-        <v>90</v>
-      </c>
-      <c r="N38">
-        <v>50</v>
-      </c>
-      <c r="O38">
-        <v>50</v>
-      </c>
-      <c r="R38">
-        <v>98</v>
-      </c>
-      <c r="S38">
-        <v>50</v>
-      </c>
-      <c r="U38">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="V38">
-        <v>0.125</v>
-      </c>
-      <c r="W38">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="X38">
-        <v>0.125</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39">
-        <v>50</v>
-      </c>
-      <c r="D39">
-        <v>98</v>
-      </c>
-      <c r="E39">
-        <v>90</v>
-      </c>
-      <c r="N39">
-        <v>50</v>
-      </c>
-      <c r="O39">
-        <v>50</v>
-      </c>
-      <c r="R39">
-        <v>98</v>
-      </c>
-      <c r="S39">
-        <v>50</v>
-      </c>
-      <c r="U39">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="V39">
-        <v>0.125</v>
-      </c>
-      <c r="W39">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="X39">
-        <v>0.125</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40">
-        <v>50</v>
-      </c>
-      <c r="D40">
-        <v>98</v>
-      </c>
-      <c r="E40">
-        <v>90</v>
-      </c>
-      <c r="N40">
-        <v>50</v>
-      </c>
-      <c r="O40">
-        <v>50</v>
-      </c>
-      <c r="R40">
-        <v>98</v>
-      </c>
-      <c r="S40">
-        <v>50</v>
-      </c>
-      <c r="U40">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="V40">
-        <v>0.125</v>
-      </c>
-      <c r="W40">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="X40">
-        <v>0.125</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41">
-        <v>50</v>
-      </c>
-      <c r="D41">
-        <v>98</v>
-      </c>
-      <c r="E41">
-        <v>90</v>
-      </c>
-      <c r="N41">
-        <v>50</v>
-      </c>
-      <c r="O41">
-        <v>50</v>
-      </c>
-      <c r="R41">
-        <v>98</v>
-      </c>
-      <c r="S41">
-        <v>50</v>
-      </c>
-      <c r="U41">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="V41">
-        <v>0.125</v>
-      </c>
-      <c r="W41">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="X41">
-        <v>0.125</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42">
-        <v>50</v>
-      </c>
-      <c r="D42">
-        <v>98</v>
-      </c>
-      <c r="E42">
-        <v>90</v>
-      </c>
-      <c r="N42">
-        <v>50</v>
-      </c>
-      <c r="O42">
-        <v>50</v>
-      </c>
-      <c r="R42">
-        <v>98</v>
-      </c>
-      <c r="S42">
-        <v>50</v>
-      </c>
-      <c r="U42">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="V42">
-        <v>0.125</v>
-      </c>
-      <c r="W42">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="X42">
-        <v>0.125</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43">
-        <v>50</v>
-      </c>
-      <c r="D43">
-        <v>98</v>
-      </c>
-      <c r="E43">
-        <v>90</v>
-      </c>
-      <c r="N43">
-        <v>50</v>
-      </c>
-      <c r="O43">
-        <v>50</v>
-      </c>
-      <c r="R43">
-        <v>98</v>
-      </c>
-      <c r="S43">
-        <v>50</v>
-      </c>
-      <c r="U43">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="V43">
-        <v>0.125</v>
-      </c>
-      <c r="W43">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="X43">
-        <v>0.125</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44">
-        <v>50</v>
-      </c>
-      <c r="D44">
-        <v>98</v>
-      </c>
-      <c r="E44">
-        <v>90</v>
-      </c>
-      <c r="N44">
-        <v>50</v>
-      </c>
-      <c r="O44">
-        <v>50</v>
-      </c>
-      <c r="R44">
-        <v>98</v>
-      </c>
-      <c r="S44">
-        <v>50</v>
-      </c>
-      <c r="U44">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="V44">
-        <v>0.125</v>
-      </c>
-      <c r="W44">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="X44">
-        <v>0.125</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>125</v>
+      <c r="B45">
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D45">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="E45">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N45">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="O45">
-        <v>50</v>
-      </c>
-      <c r="R45">
-        <v>98</v>
-      </c>
-      <c r="S45">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="U45">
-        <v>28.664000000000001</v>
+        <v>80</v>
       </c>
       <c r="V45">
-        <v>0.125</v>
-      </c>
-      <c r="W45">
-        <v>28.664000000000001</v>
+        <v>75</v>
       </c>
       <c r="X45">
-        <v>0.125</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46">
-        <v>50</v>
-      </c>
-      <c r="D46">
-        <v>98</v>
-      </c>
-      <c r="E46">
-        <v>90</v>
-      </c>
-      <c r="N46">
-        <v>50</v>
-      </c>
-      <c r="O46">
-        <v>50</v>
-      </c>
-      <c r="R46">
-        <v>98</v>
-      </c>
-      <c r="S46">
-        <v>50</v>
-      </c>
-      <c r="U46">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="V46">
-        <v>0.125</v>
-      </c>
-      <c r="W46">
-        <v>28.664000000000001</v>
-      </c>
-      <c r="X46">
-        <v>0.125</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>129</v>
+        <v>33</v>
+      </c>
+      <c r="Y45">
+        <v>0.125</v>
+      </c>
+      <c r="Z45">
+        <v>33</v>
+      </c>
+      <c r="AA45">
+        <v>0.125</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -61482,8 +61811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFD966D-7A7E-41CA-B35E-A07C89DC0167}">
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AH45"/>
+    <sheetView topLeftCell="N13" workbookViewId="0">
+      <selection sqref="A1:AE45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -65757,8 +66086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85188EE3-4082-448D-B0A9-137611A2CD15}">
   <dimension ref="A1:AG46"/>
   <sheetViews>
-    <sheetView topLeftCell="T10" workbookViewId="0">
-      <selection activeCell="AE36" sqref="AE36"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -65780,9 +66109,9 @@
     <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.109375" customWidth="1"/>
     <col min="19" max="19" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" customWidth="1"/>
     <col min="21" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.88671875" bestFit="1" customWidth="1"/>
@@ -65790,7 +66119,7 @@
     <col min="25" max="25" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.109375" customWidth="1"/>
     <col min="29" max="29" width="20.44140625" customWidth="1"/>
     <col min="30" max="30" width="21" customWidth="1"/>
     <col min="31" max="31" width="19.6640625" customWidth="1"/>
@@ -65921,17 +66250,17 @@
       <c r="O2">
         <v>95</v>
       </c>
-      <c r="P2">
-        <v>5</v>
-      </c>
       <c r="Q2">
         <v>99</v>
       </c>
+      <c r="S2">
+        <v>99</v>
+      </c>
       <c r="U2">
-        <v>90.1</v>
+        <v>98</v>
       </c>
       <c r="V2">
-        <v>90.1</v>
+        <v>90</v>
       </c>
       <c r="X2">
         <v>31.5</v>
@@ -65946,7 +66275,7 @@
         <v>0.125</v>
       </c>
       <c r="AE2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -65971,12 +66300,12 @@
       <c r="O3">
         <v>95</v>
       </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
       <c r="Q3">
         <v>99</v>
       </c>
+      <c r="S3">
+        <v>99</v>
+      </c>
       <c r="U3">
         <v>98</v>
       </c>
@@ -65996,7 +66325,7 @@
         <v>0.125</v>
       </c>
       <c r="AE3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
@@ -66021,14 +66350,14 @@
       <c r="O4">
         <v>92</v>
       </c>
-      <c r="P4">
-        <v>12</v>
-      </c>
       <c r="Q4">
         <v>99</v>
       </c>
+      <c r="S4">
+        <v>99</v>
+      </c>
       <c r="U4">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="V4">
         <v>90</v>
@@ -66046,7 +66375,7 @@
         <v>0.125</v>
       </c>
       <c r="AE4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
@@ -66071,14 +66400,14 @@
       <c r="O5">
         <v>94</v>
       </c>
-      <c r="P5">
-        <v>12</v>
-      </c>
       <c r="Q5">
         <v>99</v>
       </c>
+      <c r="S5">
+        <v>99</v>
+      </c>
       <c r="U5">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="V5">
         <v>88</v>
@@ -66096,7 +66425,7 @@
         <v>0.125</v>
       </c>
       <c r="AE5" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
@@ -66121,14 +66450,14 @@
       <c r="O6">
         <v>82</v>
       </c>
-      <c r="P6">
-        <v>12</v>
-      </c>
       <c r="Q6">
         <v>99</v>
       </c>
+      <c r="S6">
+        <v>99</v>
+      </c>
       <c r="U6">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="V6">
         <v>80</v>
@@ -66146,7 +66475,7 @@
         <v>0.125</v>
       </c>
       <c r="AE6" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
@@ -66171,14 +66500,14 @@
       <c r="O7">
         <v>81</v>
       </c>
-      <c r="P7">
-        <v>12</v>
-      </c>
       <c r="Q7">
         <v>99</v>
       </c>
+      <c r="S7">
+        <v>99</v>
+      </c>
       <c r="U7">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="V7">
         <v>80</v>
@@ -66196,7 +66525,7 @@
         <v>0.125</v>
       </c>
       <c r="AE7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
@@ -66221,17 +66550,17 @@
       <c r="O8">
         <v>80</v>
       </c>
-      <c r="P8">
-        <v>15</v>
-      </c>
       <c r="Q8">
         <v>99</v>
       </c>
+      <c r="S8">
+        <v>99</v>
+      </c>
       <c r="U8">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="V8">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="X8">
         <v>31.7</v>
@@ -66246,7 +66575,7 @@
         <v>0.125</v>
       </c>
       <c r="AE8" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
@@ -66271,12 +66600,12 @@
       <c r="O9">
         <v>76</v>
       </c>
-      <c r="P9">
-        <v>15</v>
-      </c>
       <c r="Q9">
         <v>99</v>
       </c>
+      <c r="S9">
+        <v>99</v>
+      </c>
       <c r="U9">
         <v>90</v>
       </c>
@@ -66296,7 +66625,7 @@
         <v>0.125</v>
       </c>
       <c r="AE9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
@@ -66321,10 +66650,10 @@
       <c r="O10">
         <v>70</v>
       </c>
-      <c r="P10">
-        <v>15</v>
-      </c>
       <c r="Q10">
+        <v>99</v>
+      </c>
+      <c r="S10">
         <v>99</v>
       </c>
       <c r="U10">
@@ -66371,10 +66700,10 @@
       <c r="O11">
         <v>76</v>
       </c>
-      <c r="P11">
-        <v>15</v>
-      </c>
       <c r="Q11">
+        <v>99</v>
+      </c>
+      <c r="S11">
         <v>99</v>
       </c>
       <c r="U11">
@@ -66421,12 +66750,12 @@
       <c r="O12">
         <v>81</v>
       </c>
-      <c r="P12">
-        <v>15</v>
-      </c>
       <c r="Q12">
         <v>99</v>
       </c>
+      <c r="S12">
+        <v>99</v>
+      </c>
       <c r="U12">
         <v>90</v>
       </c>
@@ -66471,10 +66800,10 @@
       <c r="O13">
         <v>81</v>
       </c>
-      <c r="P13">
-        <v>16</v>
-      </c>
       <c r="Q13">
+        <v>99</v>
+      </c>
+      <c r="S13">
         <v>99</v>
       </c>
       <c r="U13">
@@ -66521,10 +66850,10 @@
       <c r="O14">
         <v>81</v>
       </c>
-      <c r="P14">
-        <v>16</v>
-      </c>
       <c r="Q14">
+        <v>99</v>
+      </c>
+      <c r="S14">
         <v>99</v>
       </c>
       <c r="U14">
@@ -66571,10 +66900,10 @@
       <c r="O15">
         <v>81</v>
       </c>
-      <c r="P15">
-        <v>21</v>
-      </c>
       <c r="Q15">
+        <v>99</v>
+      </c>
+      <c r="S15">
         <v>99</v>
       </c>
       <c r="U15">
@@ -66621,17 +66950,17 @@
       <c r="O16">
         <v>75</v>
       </c>
-      <c r="P16">
-        <v>21</v>
-      </c>
       <c r="Q16">
         <v>99</v>
       </c>
+      <c r="S16">
+        <v>99</v>
+      </c>
       <c r="U16">
         <v>90</v>
       </c>
       <c r="V16">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="X16">
         <v>32</v>
@@ -66674,6 +67003,9 @@
       <c r="Q17">
         <v>99</v>
       </c>
+      <c r="S17">
+        <v>99</v>
+      </c>
       <c r="U17">
         <v>90</v>
       </c>
@@ -66721,11 +67053,14 @@
       <c r="Q18">
         <v>99</v>
       </c>
+      <c r="S18">
+        <v>99</v>
+      </c>
       <c r="U18">
         <v>90</v>
       </c>
       <c r="V18">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="X18">
         <v>32.200000000000003</v>
@@ -66768,6 +67103,9 @@
       <c r="Q19">
         <v>99</v>
       </c>
+      <c r="S19">
+        <v>99</v>
+      </c>
       <c r="U19">
         <v>90</v>
       </c>
@@ -66815,6 +67153,9 @@
       <c r="Q20">
         <v>99</v>
       </c>
+      <c r="S20">
+        <v>99</v>
+      </c>
       <c r="U20">
         <v>90</v>
       </c>
@@ -66857,9 +67198,12 @@
         <v>45</v>
       </c>
       <c r="O21">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Q21">
+        <v>99</v>
+      </c>
+      <c r="S21">
         <v>99</v>
       </c>
       <c r="U21">
@@ -66904,9 +67248,12 @@
         <v>45</v>
       </c>
       <c r="O22">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="Q22">
+        <v>99</v>
+      </c>
+      <c r="S22">
         <v>99</v>
       </c>
       <c r="U22">
@@ -66951,9 +67298,12 @@
         <v>45</v>
       </c>
       <c r="O23">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="Q23">
+        <v>99</v>
+      </c>
+      <c r="S23">
         <v>99</v>
       </c>
       <c r="U23">
@@ -66998,11 +67348,14 @@
         <v>45</v>
       </c>
       <c r="O24">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="Q24">
         <v>99</v>
       </c>
+      <c r="S24">
+        <v>99</v>
+      </c>
       <c r="U24">
         <v>80</v>
       </c>
@@ -67045,16 +67398,19 @@
         <v>25</v>
       </c>
       <c r="O25">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="Q25">
         <v>99</v>
       </c>
+      <c r="S25">
+        <v>99</v>
+      </c>
       <c r="U25">
         <v>90</v>
       </c>
       <c r="V25">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X25">
         <v>32.5</v>
@@ -67092,9 +67448,12 @@
         <v>25</v>
       </c>
       <c r="O26">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="Q26">
+        <v>99</v>
+      </c>
+      <c r="S26">
         <v>99</v>
       </c>
       <c r="U26">
@@ -67139,9 +67498,12 @@
         <v>25</v>
       </c>
       <c r="O27">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Q27">
+        <v>99</v>
+      </c>
+      <c r="S27">
         <v>99</v>
       </c>
       <c r="U27">
@@ -67186,9 +67548,12 @@
         <v>25</v>
       </c>
       <c r="O28">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Q28">
+        <v>99</v>
+      </c>
+      <c r="S28">
         <v>99</v>
       </c>
       <c r="U28">
@@ -67233,9 +67598,12 @@
         <v>25</v>
       </c>
       <c r="O29">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Q29">
+        <v>99</v>
+      </c>
+      <c r="S29">
         <v>99</v>
       </c>
       <c r="U29">
@@ -67280,16 +67648,19 @@
         <v>25</v>
       </c>
       <c r="O30">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Q30">
         <v>99</v>
       </c>
+      <c r="S30">
+        <v>99</v>
+      </c>
       <c r="U30">
         <v>80</v>
       </c>
       <c r="V30">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X30">
         <v>32.799999999999997</v>
@@ -67315,7 +67686,7 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D31">
         <v>70</v>
@@ -67327,9 +67698,12 @@
         <v>25</v>
       </c>
       <c r="O31">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Q31">
+        <v>99</v>
+      </c>
+      <c r="S31">
         <v>99</v>
       </c>
       <c r="U31">
@@ -67362,7 +67736,7 @@
         <v>5</v>
       </c>
       <c r="C32">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D32">
         <v>70</v>
@@ -67374,9 +67748,12 @@
         <v>25</v>
       </c>
       <c r="O32">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Q32">
+        <v>99</v>
+      </c>
+      <c r="S32">
         <v>99</v>
       </c>
       <c r="U32">
@@ -67409,7 +67786,7 @@
         <v>5</v>
       </c>
       <c r="C33">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D33">
         <v>70</v>
@@ -67426,11 +67803,14 @@
       <c r="Q33">
         <v>99</v>
       </c>
+      <c r="S33">
+        <v>99</v>
+      </c>
       <c r="U33">
         <v>80</v>
       </c>
       <c r="V33">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X33">
         <v>33</v>
@@ -67456,7 +67836,7 @@
         <v>5</v>
       </c>
       <c r="C34">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D34">
         <v>70</v>
@@ -67471,6 +67851,9 @@
         <v>50</v>
       </c>
       <c r="Q34">
+        <v>99</v>
+      </c>
+      <c r="S34">
         <v>99</v>
       </c>
       <c r="U34">
@@ -67503,7 +67886,7 @@
         <v>5</v>
       </c>
       <c r="C35">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D35">
         <v>70</v>
@@ -67518,6 +67901,9 @@
         <v>50</v>
       </c>
       <c r="Q35">
+        <v>99</v>
+      </c>
+      <c r="S35">
         <v>99</v>
       </c>
       <c r="U35">
@@ -67550,7 +67936,7 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D36">
         <v>70</v>
@@ -67565,6 +67951,9 @@
         <v>50</v>
       </c>
       <c r="Q36">
+        <v>99</v>
+      </c>
+      <c r="S36">
         <v>99</v>
       </c>
       <c r="U36">
@@ -67597,7 +67986,7 @@
         <v>5</v>
       </c>
       <c r="C37">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D37">
         <v>70</v>
@@ -67612,6 +68001,9 @@
         <v>50</v>
       </c>
       <c r="Q37">
+        <v>99</v>
+      </c>
+      <c r="S37">
         <v>99</v>
       </c>
       <c r="U37">
@@ -67644,7 +68036,7 @@
         <v>5</v>
       </c>
       <c r="C38">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D38">
         <v>70</v>
@@ -67659,6 +68051,9 @@
         <v>50</v>
       </c>
       <c r="Q38">
+        <v>99</v>
+      </c>
+      <c r="S38">
         <v>99</v>
       </c>
       <c r="U38">
@@ -67691,7 +68086,7 @@
         <v>5</v>
       </c>
       <c r="C39">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D39">
         <v>70</v>
@@ -67706,6 +68101,9 @@
         <v>50</v>
       </c>
       <c r="Q39">
+        <v>99</v>
+      </c>
+      <c r="S39">
         <v>99</v>
       </c>
       <c r="U39">
@@ -67738,7 +68136,7 @@
         <v>5</v>
       </c>
       <c r="C40">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D40">
         <v>70</v>
@@ -67753,6 +68151,9 @@
         <v>50</v>
       </c>
       <c r="Q40">
+        <v>99</v>
+      </c>
+      <c r="S40">
         <v>99</v>
       </c>
       <c r="U40">
@@ -67785,7 +68186,7 @@
         <v>5</v>
       </c>
       <c r="C41">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D41">
         <v>70</v>
@@ -67800,6 +68201,9 @@
         <v>50</v>
       </c>
       <c r="Q41">
+        <v>99</v>
+      </c>
+      <c r="S41">
         <v>99</v>
       </c>
       <c r="U41">
@@ -67832,7 +68236,7 @@
         <v>5</v>
       </c>
       <c r="C42">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D42">
         <v>70</v>
@@ -67847,6 +68251,9 @@
         <v>50</v>
       </c>
       <c r="Q42">
+        <v>99</v>
+      </c>
+      <c r="S42">
         <v>99</v>
       </c>
       <c r="U42">
@@ -67879,7 +68286,7 @@
         <v>5</v>
       </c>
       <c r="C43">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D43">
         <v>70</v>
@@ -67894,6 +68301,9 @@
         <v>50</v>
       </c>
       <c r="Q43">
+        <v>99</v>
+      </c>
+      <c r="S43">
         <v>99</v>
       </c>
       <c r="U43">
@@ -67943,11 +68353,14 @@
       <c r="Q44">
         <v>99</v>
       </c>
+      <c r="S44">
+        <v>99</v>
+      </c>
       <c r="U44">
         <v>80</v>
       </c>
       <c r="V44">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X44">
         <v>33</v>
@@ -67990,6 +68403,9 @@
       <c r="Q45">
         <v>99</v>
       </c>
+      <c r="S45">
+        <v>99</v>
+      </c>
       <c r="U45">
         <v>80</v>
       </c>
@@ -68034,10 +68450,10 @@
       <c r="O46">
         <v>80</v>
       </c>
-      <c r="P46">
-        <v>15</v>
-      </c>
       <c r="Q46">
+        <v>99</v>
+      </c>
+      <c r="S46">
         <v>99</v>
       </c>
       <c r="U46">
